--- a/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.002799948576624061</v>
+        <v>0.002765405891476024</v>
       </c>
       <c r="F2">
         <v>0.5140650887277203</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>109</v>
       </c>
       <c r="E3">
-        <v>0.01684791129479768</v>
+        <v>0.01635860265877747</v>
       </c>
       <c r="F3">
         <v>0.5083971982067863</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.02194069854118762</v>
+        <v>0.0214549997476814</v>
       </c>
       <c r="F4">
         <v>0.535739476397358</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01037096644303417</v>
+        <v>0.0101733135263407</v>
       </c>
       <c r="F5">
         <v>0.523575719402686</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.00401831228820749</v>
+        <v>0.004015533523784611</v>
       </c>
       <c r="F6">
         <v>0.519773168874767</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.002799948576624061</v>
+        <v>0.002765405891476024</v>
       </c>
       <c r="F2">
         <v>0.7000924183539659</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>140</v>
       </c>
       <c r="E3">
-        <v>0.01684791129479768</v>
+        <v>0.01635860265877747</v>
       </c>
       <c r="F3">
         <v>0.7008347913745571</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>0.02194069854118762</v>
+        <v>0.0214549997476814</v>
       </c>
       <c r="F4">
         <v>0.7020676238970928</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>142</v>
       </c>
       <c r="E5">
-        <v>0.01037096644303417</v>
+        <v>0.0101733135263407</v>
       </c>
       <c r="F5">
         <v>0.7091657906192544</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.00401831228820749</v>
+        <v>0.004015533523784611</v>
       </c>
       <c r="F6">
         <v>0.7025939992200547</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.002799948576624061</v>
+        <v>0.002765405891476024</v>
       </c>
       <c r="F2">
         <v>0.8155698216250601</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01684791129479768</v>
+        <v>0.01635860265877747</v>
       </c>
       <c r="F3">
         <v>0.8037453255625354</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>0.02194069854118762</v>
+        <v>0.0214549997476814</v>
       </c>
       <c r="F4">
         <v>0.8136433482469907</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.01037096644303417</v>
+        <v>0.0101733135263407</v>
       </c>
       <c r="F5">
         <v>0.8327002532370763</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.00401831228820749</v>
+        <v>0.004015533523784611</v>
       </c>
       <c r="F6">
         <v>0.8076738298973483</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.002799948576624061</v>
+        <v>0.002765405891476024</v>
       </c>
       <c r="F2">
         <v>0.9062510471336869</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01684791129479768</v>
+        <v>0.01635860265877747</v>
       </c>
       <c r="F3">
         <v>0.9020633855228665</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>166</v>
       </c>
       <c r="E4">
-        <v>0.02194069854118762</v>
+        <v>0.0214549997476814</v>
       </c>
       <c r="F4">
         <v>0.9074334710608242</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01037096644303417</v>
+        <v>0.0101733135263407</v>
       </c>
       <c r="F5">
         <v>0.9159927067496004</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.00401831228820749</v>
+        <v>0.004015533523784611</v>
       </c>
       <c r="F6">
         <v>0.905507099330576</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>5</v>

--- a/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.489587027812007E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.146443034912689E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.031654534420747E-09</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.085479030365783E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.963076608413031E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.898275825277863E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001031514844420697</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000100770110431864</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001659362207111422</v>
+        <v>5.005105701806897E-05</v>
       </c>
       <c r="K2">
-        <v>0.0001191652405106988</v>
+        <v>2.597945101301586E-06</v>
       </c>
       <c r="L2">
-        <v>0.0001123987754817002</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001140718504888704</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.000116604640499725</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001345043405764366</v>
+        <v>1.816075838856832E-05</v>
       </c>
       <c r="P2">
-        <v>5.63955042416906E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.716507020213232E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.214464409490388E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.2649465054211E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5.247764422490007E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.169179617867586E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.605762606881714E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.676301711469655E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.208873022323333E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>3.805743016310029E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.532612719425128E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.75740061610285E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.380475323058758E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.616863528357468E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.427653014689673E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.011542912906376E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.426412027541262E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.437848910447733E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.304149105589108E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.51029552361512E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.091553904678003E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.800173033428701E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.471609627734962E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.265761213995863E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.619653406941245E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.85991861225657E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.85991861225657E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.465326206279855E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.416160910354786E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.85991861225657E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>5.008844521466084E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.970587721302129E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.84820902934893E-07</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.130776804846098E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.080155654629154E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.767135307573299E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.512647106482655E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.982630408496832E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.968556312722151E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.799699711998494E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.913240208199451E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.094293504689743E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.669384607154375E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>2.799699711998494E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>8.614892436920292E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.261694713978436E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.54337650661435E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.947780808347479E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.482226606352284E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.185975455082659E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.059243904539534E-07</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>8.472753036311133E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.465326206279855E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.683547507215072E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.998062208562967E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.033356808714227E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>5.008844521466084E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>7.057089030244114E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001115668644781349</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>5.580668623916713E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.207004205172781E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>2.045596008766679E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.416160910354786E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.207004205172781E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>2.27664920975689E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>8.614892436920292E-07</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>3.261694713978436E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.392819105969116E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.643333207042728E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>4.893769020972912E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>3.903355516728361E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.721405720234226E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.132447504853258E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.106147104740544E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.348121410063193E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0005538381023735484</v>
+        <v>0.0004436102966227227</v>
       </c>
       <c r="CN2">
-        <v>0.08933330038284999</v>
+        <v>0.09051787731970168</v>
       </c>
       <c r="CO2">
-        <v>0.01595038506835754</v>
+        <v>0.01606470831888905</v>
       </c>
       <c r="CP2">
-        <v>0.07664031032845246</v>
+        <v>0.07763976625535346</v>
       </c>
       <c r="CQ2">
-        <v>0.0002927336612545499</v>
+        <v>0.0001786977757970981</v>
       </c>
       <c r="CR2">
-        <v>0.001116139904783369</v>
+        <v>0.00101411299394486</v>
       </c>
       <c r="CS2">
-        <v>0.0005575444023894323</v>
+        <v>0.0004473706511993665</v>
       </c>
       <c r="CT2">
-        <v>0.02418702810365679</v>
+        <v>0.02442147873715821</v>
       </c>
       <c r="CU2">
-        <v>0.001398457905993281</v>
+        <v>0.001300548464189827</v>
       </c>
       <c r="CV2">
-        <v>0.04481494019206051</v>
+        <v>0.04535023876624523</v>
       </c>
       <c r="CW2">
-        <v>0.01286207905512219</v>
+        <v>0.01293136088312387</v>
       </c>
       <c r="CX2">
-        <v>0.05975426725608503</v>
+        <v>0.0605074485594158</v>
       </c>
       <c r="CY2">
-        <v>0.007261602031120582</v>
+        <v>0.007249203659386386</v>
       </c>
       <c r="CZ2">
-        <v>0.004904132021017324</v>
+        <v>0.004857351109997394</v>
       </c>
       <c r="DA2">
-        <v>0.007675994032896516</v>
+        <v>0.007669639364462762</v>
       </c>
       <c r="DB2">
-        <v>0.01993521108543506</v>
+        <v>0.02010765106130848</v>
       </c>
       <c r="DC2">
-        <v>0.09583316041070603</v>
+        <v>0.09711253460555114</v>
       </c>
       <c r="DD2">
-        <v>0.01161681604978544</v>
+        <v>0.0116679363300183</v>
       </c>
       <c r="DE2">
-        <v>0.03657720015675656</v>
+        <v>0.03699235534876646</v>
       </c>
       <c r="DF2">
-        <v>0.001500888506432262</v>
+        <v>0.00140447296449967</v>
       </c>
       <c r="DG2">
-        <v>0.04370685318731166</v>
+        <v>0.04422599085815106</v>
       </c>
       <c r="DH2">
-        <v>0.002286012309797017</v>
+        <v>0.002201047411943741</v>
       </c>
       <c r="DI2">
-        <v>0.01379678305912799</v>
+        <v>0.01387969708478247</v>
       </c>
       <c r="DJ2">
-        <v>2.198216909420757E-05</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.016696940071557</v>
+        <v>0.01682215145920858</v>
       </c>
       <c r="DL2">
-        <v>0.0174813500749187</v>
+        <v>0.01761800169622802</v>
       </c>
       <c r="DM2">
-        <v>0.0006969055029866832</v>
+        <v>0.0005887642648278132</v>
       </c>
       <c r="DN2">
-        <v>0.01932459708281819</v>
+        <v>0.01948813155412807</v>
       </c>
       <c r="DO2">
-        <v>0.006679765028627041</v>
+        <v>0.006658880850706385</v>
       </c>
       <c r="DP2">
-        <v>6.940464029744302E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>4.953362021228306E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.009808511042035707</v>
+        <v>0.009833258084134853</v>
       </c>
       <c r="DS2">
-        <v>0.006279041526909685</v>
+        <v>0.00625231299403161</v>
       </c>
       <c r="DT2">
-        <v>0.001356637705814055</v>
+        <v>0.001258118336983136</v>
       </c>
       <c r="DU2">
-        <v>0.0006936718029728248</v>
+        <v>0.0005854834028915176</v>
       </c>
       <c r="DV2">
-        <v>0.002826718812114287</v>
+        <v>0.002749639852354943</v>
       </c>
       <c r="DW2">
-        <v>0.01482163806352014</v>
+        <v>0.01491949909477796</v>
       </c>
       <c r="DX2">
-        <v>0.007364684031562354</v>
+        <v>0.007353789060047314</v>
       </c>
       <c r="DY2">
-        <v>0.00185270300794001</v>
+        <v>0.001761418507279435</v>
       </c>
       <c r="DZ2">
-        <v>0.00485712062081585</v>
+        <v>0.004809654071672262</v>
       </c>
       <c r="EA2">
-        <v>0.002259777209684582</v>
+        <v>0.002174429685814256</v>
       </c>
       <c r="EB2">
-        <v>0.009133629039143408</v>
+        <v>0.009148533259540376</v>
       </c>
       <c r="EC2">
-        <v>0.002462181510552013</v>
+        <v>0.002379785953746529</v>
       </c>
       <c r="ED2">
-        <v>0.001944035408331428</v>
+        <v>0.001854082945758743</v>
       </c>
       <c r="EE2">
-        <v>0.002615323811208325</v>
+        <v>0.002535161759451073</v>
       </c>
       <c r="EF2">
-        <v>0.0004701157220147448</v>
+        <v>0.0003586668665710513</v>
       </c>
       <c r="EG2">
-        <v>0.0003081758613207295</v>
+        <v>0.0001943651927475469</v>
       </c>
       <c r="EH2">
-        <v>0.0005438194023306119</v>
+        <v>0.0004334454787728398</v>
       </c>
       <c r="EI2">
-        <v>0.0003720513215944765</v>
+        <v>0.0002591722451572891</v>
       </c>
       <c r="EJ2">
-        <v>0.0003878852016623347</v>
+        <v>0.0002752370545693789</v>
       </c>
       <c r="EK2">
-        <v>0.0004426875418971976</v>
+        <v>0.0003308386599520486</v>
       </c>
       <c r="EL2">
-        <v>0.005636087624154219</v>
+        <v>0.005599981925193154</v>
       </c>
       <c r="EM2">
-        <v>0.003222835013811897</v>
+        <v>0.003151533213807806</v>
       </c>
       <c r="EN2">
-        <v>0.0002860471412258939</v>
+        <v>0.0001719137361662479</v>
       </c>
       <c r="EO2">
-        <v>0.0004443431019042928</v>
+        <v>0.0003325183654866541</v>
       </c>
       <c r="EP2">
-        <v>6.787350229088112E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001571047906732939</v>
+        <v>0.00147565560510744</v>
       </c>
       <c r="ER2">
-        <v>0.000493303472114119</v>
+        <v>0.0003821927985880417</v>
       </c>
       <c r="ES2">
-        <v>0.004638083719877138</v>
+        <v>0.004587422625386515</v>
       </c>
       <c r="ET2">
-        <v>0.002137749009161614</v>
+        <v>0.002050621764073004</v>
       </c>
       <c r="EU2">
-        <v>0.003828019816405499</v>
+        <v>0.003765544338755936</v>
       </c>
       <c r="EV2">
-        <v>0.0164271540704008</v>
+        <v>0.01654843076206738</v>
       </c>
       <c r="EW2">
-        <v>0.00170139970729158</v>
+        <v>0.001607908522492368</v>
       </c>
       <c r="EX2">
-        <v>8.021276034376268E-06</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0114788340491941</v>
+        <v>0.01152794192989029</v>
       </c>
       <c r="EZ2">
-        <v>0.03850807016503156</v>
+        <v>0.03895138614535718</v>
       </c>
       <c r="FA2">
-        <v>0.001930195508272115</v>
+        <v>0.001840041197571793</v>
       </c>
       <c r="FB2">
-        <v>0.01607533006889301</v>
+        <v>0.01619147558073476</v>
       </c>
       <c r="FC2">
-        <v>0.006619933028370622</v>
+        <v>0.006598176230187336</v>
       </c>
       <c r="FD2">
-        <v>6.019645025798007E-05</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004616692719785464</v>
+        <v>0.004565719648091372</v>
       </c>
       <c r="FF2">
-        <v>0.02791943411965253</v>
+        <v>0.02820832005707099</v>
       </c>
       <c r="FG2">
-        <v>0.009190516039387205</v>
+        <v>0.009206249928671728</v>
       </c>
       <c r="FH2">
-        <v>0.0006402200727437501</v>
+        <v>0.0005312521054965338</v>
       </c>
       <c r="FI2">
-        <v>0.0007511899032193264</v>
+        <v>0.0006438403763083631</v>
       </c>
       <c r="FJ2">
-        <v>0.01854219807946511</v>
+        <v>0.01869432164656216</v>
       </c>
       <c r="FK2">
-        <v>0.02234084509574473</v>
+        <v>0.02254837005913108</v>
       </c>
       <c r="FL2">
-        <v>0.001234691705291439</v>
+        <v>0.001134393814088766</v>
       </c>
       <c r="FM2">
-        <v>0.007757298033244955</v>
+        <v>0.007752129143622421</v>
       </c>
       <c r="FN2">
-        <v>0.01597024706844266</v>
+        <v>0.01608485999646542</v>
       </c>
       <c r="FO2">
-        <v>0.007007778030032785</v>
+        <v>0.006991677760224949</v>
       </c>
       <c r="FP2">
-        <v>0.004419988518942462</v>
+        <v>0.004366146613335672</v>
       </c>
       <c r="FQ2">
-        <v>0.003943998016902539</v>
+        <v>0.003883214024199885</v>
       </c>
       <c r="FR2">
-        <v>2.849667512212637E-06</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>8.472753036311133E-06</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.01015492004352029</v>
+        <v>0.01018471929033527</v>
       </c>
       <c r="FU2">
-        <v>0.01022899204383773</v>
+        <v>0.0102598715943045</v>
       </c>
       <c r="FV2">
-        <v>6.0538507259446E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.00219752920941781</v>
+        <v>0.002111273829114333</v>
       </c>
       <c r="FX2">
-        <v>0.0005079611421769365</v>
+        <v>0.0003970642435513297</v>
       </c>
       <c r="FY2">
-        <v>0.0005637491024160234</v>
+        <v>0.0004536658437206685</v>
       </c>
       <c r="FZ2">
-        <v>0.001991321008534077</v>
+        <v>0.001902058183157051</v>
       </c>
       <c r="GA2">
-        <v>0.006750628428930735</v>
+        <v>0.006730777758810569</v>
       </c>
       <c r="GB2">
-        <v>0.002241974209608285</v>
+        <v>0.002156367037747993</v>
       </c>
       <c r="GC2">
-        <v>0.0004601241719719246</v>
+        <v>0.0003485295946906678</v>
       </c>
       <c r="GD2">
-        <v>0.0004483957619216609</v>
+        <v>0.0003366301315548572</v>
       </c>
       <c r="GE2">
-        <v>0.0009543803040901265</v>
+        <v>0.0008499942091254802</v>
       </c>
       <c r="GF2">
-        <v>0.001669855807156394</v>
+        <v>0.001575904570105838</v>
       </c>
       <c r="GG2">
-        <v>0.0003193152013684686</v>
+        <v>0.0002056669945849026</v>
       </c>
       <c r="GH2">
-        <v>4.493180419256135E-07</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>1.482226606352284E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002258133409677537</v>
+        <v>0.002172761911793511</v>
       </c>
       <c r="GK2">
-        <v>1.31872380565157E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002366901010143676</v>
+        <v>0.002283115834155586</v>
       </c>
       <c r="GM2">
-        <v>5.152289722080838E-05</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>5.233866022430444E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.003555797315238852</v>
+        <v>0.00348935160645137</v>
       </c>
       <c r="GP2">
-        <v>0.0007542957032326367</v>
+        <v>0.0006469914728855804</v>
       </c>
       <c r="GQ2">
-        <v>0.001285853905510702</v>
+        <v>0.001186302189806103</v>
       </c>
       <c r="GR2">
-        <v>0.004470094019157195</v>
+        <v>0.004416982877599229</v>
       </c>
       <c r="GS2">
-        <v>3.054838813091927E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001559135387318788</v>
+        <v>0.0001476557773301177</v>
       </c>
       <c r="C3">
-        <v>7.357912940154488E-05</v>
+        <v>6.518843320121538E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001037957251557785</v>
+        <v>9.54538158126413E-05</v>
       </c>
       <c r="E3">
-        <v>1.27818808960387E-05</v>
+        <v>4.293023185238352E-06</v>
       </c>
       <c r="F3">
-        <v>4.687088661877611E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.495777930899675E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.347503156506136E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001386964288719139</v>
+        <v>0.0001304108692136307</v>
       </c>
       <c r="J3">
-        <v>8.298632932503151E-05</v>
+        <v>7.461082172248382E-05</v>
       </c>
       <c r="K3">
-        <v>1.211153090149098E-05</v>
+        <v>3.621590862630956E-06</v>
       </c>
       <c r="L3">
-        <v>7.050581942654163E-05</v>
+        <v>6.211016114722488E-05</v>
       </c>
       <c r="M3">
-        <v>0.0004219246965682796</v>
+        <v>0.0004140964292258254</v>
       </c>
       <c r="N3">
-        <v>4.506214963348745E-05</v>
+        <v>3.662541072765878E-05</v>
       </c>
       <c r="O3">
-        <v>8.086318934230005E-08</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.964793518951451E-05</v>
+        <v>9.129932894251713E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001714040986058865</v>
+        <v>0.0001631713478220834</v>
       </c>
       <c r="R3">
-        <v>0.0002414341980362973</v>
+        <v>0.0002333145158618062</v>
       </c>
       <c r="S3">
-        <v>0.0002241830181766096</v>
+        <v>0.0002160354827371426</v>
       </c>
       <c r="T3">
-        <v>8.298632932503151E-05</v>
+        <v>7.461082172248382E-05</v>
       </c>
       <c r="U3">
-        <v>6.798866644701486E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8.298632932503151E-05</v>
+        <v>7.461082172248382E-05</v>
       </c>
       <c r="W3">
-        <v>9.147906925595589E-05</v>
+        <v>8.311727379006156E-05</v>
       </c>
       <c r="X3">
-        <v>3.126959174566909E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.100284291050849E-05</v>
+        <v>2.51111281551087E-06</v>
       </c>
       <c r="Z3">
-        <v>1.282454489569169E-07</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002964861575885328</v>
+        <v>0.0002884553607441654</v>
       </c>
       <c r="AB3">
-        <v>0.0005003687659302556</v>
+        <v>0.0004926671521539633</v>
       </c>
       <c r="AC3">
-        <v>0.0001045484391496563</v>
+        <v>9.620774511715253E-05</v>
       </c>
       <c r="AD3">
-        <v>0.0001549940387393575</v>
+        <v>0.0001467347927390272</v>
       </c>
       <c r="AE3">
-        <v>0.0004401595964199663</v>
+        <v>0.0004323607706288442</v>
       </c>
       <c r="AF3">
-        <v>0.0002700144278038404</v>
+        <v>0.000261940890456501</v>
       </c>
       <c r="AG3">
-        <v>0.0002363919780773082</v>
+        <v>0.0002282641548776973</v>
       </c>
       <c r="AH3">
-        <v>0.0007344730440261708</v>
+        <v>0.0007271494083674819</v>
       </c>
       <c r="AI3">
-        <v>0.0003790078269173436</v>
+        <v>0.0003711102672162189</v>
       </c>
       <c r="AJ3">
-        <v>9.569530922166315E-05</v>
+        <v>8.734032117705374E-05</v>
       </c>
       <c r="AK3">
-        <v>0.0002540980979332957</v>
+        <v>0.000245998862531856</v>
       </c>
       <c r="AL3">
-        <v>0.0003080251274946807</v>
+        <v>0.0003000129611433555</v>
       </c>
       <c r="AM3">
-        <v>3.850901268678733E-05</v>
+        <v>3.006169327218856E-05</v>
       </c>
       <c r="AN3">
-        <v>1.916201684414592E-05</v>
+        <v>1.06834603196175E-05</v>
       </c>
       <c r="AO3">
-        <v>3.824555468893016E-05</v>
+        <v>2.979780990253166E-05</v>
       </c>
       <c r="AP3">
-        <v>3.349690472755326E-05</v>
+        <v>2.504149290581411E-05</v>
       </c>
       <c r="AQ3">
-        <v>4.848112960567921E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003565091171003366</v>
+        <v>0.0003485752316214248</v>
       </c>
       <c r="AS3">
-        <v>0.000166610398644876</v>
+        <v>0.0001583699080892825</v>
       </c>
       <c r="AT3">
-        <v>1.289374489512885E-05</v>
+        <v>4.405067796763903E-06</v>
       </c>
       <c r="AU3">
-        <v>0.0001318351289277203</v>
+        <v>0.0001235384912094446</v>
       </c>
       <c r="AV3">
-        <v>0.0007010639942979029</v>
+        <v>0.000693686417336518</v>
       </c>
       <c r="AW3">
-        <v>0.0005437613555773224</v>
+        <v>0.0005361298022436932</v>
       </c>
       <c r="AX3">
-        <v>0.0007413311339703906</v>
+        <v>0.0007340185711889193</v>
       </c>
       <c r="AY3">
-        <v>0.0005669328953888569</v>
+        <v>0.0005593387541652121</v>
       </c>
       <c r="AZ3">
-        <v>0.0004760741961278553</v>
+        <v>0.0004683333570292553</v>
       </c>
       <c r="BA3">
-        <v>0.0003234302573693832</v>
+        <v>0.0003154429637031659</v>
       </c>
       <c r="BB3">
-        <v>0.000745352593937682</v>
+        <v>0.0007380465240912431</v>
       </c>
       <c r="BC3">
-        <v>0.0003767474969357279</v>
+        <v>0.0003688462877700204</v>
       </c>
       <c r="BD3">
-        <v>3.644295970359155E-05</v>
+        <v>2.799230449853303E-05</v>
       </c>
       <c r="BE3">
-        <v>1.538724187484802E-05</v>
+        <v>6.902590705877908E-06</v>
       </c>
       <c r="BF3">
-        <v>5.446301655702559E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001101514631040842</v>
+        <v>0.0001018198155549014</v>
       </c>
       <c r="BH3">
-        <v>8.769359528674502E-05</v>
+        <v>7.932568790210765E-05</v>
       </c>
       <c r="BI3">
-        <v>8.086318934230005E-08</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001501359087788711</v>
+        <v>0.0001418688189799033</v>
       </c>
       <c r="BK3">
-        <v>0.0004526246963185815</v>
+        <v>0.0004448459963236804</v>
       </c>
       <c r="BL3">
-        <v>0.0002926887776194187</v>
+        <v>0.0002846518496332191</v>
       </c>
       <c r="BM3">
-        <v>0.0002375272280680746</v>
+        <v>0.0002294012378108516</v>
       </c>
       <c r="BN3">
-        <v>0.0003028694975366139</v>
+        <v>0.0002948490070516058</v>
       </c>
       <c r="BO3">
-        <v>0.0005378900656250765</v>
+        <v>0.0005302490326734664</v>
       </c>
       <c r="BP3">
-        <v>0.0002939518576091455</v>
+        <v>0.000285916968956019</v>
       </c>
       <c r="BQ3">
-        <v>3.349690472755326E-05</v>
+        <v>2.504149290581411E-05</v>
       </c>
       <c r="BR3">
-        <v>0.0003054418775156915</v>
+        <v>0.0002974255403223283</v>
       </c>
       <c r="BS3">
-        <v>0.0005447534955692528</v>
+        <v>0.0005371235441166724</v>
       </c>
       <c r="BT3">
-        <v>9.49752292275199E-05</v>
+        <v>8.661907856220606E-05</v>
       </c>
       <c r="BU3">
-        <v>7.657691937716237E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>3.530432971285258E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>7.613132938078658E-05</v>
+        <v>6.774475389004747E-05</v>
       </c>
       <c r="BX3">
-        <v>9.714363920988317E-05</v>
+        <v>8.879098959773245E-05</v>
       </c>
       <c r="BY3">
-        <v>3.356594972699168E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>6.866028944155222E-05</v>
+        <v>6.026165142194461E-05</v>
       </c>
       <c r="CA3">
-        <v>6.744353545144867E-05</v>
+        <v>5.904293289541093E-05</v>
       </c>
       <c r="CB3">
-        <v>0.0001011257591774946</v>
+        <v>9.277953898313017E-05</v>
       </c>
       <c r="CC3">
-        <v>6.504265947097616E-05</v>
+        <v>5.663818052877805E-05</v>
       </c>
       <c r="CD3">
-        <v>0.0002022925583546555</v>
+        <v>0.0001941096792005658</v>
       </c>
       <c r="CE3">
-        <v>0.0002230801581855797</v>
+        <v>0.0002149308420996983</v>
       </c>
       <c r="CF3">
-        <v>3.325121672955155E-05</v>
+        <v>2.479540822694968E-05</v>
       </c>
       <c r="CG3">
-        <v>6.327055548538956E-05</v>
+        <v>5.486321535443352E-05</v>
       </c>
       <c r="CH3">
-        <v>0.0003551179771116514</v>
+        <v>0.0003471818455376297</v>
       </c>
       <c r="CI3">
-        <v>0.0002557741179196637</v>
+        <v>0.0002476775885724861</v>
       </c>
       <c r="CJ3">
-        <v>3.497403671553902E-05</v>
+        <v>2.652100982914925E-05</v>
       </c>
       <c r="CK3">
-        <v>0.0001369647788859983</v>
+        <v>0.0001286764233548359</v>
       </c>
       <c r="CL3">
-        <v>0.0003523438571342147</v>
+        <v>0.0003444032465448772</v>
       </c>
       <c r="CM3">
-        <v>0.0006379378948113384</v>
+        <v>0.0006304583962428404</v>
       </c>
       <c r="CN3">
-        <v>0.08117901433973128</v>
+        <v>0.08130157417539459</v>
       </c>
       <c r="CO3">
-        <v>0.00210972898284054</v>
+        <v>0.002104625796356057</v>
       </c>
       <c r="CP3">
-        <v>0.100635149181485</v>
+        <v>0.1007891223398058</v>
       </c>
       <c r="CQ3">
-        <v>0.006905838943831428</v>
+        <v>0.006908479420254856</v>
       </c>
       <c r="CR3">
-        <v>0.00158514858710721</v>
+        <v>0.001579198428016657</v>
       </c>
       <c r="CS3">
-        <v>0.0006982874443204859</v>
+        <v>0.0006909053844203763</v>
       </c>
       <c r="CT3">
-        <v>0.01094941391094305</v>
+        <v>0.01095858302864928</v>
       </c>
       <c r="CU3">
-        <v>0.000242095458030919</v>
+        <v>0.0002339768435080319</v>
       </c>
       <c r="CV3">
-        <v>0.04083769366784702</v>
+        <v>0.04089511955306219</v>
       </c>
       <c r="CW3">
-        <v>0.001761056385676465</v>
+        <v>0.001755390242320762</v>
       </c>
       <c r="CX3">
-        <v>0.05524971255062701</v>
+        <v>0.0553304076721521</v>
       </c>
       <c r="CY3">
-        <v>0.01578065787164817</v>
+        <v>0.01579762737862026</v>
       </c>
       <c r="CZ3">
-        <v>0.005607262654393384</v>
+        <v>0.005607806486426379</v>
       </c>
       <c r="DA3">
-        <v>0.007377927939991696</v>
+        <v>0.007381330637898479</v>
       </c>
       <c r="DB3">
-        <v>0.006087896350484155</v>
+        <v>0.006089216200030298</v>
       </c>
       <c r="DC3">
-        <v>0.07738424937059597</v>
+        <v>0.07750068228653167</v>
       </c>
       <c r="DD3">
-        <v>0.03212462373871469</v>
+        <v>0.03216798174871994</v>
       </c>
       <c r="DE3">
-        <v>0.03078303674962648</v>
+        <v>0.03082422867138736</v>
       </c>
       <c r="DF3">
-        <v>0.01361255488928242</v>
+        <v>0.01362602383876487</v>
       </c>
       <c r="DG3">
-        <v>0.03238068473663202</v>
+        <v>0.03242445617545101</v>
       </c>
       <c r="DH3">
-        <v>0.008376106931873017</v>
+        <v>0.008381121261226485</v>
       </c>
       <c r="DI3">
-        <v>0.01460222888123291</v>
+        <v>0.01461729573023075</v>
       </c>
       <c r="DJ3">
-        <v>0.003983965567596456</v>
+        <v>0.003981888470263404</v>
       </c>
       <c r="DK3">
-        <v>0.01173133790458328</v>
+        <v>0.01174176949455883</v>
       </c>
       <c r="DL3">
-        <v>0.02179155082275864</v>
+        <v>0.02181822534674816</v>
       </c>
       <c r="DM3">
-        <v>6.608069546253332E-07</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.02105849382872095</v>
+        <v>0.02108398477971063</v>
       </c>
       <c r="DO3">
-        <v>0.008902193927594095</v>
+        <v>0.008908057662067176</v>
       </c>
       <c r="DP3">
-        <v>0.000166610398644876</v>
+        <v>0.0001583699080892825</v>
       </c>
       <c r="DQ3">
-        <v>0.0001761776385670609</v>
+        <v>0.0001679525950052852</v>
       </c>
       <c r="DR3">
-        <v>0.005657074953988237</v>
+        <v>0.005657699211545223</v>
       </c>
       <c r="DS3">
-        <v>0.006434635647663955</v>
+        <v>0.006436515332630078</v>
       </c>
       <c r="DT3">
-        <v>0.001170027690483591</v>
+        <v>0.001163407288984997</v>
       </c>
       <c r="DU3">
-        <v>0.001838993485042565</v>
+        <v>0.001833453176713669</v>
       </c>
       <c r="DV3">
-        <v>0.0003682076270051869</v>
+        <v>0.0003602926296080674</v>
       </c>
       <c r="DW3">
-        <v>0.00891611592748086</v>
+        <v>0.0089220021400195</v>
       </c>
       <c r="DX3">
-        <v>0.008788902928515545</v>
+        <v>0.008794583746559583</v>
       </c>
       <c r="DY3">
-        <v>0.001023564391674849</v>
+        <v>0.001016707514694337</v>
       </c>
       <c r="DZ3">
-        <v>0.007316252640493332</v>
+        <v>0.007319555759213452</v>
       </c>
       <c r="EA3">
-        <v>0.004121254966479813</v>
+        <v>0.004119399532710447</v>
       </c>
       <c r="EB3">
-        <v>0.01109841990973111</v>
+        <v>0.01110782960829042</v>
       </c>
       <c r="EC3">
-        <v>0.005555343954815665</v>
+        <v>0.005555803960391089</v>
       </c>
       <c r="ED3">
-        <v>0.001296901789451662</v>
+        <v>0.001290486235269361</v>
       </c>
       <c r="EE3">
-        <v>0.003311689973064403</v>
+        <v>0.003308527438652631</v>
       </c>
       <c r="EF3">
-        <v>1.100284291050849E-05</v>
+        <v>2.51111281551087E-06</v>
       </c>
       <c r="EG3">
-        <v>0.0003710433969821222</v>
+        <v>0.0003631329781386565</v>
       </c>
       <c r="EH3">
-        <v>0.0006676257445698726</v>
+        <v>0.0006601941791603014</v>
       </c>
       <c r="EI3">
-        <v>8.192572933365788E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001412353888512634</v>
+        <v>0.0001329539285256427</v>
       </c>
       <c r="EK3">
-        <v>0.001171095890474903</v>
+        <v>0.001164477213661672</v>
       </c>
       <c r="EL3">
-        <v>0.009030219926552795</v>
+        <v>0.009036290368167174</v>
       </c>
       <c r="EM3">
-        <v>0.00661733394617798</v>
+        <v>0.006619508610627278</v>
       </c>
       <c r="EN3">
-        <v>0.00165540128653581</v>
+        <v>0.001649564555458203</v>
       </c>
       <c r="EO3">
-        <v>0.001951644084126322</v>
+        <v>0.001946285658254829</v>
       </c>
       <c r="EP3">
-        <v>0.0005027195959111351</v>
+        <v>0.0004950217777181538</v>
       </c>
       <c r="EQ3">
-        <v>0.0001596187987017421</v>
+        <v>0.0001513670197074792</v>
       </c>
       <c r="ER3">
-        <v>0.0009946709919098533</v>
+        <v>0.0009877674644668078</v>
       </c>
       <c r="ES3">
-        <v>0.002845891276852971</v>
+        <v>0.002841976677097465</v>
       </c>
       <c r="ET3">
-        <v>0.003317732973015252</v>
+        <v>0.003314580195459548</v>
       </c>
       <c r="EU3">
-        <v>0.0006668192945764319</v>
+        <v>0.0006593864270956087</v>
       </c>
       <c r="EV3">
-        <v>0.01502930287775931</v>
+        <v>0.01504505926830076</v>
       </c>
       <c r="EW3">
-        <v>0.005431447555823375</v>
+        <v>0.005431707521792306</v>
       </c>
       <c r="EX3">
-        <v>2.740032477713973E-05</v>
+        <v>1.893506959058803E-05</v>
       </c>
       <c r="EY3">
-        <v>0.006217086649433387</v>
+        <v>0.00621861508596652</v>
       </c>
       <c r="EZ3">
-        <v>0.03973248167683625</v>
+        <v>0.03978812311816465</v>
       </c>
       <c r="FA3">
-        <v>0.008730762928988427</v>
+        <v>0.008736349875840715</v>
       </c>
       <c r="FB3">
-        <v>0.01141995990711587</v>
+        <v>0.0114298887550215</v>
       </c>
       <c r="FC3">
-        <v>0.01041337291530293</v>
+        <v>0.01042167655644403</v>
       </c>
       <c r="FD3">
-        <v>0.0003605727670672849</v>
+        <v>0.0003526454426421805</v>
       </c>
       <c r="FE3">
-        <v>0.000651840464698262</v>
+        <v>0.0006443834128241963</v>
       </c>
       <c r="FF3">
-        <v>0.0211263298281692</v>
+        <v>0.02115193030523669</v>
       </c>
       <c r="FG3">
-        <v>0.0123360818996646</v>
+        <v>0.01234748989211665</v>
       </c>
       <c r="FH3">
-        <v>0.002099578982923095</v>
+        <v>0.002094459408537059</v>
       </c>
       <c r="FI3">
-        <v>0.0002330025181048763</v>
+        <v>0.0002248692223794727</v>
       </c>
       <c r="FJ3">
-        <v>0.01291892089492408</v>
+        <v>0.01293126992266215</v>
       </c>
       <c r="FK3">
-        <v>0.0237583498067617</v>
+        <v>0.02378819986852321</v>
       </c>
       <c r="FL3">
-        <v>0.003000049975599123</v>
+        <v>0.002996384276099683</v>
       </c>
       <c r="FM3">
-        <v>0.005786739252933613</v>
+        <v>0.005787572862784519</v>
       </c>
       <c r="FN3">
-        <v>0.01793969385408768</v>
+        <v>0.01796014927922887</v>
       </c>
       <c r="FO3">
-        <v>0.009055303926348776</v>
+        <v>0.009061414867876707</v>
       </c>
       <c r="FP3">
-        <v>0.003332944572891528</v>
+        <v>0.003329816355552894</v>
       </c>
       <c r="FQ3">
-        <v>0.00302397127540456</v>
+        <v>0.003020344198556293</v>
       </c>
       <c r="FR3">
-        <v>3.589337970806155E-06</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0004372093164439624</v>
+        <v>0.0004294057272145947</v>
       </c>
       <c r="FT3">
-        <v>0.003549226771132399</v>
+        <v>0.003546447756887477</v>
       </c>
       <c r="FU3">
-        <v>0.01081537091203329</v>
+        <v>0.01082432360772101</v>
       </c>
       <c r="FV3">
-        <v>1.76662538563117E-06</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.005511947955168626</v>
+        <v>0.005512337894795698</v>
       </c>
       <c r="FX3">
-        <v>0.0001647119586603169</v>
+        <v>0.0001564684029374502</v>
       </c>
       <c r="FY3">
-        <v>0.0004273602365240698</v>
+        <v>0.0004195407452500298</v>
       </c>
       <c r="FZ3">
-        <v>0.002869545676660579</v>
+        <v>0.00286566926862709</v>
       </c>
       <c r="GA3">
-        <v>0.009623678921725902</v>
+        <v>0.009630707545376488</v>
       </c>
       <c r="GB3">
-        <v>0.003750099569498602</v>
+        <v>0.003747644878768063</v>
       </c>
       <c r="GC3">
-        <v>9.636622921620624E-07</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0006963399943363255</v>
+        <v>0.0006889547901387894</v>
       </c>
       <c r="GE3">
-        <v>0.0002154362182477516</v>
+        <v>0.0002072745604735753</v>
       </c>
       <c r="GF3">
-        <v>0.001191373190309978</v>
+        <v>0.001184787252649078</v>
       </c>
       <c r="GG3">
-        <v>0.0001970818983970363</v>
+        <v>0.0001888906062593896</v>
       </c>
       <c r="GH3">
-        <v>0.0002859983376738353</v>
+        <v>0.0002779506074933437</v>
       </c>
       <c r="GI3">
-        <v>0.0002398058980495411</v>
+        <v>0.0002316835868681438</v>
       </c>
       <c r="GJ3">
-        <v>0.001142667490706125</v>
+        <v>0.001136002914206146</v>
       </c>
       <c r="GK3">
-        <v>8.931137927358679E-06</v>
+        <v>4.360629163427407E-07</v>
       </c>
       <c r="GL3">
-        <v>0.00462834766235538</v>
+        <v>0.004627310966048638</v>
       </c>
       <c r="GM3">
-        <v>0.0005020198259168267</v>
+        <v>0.0004943208778950898</v>
       </c>
       <c r="GN3">
-        <v>0.0004386137564325394</v>
+        <v>0.0004308124347720837</v>
       </c>
       <c r="GO3">
-        <v>0.005442323555734915</v>
+        <v>0.005442601081784367</v>
       </c>
       <c r="GP3">
-        <v>0.003015865775470486</v>
+        <v>0.003012225611712264</v>
       </c>
       <c r="GQ3">
-        <v>0.0002557741179196637</v>
+        <v>0.0002476775885724861</v>
       </c>
       <c r="GR3">
-        <v>0.003066390475059544</v>
+        <v>0.003062831887046108</v>
       </c>
       <c r="GS3">
-        <v>0.0003155213174337105</v>
+        <v>0.0003075212542177291</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.000215977470452599</v>
+        <v>0.0001403743282773297</v>
       </c>
       <c r="C4">
-        <v>0.0009131632441940968</v>
+        <v>0.0008473648500139536</v>
       </c>
       <c r="D4">
-        <v>0.000925067444770221</v>
+        <v>0.0008594364631953379</v>
       </c>
       <c r="E4">
-        <v>0.0003828923185307286</v>
+        <v>0.0003096365536022267</v>
       </c>
       <c r="F4">
-        <v>0.0001890990591517723</v>
+        <v>0.0001131179172248734</v>
       </c>
       <c r="G4">
-        <v>0.0006537226316380247</v>
+        <v>0.0005842756405965855</v>
       </c>
       <c r="H4">
-        <v>0.0009042856437644502</v>
+        <v>0.0008383624010313208</v>
       </c>
       <c r="I4">
-        <v>0.0005129127748232908</v>
+        <v>0.0004414855294317246</v>
       </c>
       <c r="J4">
-        <v>0.0003252178857394757</v>
+        <v>0.0002511510266943436</v>
       </c>
       <c r="K4">
-        <v>7.754989375315972E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.800864232346035E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.488966817251226E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001354132865535576</v>
+        <v>5.867714432247244E-05</v>
       </c>
       <c r="O4">
-        <v>0.0002700947330716965</v>
+        <v>0.0001952526593836953</v>
       </c>
       <c r="P4">
-        <v>1.869171990461775E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.354493259139858E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0004261501806242667</v>
+        <v>0.0003535027649372575</v>
       </c>
       <c r="S4">
-        <v>0.0001886504591300616</v>
+        <v>0.0001126630083966306</v>
       </c>
       <c r="T4">
-        <v>1.116720754045611E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0003339815761636095</v>
+        <v>0.0002600379637183826</v>
       </c>
       <c r="V4">
-        <v>0.0005928812286935009</v>
+        <v>0.0005225786054145597</v>
       </c>
       <c r="W4">
-        <v>0.0001104142553436867</v>
+        <v>3.332654368825763E-05</v>
       </c>
       <c r="X4">
-        <v>0.0002877162139245182</v>
+        <v>0.0002131219567949869</v>
       </c>
       <c r="Y4">
-        <v>0.0006000736290415894</v>
+        <v>0.0005298721548043371</v>
       </c>
       <c r="Z4">
-        <v>0.0005569901869564925</v>
+        <v>0.0004861828164024809</v>
       </c>
       <c r="AA4">
-        <v>0.0004414842013663829</v>
+        <v>0.0003690524329498589</v>
       </c>
       <c r="AB4">
-        <v>0.0001836281988870007</v>
+        <v>0.0001075701184908545</v>
       </c>
       <c r="AC4">
-        <v>0.0002688861130132033</v>
+        <v>0.0001940270421122042</v>
       </c>
       <c r="AD4">
-        <v>5.194090651376899E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.406942068091367E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.004175548598793E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.195274454640772E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002771296134121616</v>
+        <v>0.0002023864735112685</v>
       </c>
       <c r="AI4">
-        <v>0.0002718439931563549</v>
+        <v>0.0001970265198760987</v>
       </c>
       <c r="AJ4">
-        <v>0.0002539405322898863</v>
+        <v>0.0001788712768754447</v>
       </c>
       <c r="AK4">
-        <v>0.0002465643719329044</v>
+        <v>0.0001713913832006073</v>
       </c>
       <c r="AL4">
-        <v>0.0002192356406102837</v>
+        <v>0.00014367831913091</v>
       </c>
       <c r="AM4">
-        <v>0.0003857790186704353</v>
+        <v>0.0003125638503353715</v>
       </c>
       <c r="AN4">
-        <v>0.0003800164483915459</v>
+        <v>0.0003067202391753902</v>
       </c>
       <c r="AO4">
-        <v>0.0001205198558327645</v>
+        <v>4.357426249051201E-05</v>
       </c>
       <c r="AP4">
-        <v>4.182409802414875E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001719574283221738</v>
+        <v>9.573521812216926E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0003886766188106697</v>
+        <v>0.0003155022003592604</v>
       </c>
       <c r="AS4">
-        <v>0.0001436246469509604</v>
+        <v>6.700398372479189E-05</v>
       </c>
       <c r="AT4">
-        <v>1.509864173072459E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.774263482661935E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>4.58235322177082E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>6.446708311999472E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.000235391331392166</v>
+        <v>0.0001600612125935834</v>
       </c>
       <c r="AY4">
-        <v>0.0001328552664297578</v>
+        <v>5.608314993811696E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.0001073414151949714</v>
+        <v>3.021048919922985E-05</v>
       </c>
       <c r="BA4">
-        <v>0.0004799291732269931</v>
+        <v>0.0004080380688271057</v>
       </c>
       <c r="BB4">
-        <v>0.0005821739281753028</v>
+        <v>0.0005117207246819582</v>
       </c>
       <c r="BC4">
-        <v>0.0002448985618522847</v>
+        <v>0.0001697021462965162</v>
       </c>
       <c r="BD4">
-        <v>0.0001250529260521502</v>
+        <v>4.817108273581512E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0002076451100493402</v>
+        <v>0.0001319247872071159</v>
       </c>
       <c r="BF4">
-        <v>0.0003246294957109996</v>
+        <v>0.0002505543619474648</v>
       </c>
       <c r="BG4">
-        <v>0.0001467799671036675</v>
+        <v>7.020367816066202E-05</v>
       </c>
       <c r="BH4">
-        <v>1.998662496728689E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>8.338938403577184E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001515757273357666</v>
+        <v>7.506688271290035E-05</v>
       </c>
       <c r="BK4">
-        <v>4.171212201872947E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.195274454640772E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>5.486933265549519E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.201029306522577E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.182409802414875E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002882701339513261</v>
+        <v>0.0002136836667774665</v>
       </c>
       <c r="BQ4">
-        <v>0.0002759053433529109</v>
+        <v>0.0002011449861480207</v>
       </c>
       <c r="BR4">
-        <v>0.0003000550945216794</v>
+        <v>0.0002256343630424894</v>
       </c>
       <c r="BS4">
-        <v>0.0008910505431239148</v>
+        <v>0.0008249411709094362</v>
       </c>
       <c r="BT4">
-        <v>0.0007225862749707985</v>
+        <v>0.000654107735516202</v>
       </c>
       <c r="BU4">
-        <v>0.0002148968304002996</v>
+        <v>0.0001392784908360626</v>
       </c>
       <c r="BV4">
-        <v>0.0004187505202661476</v>
+        <v>0.000345999040773201</v>
       </c>
       <c r="BW4">
-        <v>0.0007087990343035413</v>
+        <v>0.0006401266004446382</v>
       </c>
       <c r="BX4">
-        <v>0.0002820538736504796</v>
+        <v>0.0002073799852066838</v>
       </c>
       <c r="BY4">
-        <v>1.054704451044226E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2.449637418554392E-07</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>9.476923458651917E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.036127443732E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001058212651214011</v>
+        <v>2.866896076576257E-05</v>
       </c>
       <c r="CD4">
-        <v>0.0001073414151949714</v>
+        <v>3.021048919922985E-05</v>
       </c>
       <c r="CE4">
-        <v>0.0002939941942283518</v>
+        <v>0.0002194882263570295</v>
       </c>
       <c r="CF4">
-        <v>0.0002097723601522921</v>
+        <v>0.0001340819535131339</v>
       </c>
       <c r="CG4">
-        <v>0.000206585549998061</v>
+        <v>0.0001308503262217101</v>
       </c>
       <c r="CH4">
-        <v>0.0003046081147420306</v>
+        <v>0.0002302514138520445</v>
       </c>
       <c r="CI4">
-        <v>0.0002380343915200814</v>
+        <v>0.0001627414429270111</v>
       </c>
       <c r="CJ4">
-        <v>0.0001579871276460572</v>
+        <v>8.156844860990533E-05</v>
       </c>
       <c r="CK4">
-        <v>0.000186633409032443</v>
+        <v>0.0001106175918740997</v>
       </c>
       <c r="CL4">
-        <v>0.0002990653844737807</v>
+        <v>0.0002246307343835499</v>
       </c>
       <c r="CM4">
-        <v>0.000731187675387078</v>
+        <v>0.000662830100195757</v>
       </c>
       <c r="CN4">
-        <v>0.06996821938623163</v>
+        <v>0.07087356447885619</v>
       </c>
       <c r="CO4">
-        <v>0.02544759723157998</v>
+        <v>0.02572683448142686</v>
       </c>
       <c r="CP4">
-        <v>0.1238183509924008</v>
+        <v>0.1254810078228559</v>
       </c>
       <c r="CQ4">
-        <v>0.002192960106132054</v>
+        <v>0.002145159907252017</v>
       </c>
       <c r="CR4">
-        <v>0.002177277905373087</v>
+        <v>0.002129257162654891</v>
       </c>
       <c r="CS4">
-        <v>0.0004375380711754031</v>
+        <v>0.0003650508070595466</v>
       </c>
       <c r="CT4">
-        <v>0.006772530327768186</v>
+        <v>0.00678913409930791</v>
       </c>
       <c r="CU4">
-        <v>0.000678212132823236</v>
+        <v>0.0006091095455213608</v>
       </c>
       <c r="CV4">
-        <v>0.02606198926131454</v>
+        <v>0.02634986690407912</v>
       </c>
       <c r="CW4">
-        <v>0.01493575472284139</v>
+        <v>0.01506716054719959</v>
       </c>
       <c r="CX4">
-        <v>0.06267132903308614</v>
+        <v>0.06347405560744016</v>
       </c>
       <c r="CY4">
-        <v>0.02449491018547307</v>
+        <v>0.02476074949067289</v>
       </c>
       <c r="CZ4">
-        <v>0.00826675140008357</v>
+        <v>0.008304368883627823</v>
       </c>
       <c r="DA4">
-        <v>0.005328153957865123</v>
+        <v>0.005324444999497846</v>
       </c>
       <c r="DB4">
-        <v>0.01185527057375609</v>
+        <v>0.01194335455776365</v>
       </c>
       <c r="DC4">
-        <v>0.08230746398341048</v>
+        <v>0.08338633984542566</v>
       </c>
       <c r="DD4">
-        <v>0.002599858825824614</v>
+        <v>0.002557780974640678</v>
       </c>
       <c r="DE4">
-        <v>0.04305342208364399</v>
+        <v>0.04358025571658176</v>
       </c>
       <c r="DF4">
-        <v>0.0004142429200479945</v>
+        <v>0.000341428048721958</v>
       </c>
       <c r="DG4">
-        <v>0.02864265538621029</v>
+        <v>0.02896682576753488</v>
       </c>
       <c r="DH4">
-        <v>0.0002181468805575913</v>
+        <v>0.0001425742474950702</v>
       </c>
       <c r="DI4">
-        <v>0.01124690654431327</v>
+        <v>0.01132643490911195</v>
       </c>
       <c r="DJ4">
-        <v>0.0003633021475826287</v>
+        <v>0.0002897708797730271</v>
       </c>
       <c r="DK4">
-        <v>0.02438238418002718</v>
+        <v>0.02464664099578466</v>
       </c>
       <c r="DL4">
-        <v>0.01598739377373726</v>
+        <v>0.01613358913664345</v>
       </c>
       <c r="DM4">
-        <v>0.0009153893743018342</v>
+        <v>0.0008496222869060988</v>
       </c>
       <c r="DN4">
-        <v>0.01082922952409908</v>
+        <v>0.01090288396249134</v>
       </c>
       <c r="DO4">
-        <v>0.002279215610306537</v>
+        <v>0.00223262845035167</v>
       </c>
       <c r="DP4">
-        <v>0.0001050652550848127</v>
+        <v>2.790231871663214E-05</v>
       </c>
       <c r="DQ4">
-        <v>7.321847354353323E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004564122520888514</v>
+        <v>0.00454966874244307</v>
       </c>
       <c r="DS4">
-        <v>0.002547977423313725</v>
+        <v>0.002505169947263059</v>
       </c>
       <c r="DT4">
-        <v>0.00256991352437536</v>
+        <v>0.002527414542776253</v>
       </c>
       <c r="DU4">
-        <v>0.001576072476276723</v>
+        <v>0.001519596788051022</v>
       </c>
       <c r="DV4">
-        <v>0.001665308580595457</v>
+        <v>0.001610087848434359</v>
       </c>
       <c r="DW4">
-        <v>0.01633472079054675</v>
+        <v>0.01648580072511228</v>
       </c>
       <c r="DX4">
-        <v>0.006516482315376305</v>
+        <v>0.006529485201283091</v>
       </c>
       <c r="DY4">
-        <v>0.001587785576843598</v>
+        <v>0.001531474613722203</v>
       </c>
       <c r="DZ4">
-        <v>0.006531686816112153</v>
+        <v>0.006544903527807876</v>
       </c>
       <c r="EA4">
-        <v>0.005341902658530514</v>
+        <v>0.00533838705256709</v>
       </c>
       <c r="EB4">
-        <v>0.01269532861441214</v>
+        <v>0.01279522660510218</v>
       </c>
       <c r="EC4">
-        <v>0.003197612354753918</v>
+        <v>0.003163940903894098</v>
       </c>
       <c r="ED4">
-        <v>0.00327439385846989</v>
+        <v>0.003241802210616638</v>
       </c>
       <c r="EE4">
-        <v>0.002467689919428074</v>
+        <v>0.002423753334361697</v>
       </c>
       <c r="EF4">
-        <v>0.0007866161380696332</v>
+        <v>0.0007190380711942136</v>
       </c>
       <c r="EG4">
-        <v>0.0004489044617254991</v>
+        <v>0.0003765770468193586</v>
       </c>
       <c r="EH4">
-        <v>0.0002442576318212658</v>
+        <v>0.0001690522026601236</v>
       </c>
       <c r="EI4">
-        <v>1.733784083909446E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>9.84634347653063E-05</v>
+        <v>2.120765487251611E-05</v>
       </c>
       <c r="EK4">
-        <v>0.003525241170610075</v>
+        <v>0.003496177269267757</v>
       </c>
       <c r="EL4">
-        <v>0.01197402157950325</v>
+        <v>0.01206377559713653</v>
       </c>
       <c r="EM4">
-        <v>0.008829384427313158</v>
+        <v>0.008874914400259077</v>
       </c>
       <c r="EN4">
-        <v>0.002420772117157406</v>
+        <v>0.002376175711932508</v>
       </c>
       <c r="EO4">
-        <v>0.0007804336377704204</v>
+        <v>0.0007127686244028367</v>
       </c>
       <c r="EP4">
-        <v>0.0002091792101235856</v>
+        <v>0.000133480461824609</v>
       </c>
       <c r="EQ4">
-        <v>0.0008409850407009093</v>
+        <v>0.0007741715812072646</v>
       </c>
       <c r="ER4">
-        <v>0.0001773639285838306</v>
+        <v>0.0001012177517376288</v>
       </c>
       <c r="ES4">
-        <v>0.003030993646690121</v>
+        <v>0.002994978983295898</v>
       </c>
       <c r="ET4">
-        <v>0.001146701655496588</v>
+        <v>0.001084187587182296</v>
       </c>
       <c r="EU4">
-        <v>0.00338199166367727</v>
+        <v>0.003350913198399768</v>
       </c>
       <c r="EV4">
-        <v>0.01452375070290175</v>
+        <v>0.01464936238208282</v>
       </c>
       <c r="EW4">
-        <v>0.002614896626552394</v>
+        <v>0.002573030256801515</v>
       </c>
       <c r="EX4">
-        <v>0.0007898337382253544</v>
+        <v>0.0007223009214968314</v>
       </c>
       <c r="EY4">
-        <v>0.01533935374237426</v>
+        <v>0.01547643550968287</v>
       </c>
       <c r="EZ4">
-        <v>0.04039524195499681</v>
+        <v>0.04088469274498416</v>
       </c>
       <c r="FA4">
-        <v>0.004222061704333896</v>
+        <v>0.004202797414498746</v>
       </c>
       <c r="FB4">
-        <v>0.00947492895855539</v>
+        <v>0.009529537432077267</v>
       </c>
       <c r="FC4">
-        <v>0.00475339623004874</v>
+        <v>0.004741604268711898</v>
       </c>
       <c r="FD4">
-        <v>8.77374742462051E-07</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004042745195655568</v>
+        <v>0.004020959120027914</v>
       </c>
       <c r="FF4">
-        <v>0.0177341558582748</v>
+        <v>0.017904916498746</v>
       </c>
       <c r="FG4">
-        <v>0.004103830198611881</v>
+        <v>0.004082903181047121</v>
       </c>
       <c r="FH4">
-        <v>0.001270954861510034</v>
+        <v>0.001210188206035236</v>
       </c>
       <c r="FI4">
-        <v>0.001224432159258488</v>
+        <v>0.00116301124004394</v>
       </c>
       <c r="FJ4">
-        <v>0.02119574402580428</v>
+        <v>0.02141518609513395</v>
       </c>
       <c r="FK4">
-        <v>0.02576699624703785</v>
+        <v>0.02605072530806964</v>
       </c>
       <c r="FL4">
-        <v>0.001847289389402729</v>
+        <v>0.00179462791194462</v>
       </c>
       <c r="FM4">
-        <v>0.007912870382956894</v>
+        <v>0.007945511123825282</v>
       </c>
       <c r="FN4">
-        <v>0.01566630475819761</v>
+        <v>0.01580798454290364</v>
       </c>
       <c r="FO4">
-        <v>0.007734871874342351</v>
+        <v>0.007765009364877463</v>
       </c>
       <c r="FP4">
-        <v>0.005050042844405459</v>
+        <v>0.00504242271991171</v>
       </c>
       <c r="FQ4">
-        <v>0.002478674119959673</v>
+        <v>0.002434892009241736</v>
       </c>
       <c r="FR4">
-        <v>0.0002870214638908945</v>
+        <v>0.0002124174362679657</v>
       </c>
       <c r="FS4">
-        <v>2.589002525299205E-05</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.006993782538476065</v>
+        <v>0.007013497851087136</v>
       </c>
       <c r="FU4">
-        <v>0.006137182297019432</v>
+        <v>0.006144850964652402</v>
       </c>
       <c r="FV4">
-        <v>0.0006032822291968751</v>
+        <v>0.0005331258785366156</v>
       </c>
       <c r="FW4">
-        <v>0.003077105348921776</v>
+        <v>0.003041739169241701</v>
       </c>
       <c r="FX4">
-        <v>0.000292733184167323</v>
+        <v>0.0002182094823055303</v>
       </c>
       <c r="FY4">
-        <v>0.0001201617958154356</v>
+        <v>4.321116695988194E-05</v>
       </c>
       <c r="FZ4">
-        <v>0.003499061969343088</v>
+        <v>0.003469629901464956</v>
       </c>
       <c r="GA4">
-        <v>0.007850406379933842</v>
+        <v>0.007882168669417428</v>
       </c>
       <c r="GB4">
-        <v>0.001400367467773178</v>
+        <v>0.001341420783444655</v>
       </c>
       <c r="GC4">
-        <v>0.0007981320786269668</v>
+        <v>0.0007307159641311628</v>
       </c>
       <c r="GD4">
-        <v>0.0006724722625454452</v>
+        <v>0.0006032889535999017</v>
       </c>
       <c r="GE4">
-        <v>0.0005776410279559254</v>
+        <v>0.0005071240768274282</v>
       </c>
       <c r="GF4">
-        <v>0.001057108751160586</v>
+        <v>0.0009933347089881763</v>
       </c>
       <c r="GG4">
-        <v>1.606582677753316E-07</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0004783176231489993</v>
+        <v>0.0004064038550015265</v>
       </c>
       <c r="GI4">
-        <v>5.300754256539067E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001356632365656543</v>
+        <v>0.001297070620506435</v>
       </c>
       <c r="GK4">
-        <v>0.0003750905181531471</v>
+        <v>0.0003017250339941453</v>
       </c>
       <c r="GL4">
-        <v>0.003142343152079071</v>
+        <v>0.003107894432628112</v>
       </c>
       <c r="GM4">
-        <v>3.473970868128761E-05</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0005893012285202408</v>
+        <v>0.0005189482585462818</v>
       </c>
       <c r="GO4">
-        <v>0.005352670259051631</v>
+        <v>0.005349306081320965</v>
       </c>
       <c r="GP4">
-        <v>0.001249176260456021</v>
+        <v>0.001188103325502979</v>
       </c>
       <c r="GQ4">
-        <v>0.000859828341612863</v>
+        <v>0.0007932798815265449</v>
       </c>
       <c r="GR4">
-        <v>0.004841787534326587</v>
+        <v>0.00483123864835939</v>
       </c>
       <c r="GS4">
-        <v>0.0001510715573113663</v>
+        <v>7.455562238312943E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.281186577133334E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.748237414981138E-05</v>
+        <v>1.886755987392484E-05</v>
       </c>
       <c r="D5">
-        <v>1.302050262342414E-05</v>
+        <v>4.382447643453826E-06</v>
       </c>
       <c r="E5">
-        <v>9.569356355764747E-06</v>
+        <v>9.257552700217371E-07</v>
       </c>
       <c r="F5">
-        <v>1.599518292316052E-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.130045056599539E-06</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.645086417989129E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.440608103014321E-05</v>
+        <v>5.77025272032943E-06</v>
       </c>
       <c r="J5">
-        <v>4.7928696773309E-05</v>
+        <v>3.934674041161615E-05</v>
       </c>
       <c r="K5">
-        <v>0.0001112693125090455</v>
+        <v>0.0001027891466040105</v>
       </c>
       <c r="L5">
-        <v>1.693050286019223E-05</v>
+        <v>8.29873137944291E-06</v>
       </c>
       <c r="M5">
-        <v>3.999816030721441E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6.877869536963005E-05</v>
+        <v>6.023024564272095E-05</v>
       </c>
       <c r="O5">
-        <v>0.0002298581645253195</v>
+        <v>0.0002215685748131594</v>
       </c>
       <c r="P5">
-        <v>3.999816030721441E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001366300808016891</v>
+        <v>0.0001281906704869767</v>
       </c>
       <c r="R5">
-        <v>0.0002681008819507151</v>
+        <v>0.0002598727495456139</v>
       </c>
       <c r="S5">
-        <v>0.0001704273785263626</v>
+        <v>0.0001620422815827665</v>
       </c>
       <c r="T5">
-        <v>4.019797529376232E-05</v>
+        <v>3.160359540791269E-05</v>
       </c>
       <c r="U5">
-        <v>0.0001661220288162105</v>
+        <v>0.0001577300130337624</v>
       </c>
       <c r="V5">
-        <v>4.117506022798229E-05</v>
+        <v>3.25822505498184E-05</v>
       </c>
       <c r="W5">
-        <v>7.126968120193005E-05</v>
+        <v>6.272523457133526E-05</v>
       </c>
       <c r="X5">
-        <v>9.544778857419373E-05</v>
+        <v>8.694219695885193E-05</v>
       </c>
       <c r="Y5">
-        <v>1.739268082907714E-07</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001257140415365868</v>
+        <v>0.000117257088787075</v>
       </c>
       <c r="AA5">
-        <v>0.0005786051210467201</v>
+        <v>0.0005708759791854376</v>
       </c>
       <c r="AB5">
-        <v>0.0001923055670534631</v>
+        <v>0.00018395562907975</v>
       </c>
       <c r="AC5">
-        <v>1.575579893927651E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.846041373751236E-05</v>
+        <v>3.987931186250187E-05</v>
       </c>
       <c r="AE5">
-        <v>0.0001064745378318428</v>
+        <v>9.798666656590635E-05</v>
       </c>
       <c r="AF5">
-        <v>8.931390898714329E-05</v>
+        <v>8.079846002518435E-05</v>
       </c>
       <c r="AG5">
-        <v>3.870033239458774E-05</v>
+        <v>3.01035457472495E-05</v>
       </c>
       <c r="AH5">
-        <v>2.629100023001793E-05</v>
+        <v>1.767427137698469E-05</v>
       </c>
       <c r="AI5">
-        <v>1.992438965863558E-05</v>
+        <v>1.129742945262452E-05</v>
       </c>
       <c r="AJ5">
-        <v>5.233289647680622E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>6.481457563650544E-05</v>
+        <v>5.625975543856138E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0003284302778891751</v>
+        <v>0.0003202990968112932</v>
       </c>
       <c r="AM5">
-        <v>8.125420852974437E-08</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.050576194626864E-05</v>
+        <v>2.189580635419628E-05</v>
       </c>
       <c r="AO5">
-        <v>0.0004061168926590996</v>
+        <v>0.0003981105565310462</v>
       </c>
       <c r="AP5">
-        <v>0.0003021427096589261</v>
+        <v>0.0002939692835926825</v>
       </c>
       <c r="AQ5">
-        <v>5.879497604176135E-05</v>
+        <v>5.023048214891348E-05</v>
       </c>
       <c r="AR5">
-        <v>0.0002392418038935872</v>
+        <v>0.0002309672939990972</v>
       </c>
       <c r="AS5">
-        <v>0.0001816037277739402</v>
+        <v>0.0001732365915918628</v>
       </c>
       <c r="AT5">
-        <v>5.802035609391088E-07</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>5.400270636439005E-05</v>
+        <v>4.5430511136258E-05</v>
       </c>
       <c r="AV5">
-        <v>0.0001198695219300558</v>
+        <v>0.0001114031768449505</v>
       </c>
       <c r="AW5">
-        <v>1.684433886599302E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>5.698075616389959E-05</v>
+        <v>4.841334675992667E-05</v>
       </c>
       <c r="AY5">
-        <v>1.271462514401665E-05</v>
+        <v>4.076078608857793E-06</v>
       </c>
       <c r="AZ5">
-        <v>1.562667494796949E-05</v>
+        <v>6.992808172802096E-06</v>
       </c>
       <c r="BA5">
-        <v>2.359479441153389E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00024907900323132</v>
+        <v>0.0002408203020403166</v>
       </c>
       <c r="BC5">
-        <v>0.0001474792000712967</v>
+        <v>0.0001390572246487457</v>
       </c>
       <c r="BD5">
-        <v>1.389165606477571E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001214568468231928</v>
+        <v>0.0001129930526214955</v>
       </c>
       <c r="BF5">
-        <v>0.000423619771480758</v>
+        <v>0.0004156415630557177</v>
       </c>
       <c r="BG5">
-        <v>0.0003199993784567663</v>
+        <v>0.0003118546486456855</v>
       </c>
       <c r="BH5">
-        <v>3.348862574545408E-05</v>
+        <v>2.488346371379696E-05</v>
       </c>
       <c r="BI5">
-        <v>9.395706867455306E-05</v>
+        <v>8.544908142321102E-05</v>
       </c>
       <c r="BJ5">
-        <v>3.260802080473882E-05</v>
+        <v>2.400144361192468E-05</v>
       </c>
       <c r="BK5">
-        <v>6.412988568260063E-05</v>
+        <v>5.557396516533906E-05</v>
       </c>
       <c r="BL5">
-        <v>1.104375725650404E-05</v>
+        <v>2.402525581592296E-06</v>
       </c>
       <c r="BM5">
-        <v>2.130045056599539E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>5.1225116551385E-05</v>
+        <v>4.264845764489761E-05</v>
       </c>
       <c r="BO5">
-        <v>6.814496541229449E-05</v>
+        <v>5.959549726046157E-05</v>
       </c>
       <c r="BP5">
-        <v>5.739288213615415E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.893031235942277E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>1.1590824219674E-07</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>7.791960475423901E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001198695219300558</v>
+        <v>0.0001114031768449505</v>
       </c>
       <c r="BU5">
-        <v>0.0006946557132338768</v>
+        <v>0.0006871130684982841</v>
       </c>
       <c r="BV5">
-        <v>0.0002263877047589603</v>
+        <v>0.0002180925379035987</v>
       </c>
       <c r="BW5">
-        <v>6.941536532676768E-05</v>
+        <v>6.086793874945896E-05</v>
       </c>
       <c r="BX5">
-        <v>0.0001826373477043541</v>
+        <v>0.0001742718725835643</v>
       </c>
       <c r="BY5">
-        <v>0.0004768709178957451</v>
+        <v>0.0004689782858177007</v>
       </c>
       <c r="BZ5">
-        <v>0.0002565236427301265</v>
+        <v>0.00024827690532011</v>
       </c>
       <c r="CA5">
-        <v>2.167047454108436E-05</v>
+        <v>1.304632035101559E-05</v>
       </c>
       <c r="CB5">
-        <v>9.404122966888712E-05</v>
+        <v>8.55333776670362E-05</v>
       </c>
       <c r="CC5">
-        <v>0.000469650638381834</v>
+        <v>0.0004617464030766915</v>
       </c>
       <c r="CD5">
-        <v>3.506940963903139E-08</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001814867477818156</v>
+        <v>0.0001731194236090362</v>
       </c>
       <c r="CF5">
-        <v>1.920843070683589E-05</v>
+        <v>1.058031993119735E-05</v>
       </c>
       <c r="CG5">
-        <v>2.026774063552025E-05</v>
+        <v>1.164133220584299E-05</v>
       </c>
       <c r="CH5">
-        <v>2.234838849544534E-05</v>
+        <v>1.372532373543953E-05</v>
       </c>
       <c r="CI5">
-        <v>0.0004028614528782647</v>
+        <v>0.0003948498851512118</v>
       </c>
       <c r="CJ5">
-        <v>0.000393690343495689</v>
+        <v>0.0003856640374936561</v>
       </c>
       <c r="CK5">
-        <v>0.0002239587649224832</v>
+        <v>0.0002156596946807671</v>
       </c>
       <c r="CL5">
-        <v>0.0001976529166934649</v>
+        <v>0.0001893115720868266</v>
       </c>
       <c r="CM5">
-        <v>0.01302009412345164</v>
+        <v>0.01303235886438339</v>
       </c>
       <c r="CN5">
-        <v>0.02728864016285408</v>
+        <v>0.02732383492744165</v>
       </c>
       <c r="CO5">
-        <v>0.05709558615616892</v>
+        <v>0.05717868166515237</v>
       </c>
       <c r="CP5">
-        <v>0.07893007468621141</v>
+        <v>0.07904825893774257</v>
       </c>
       <c r="CQ5">
-        <v>0.0006704178548656357</v>
+        <v>0.0006628362590929707</v>
       </c>
       <c r="CR5">
-        <v>0.000657916605707254</v>
+        <v>0.0006503149200152562</v>
       </c>
       <c r="CS5">
-        <v>0.001343808509531134</v>
+        <v>0.001337309074729773</v>
       </c>
       <c r="CT5">
-        <v>0.01043609729741338</v>
+        <v>0.01044420947029902</v>
       </c>
       <c r="CU5">
-        <v>0.007564621890728957</v>
+        <v>0.007568119508016532</v>
       </c>
       <c r="CV5">
-        <v>0.02049710262007897</v>
+        <v>0.02052138316004371</v>
       </c>
       <c r="CW5">
-        <v>0.04234815714900619</v>
+        <v>0.04240755305362471</v>
       </c>
       <c r="CX5">
-        <v>0.05658028619086033</v>
+        <v>0.05666255359581961</v>
       </c>
       <c r="CY5">
-        <v>0.01358543808539114</v>
+        <v>0.01359861135269867</v>
       </c>
       <c r="CZ5">
-        <v>0.01221152967788641</v>
+        <v>0.01222249502911069</v>
       </c>
       <c r="DA5">
-        <v>0.005490645430354727</v>
+        <v>0.005490810099129773</v>
       </c>
       <c r="DB5">
-        <v>0.02294956145497273</v>
+        <v>0.02297778317709743</v>
       </c>
       <c r="DC5">
-        <v>0.07597441488519452</v>
+        <v>0.07608784929403191</v>
       </c>
       <c r="DD5">
-        <v>0.0004531986694894256</v>
+        <v>0.0004452679953281553</v>
       </c>
       <c r="DE5">
-        <v>0.04044192427733901</v>
+        <v>0.04049825680291946</v>
       </c>
       <c r="DF5">
-        <v>0.0003282729378997677</v>
+        <v>0.0003201415039713382</v>
       </c>
       <c r="DG5">
-        <v>0.02533696429424624</v>
+        <v>0.02536902265140224</v>
       </c>
       <c r="DH5">
-        <v>0.002325500243440961</v>
+        <v>0.002320578419604242</v>
       </c>
       <c r="DI5">
-        <v>0.01340452109757096</v>
+        <v>0.01341740362531758</v>
       </c>
       <c r="DJ5">
-        <v>0.0009040072891397558</v>
+        <v>0.0008968010792850999</v>
       </c>
       <c r="DK5">
-        <v>0.0285239520796895</v>
+        <v>0.02856113203123285</v>
       </c>
       <c r="DL5">
-        <v>0.008931462398709514</v>
+        <v>0.008937156573732908</v>
       </c>
       <c r="DM5">
-        <v>0.00536275663896455</v>
+        <v>0.0053627157862377</v>
       </c>
       <c r="DN5">
-        <v>0.01114139724993065</v>
+        <v>0.01115064286308071</v>
       </c>
       <c r="DO5">
-        <v>0.001234743116873715</v>
+        <v>0.001228068410392481</v>
       </c>
       <c r="DP5">
-        <v>0.000690396153520642</v>
+        <v>0.0006828466635322312</v>
       </c>
       <c r="DQ5">
-        <v>2.829129109535288E-05</v>
+        <v>1.967777677565288E-05</v>
       </c>
       <c r="DR5">
-        <v>0.004089653724673322</v>
+        <v>0.004087566953612509</v>
       </c>
       <c r="DS5">
-        <v>1.532536696825436E-05</v>
+        <v>6.691015981235012E-06</v>
       </c>
       <c r="DT5">
-        <v>0.005495679230015838</v>
+        <v>0.00549585198827281</v>
       </c>
       <c r="DU5">
-        <v>0.001487526399855653</v>
+        <v>0.001481257924439768</v>
       </c>
       <c r="DV5">
-        <v>0.001908966771483134</v>
+        <v>0.001903375564631562</v>
       </c>
       <c r="DW5">
-        <v>0.01237571316683313</v>
+        <v>0.01238694236633425</v>
       </c>
       <c r="DX5">
-        <v>0.001050221329296227</v>
+        <v>0.001043250090222079</v>
       </c>
       <c r="DY5">
-        <v>0.005025453961672689</v>
+        <v>0.00502487105242879</v>
       </c>
       <c r="DZ5">
-        <v>0.006548699559123628</v>
+        <v>0.006550564555748113</v>
       </c>
       <c r="EA5">
-        <v>0.009607311353209514</v>
+        <v>0.00961409163977305</v>
       </c>
       <c r="EB5">
-        <v>0.01216828918079748</v>
+        <v>0.0121791850431181</v>
       </c>
       <c r="EC5">
-        <v>0.001270579514461111</v>
+        <v>0.001263962398251664</v>
       </c>
       <c r="ED5">
-        <v>0.00228707504602785</v>
+        <v>0.00228209147163272</v>
       </c>
       <c r="EE5">
-        <v>0.0007093072122474977</v>
+        <v>0.0007017881129536094</v>
       </c>
       <c r="EF5">
-        <v>0.001318657811224348</v>
+        <v>0.001312117958422054</v>
       </c>
       <c r="EG5">
-        <v>0.001449702002402095</v>
+        <v>0.00144337274193313</v>
       </c>
       <c r="EH5">
-        <v>0.00180121437873732</v>
+        <v>0.001795450010239998</v>
       </c>
       <c r="EI5">
-        <v>0.0001612227691460421</v>
+        <v>0.0001528228800918658</v>
       </c>
       <c r="EJ5">
-        <v>0.0006302768175680401</v>
+        <v>0.0006226307138257291</v>
       </c>
       <c r="EK5">
-        <v>0.009893033333973929</v>
+        <v>0.00990027278517553</v>
       </c>
       <c r="EL5">
-        <v>0.02285428346138711</v>
+        <v>0.02288235206863655</v>
       </c>
       <c r="EM5">
-        <v>0.0108948512665288</v>
+        <v>0.01090370067215946</v>
       </c>
       <c r="EN5">
-        <v>0.003704082950631001</v>
+        <v>0.003701376554631154</v>
       </c>
       <c r="EO5">
-        <v>0.002107994758084025</v>
+        <v>0.002102723395765199</v>
       </c>
       <c r="EP5">
-        <v>0.001687140786417066</v>
+        <v>0.001681193097897986</v>
       </c>
       <c r="EQ5">
-        <v>0.0005147595653449777</v>
+        <v>0.0005069278215718734</v>
       </c>
       <c r="ER5">
-        <v>6.954944531774105E-07</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.004179945718594618</v>
+        <v>0.004178004049743297</v>
       </c>
       <c r="ET5">
-        <v>0.000711579992094488</v>
+        <v>0.0007040645452327054</v>
       </c>
       <c r="EU5">
-        <v>0.007969597463464893</v>
+        <v>0.007973745889842423</v>
       </c>
       <c r="EV5">
-        <v>0.0160239759212221</v>
+        <v>0.01604106799918538</v>
       </c>
       <c r="EW5">
-        <v>0.002599897624967779</v>
+        <v>0.002595416766764989</v>
       </c>
       <c r="EX5">
-        <v>0.00348922776509564</v>
+        <v>0.003486176089732829</v>
       </c>
       <c r="EY5">
-        <v>0.03348290774583904</v>
+        <v>0.03352805690254308</v>
       </c>
       <c r="EZ5">
-        <v>0.04706265683161318</v>
+        <v>0.04712962909257164</v>
       </c>
       <c r="FA5">
-        <v>0.001436763603273143</v>
+        <v>0.001430413550370438</v>
       </c>
       <c r="FB5">
-        <v>0.008465607430072145</v>
+        <v>0.008470552960810302</v>
       </c>
       <c r="FC5">
-        <v>0.0001190324119864123</v>
+        <v>0.0001105647216380435</v>
       </c>
       <c r="FD5">
-        <v>0.001506294298592146</v>
+        <v>0.001500055983807962</v>
       </c>
       <c r="FE5">
-        <v>0.003275937679454912</v>
+        <v>0.003272543239896241</v>
       </c>
       <c r="FF5">
-        <v>0.01396297305997445</v>
+        <v>0.0139767530384265</v>
       </c>
       <c r="FG5">
-        <v>0.0006620750554272957</v>
+        <v>0.0006544800525010253</v>
       </c>
       <c r="FH5">
-        <v>0.002144087455654166</v>
+        <v>0.002138874095489644</v>
       </c>
       <c r="FI5">
-        <v>0.002079955859971681</v>
+        <v>0.002074639438219663</v>
       </c>
       <c r="FJ5">
-        <v>0.02744068015261833</v>
+        <v>0.0274761192504794</v>
       </c>
       <c r="FK5">
-        <v>0.02219904650549945</v>
+        <v>0.02222606212536972</v>
       </c>
       <c r="FL5">
-        <v>0.0005348432639928881</v>
+        <v>0.0005270437953852997</v>
       </c>
       <c r="FM5">
-        <v>0.008040409458697636</v>
+        <v>0.008044671682284867</v>
       </c>
       <c r="FN5">
-        <v>0.009447823363946681</v>
+        <v>0.009454347348056098</v>
       </c>
       <c r="FO5">
-        <v>0.002859943807460758</v>
+        <v>0.002855880852042155</v>
       </c>
       <c r="FP5">
-        <v>0.001205014318875139</v>
+        <v>0.001198291837235912</v>
       </c>
       <c r="FQ5">
-        <v>2.546759628545174E-05</v>
+        <v>1.684954419514715E-05</v>
       </c>
       <c r="FR5">
-        <v>0.004261217713123164</v>
+        <v>0.004259406651045088</v>
       </c>
       <c r="FS5">
-        <v>0.0003146963788137788</v>
+        <v>0.0003065431269075297</v>
       </c>
       <c r="FT5">
-        <v>0.007535782092670531</v>
+        <v>0.007539233363452311</v>
       </c>
       <c r="FU5">
-        <v>0.001807352678324073</v>
+        <v>0.001801598174276453</v>
       </c>
       <c r="FV5">
-        <v>0.003507861763841148</v>
+        <v>0.003504840033928341</v>
       </c>
       <c r="FW5">
-        <v>0.003112894290431439</v>
+        <v>0.003109237834774077</v>
       </c>
       <c r="FX5">
-        <v>0.0004044002627746679</v>
+        <v>0.0003963911679658246</v>
       </c>
       <c r="FY5">
-        <v>0.0002263877047589603</v>
+        <v>0.0002180925379035987</v>
       </c>
       <c r="FZ5">
-        <v>0.005496322229972549</v>
+        <v>0.00549649602155164</v>
       </c>
       <c r="GA5">
-        <v>0.007097620522168767</v>
+        <v>0.007100367652868655</v>
       </c>
       <c r="GB5">
-        <v>0.000672627654716866</v>
+        <v>0.0006650496101653782</v>
       </c>
       <c r="GC5">
-        <v>0.001425174204053373</v>
+        <v>0.001418805526604234</v>
       </c>
       <c r="GD5">
-        <v>0.000496959466543329</v>
+        <v>0.0004890991174249099</v>
       </c>
       <c r="GE5">
-        <v>0.0005769727611566151</v>
+        <v>0.0005692409960392004</v>
       </c>
       <c r="GF5">
-        <v>0.0001507025098542947</v>
+        <v>0.0001422857143967779</v>
       </c>
       <c r="GG5">
-        <v>0.0008369791936522707</v>
+        <v>0.0008296652674394877</v>
       </c>
       <c r="GH5">
-        <v>0.001689931586229182</v>
+        <v>0.001683988382617361</v>
       </c>
       <c r="GI5">
-        <v>0.0001080610627250336</v>
+        <v>9.957574105687893E-05</v>
       </c>
       <c r="GJ5">
-        <v>9.834959337883629E-06</v>
+        <v>1.19178508488491E-06</v>
       </c>
       <c r="GK5">
-        <v>0.002643034422063691</v>
+        <v>0.002638622886115258</v>
       </c>
       <c r="GL5">
-        <v>0.003168207186707623</v>
+        <v>0.003164639620697222</v>
       </c>
       <c r="GM5">
-        <v>0.0003227455082718893</v>
+        <v>0.0003146051915819105</v>
       </c>
       <c r="GN5">
-        <v>0.003847876540950423</v>
+        <v>0.003845401225988438</v>
       </c>
       <c r="GO5">
-        <v>0.007181018516554187</v>
+        <v>0.007183899670579143</v>
       </c>
       <c r="GP5">
-        <v>0.0008533077425529882</v>
+        <v>0.0008460200568563394</v>
       </c>
       <c r="GQ5">
-        <v>0.0008535612425359218</v>
+        <v>0.0008462739642220987</v>
       </c>
       <c r="GR5">
-        <v>0.003280322779159695</v>
+        <v>0.003276935386600745</v>
       </c>
       <c r="GS5">
-        <v>1.193846719626972E-05</v>
+        <v>3.298673349713244E-06</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.386946744354386E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.255257051503775E-05</v>
+        <v>5.49307818949229E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001593602813121213</v>
+        <v>0.0001518726924882254</v>
       </c>
       <c r="E6">
-        <v>1.175470709678448E-05</v>
+        <v>4.06249988229362E-06</v>
       </c>
       <c r="F6">
-        <v>3.95648073257639E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7.697831063381464E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.95648073257639E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.172393509653111E-05</v>
+        <v>4.031685224320851E-06</v>
       </c>
       <c r="J6">
-        <v>1.792864914761873E-05</v>
+        <v>1.024500056712787E-05</v>
       </c>
       <c r="K6">
-        <v>1.792864914761873E-05</v>
+        <v>1.024500056712787E-05</v>
       </c>
       <c r="L6">
-        <v>9.928516481748211E-05</v>
+        <v>9.171429679686697E-05</v>
       </c>
       <c r="M6">
-        <v>6.624011454539979E-05</v>
+        <v>5.862343778727763E-05</v>
       </c>
       <c r="N6">
-        <v>1.345466011078134E-05</v>
+        <v>5.764809458037293E-06</v>
       </c>
       <c r="O6">
-        <v>8.117680066838365E-09</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.69930251399151E-07</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.909865315725217E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.823533547949102E-05</v>
+        <v>5.060756208753073E-05</v>
       </c>
       <c r="S6">
-        <v>9.562349478733308E-05</v>
+        <v>8.804755077258668E-05</v>
       </c>
       <c r="T6">
-        <v>1.494325912303799E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.69930251399151E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.295805210669243E-05</v>
+        <v>5.26751303055317E-06</v>
       </c>
       <c r="W6">
-        <v>9.988534082242377E-06</v>
+        <v>2.29387850845568E-06</v>
       </c>
       <c r="X6">
-        <v>1.494325912303799E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.744271230829125E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.248484618513299E-05</v>
+        <v>1.480751363782723E-05</v>
       </c>
       <c r="AA6">
-        <v>7.027200057859705E-05</v>
+        <v>6.266091302695005E-05</v>
       </c>
       <c r="AB6">
-        <v>8.895893673245927E-05</v>
+        <v>8.137375396673436E-05</v>
       </c>
       <c r="AC6">
-        <v>0.0001601004913182159</v>
+        <v>0.0001526139286112601</v>
       </c>
       <c r="AD6">
-        <v>2.078689217115258E-08</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.850787064640855E-07</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.893523532058021E-05</v>
+        <v>3.128070714341731E-05</v>
       </c>
       <c r="AG6">
-        <v>0.0001468023712087235</v>
+        <v>0.0001392973739680503</v>
       </c>
       <c r="AH6">
-        <v>9.821039080863277E-05</v>
+        <v>9.063803288135852E-05</v>
       </c>
       <c r="AI6">
-        <v>1.714870614119693E-05</v>
+        <v>9.46397636385034E-06</v>
       </c>
       <c r="AJ6">
-        <v>1.020316208400955E-05</v>
+        <v>2.508804038527813E-06</v>
       </c>
       <c r="AK6">
-        <v>1.66670581372312E-05</v>
+        <v>8.981660674806121E-06</v>
       </c>
       <c r="AL6">
-        <v>3.455837228454252E-05</v>
+        <v>2.689777667615252E-05</v>
       </c>
       <c r="AM6">
-        <v>4.500209637053279E-05</v>
+        <v>3.735597838621392E-05</v>
       </c>
       <c r="AN6">
-        <v>1.87374451542781E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.41406301164294E-05</v>
+        <v>6.451730390364766E-06</v>
       </c>
       <c r="AP6">
-        <v>8.387783069062307E-05</v>
+        <v>7.628560423602496E-05</v>
       </c>
       <c r="AQ6">
-        <v>4.003932632967093E-05</v>
+        <v>3.238632869989116E-05</v>
       </c>
       <c r="AR6">
-        <v>1.817749814966767E-05</v>
+        <v>1.049419453638128E-05</v>
       </c>
       <c r="AS6">
-        <v>1.172393509653111E-05</v>
+        <v>4.031685224320851E-06</v>
       </c>
       <c r="AT6">
-        <v>3.395428027956862E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001707813614061588</v>
+        <v>0.0001633096050671817</v>
       </c>
       <c r="AV6">
-        <v>0.0001684929013873163</v>
+        <v>0.0001610179726681058</v>
       </c>
       <c r="AW6">
-        <v>3.726914030686211E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>7.027200057859705E-05</v>
+        <v>6.266091302695005E-05</v>
       </c>
       <c r="AY6">
-        <v>0.0001843058915175154</v>
+        <v>0.0001768528835733713</v>
       </c>
       <c r="AZ6">
-        <v>4.072663833533004E-05</v>
+        <v>3.307459349257869E-05</v>
       </c>
       <c r="BA6">
-        <v>7.536191062050573E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.320023010868645E-08</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.592159413109328E-05</v>
+        <v>8.235163268364777E-06</v>
       </c>
       <c r="BD6">
-        <v>3.624725029844819E-05</v>
+        <v>2.858899589907387E-05</v>
       </c>
       <c r="BE6">
-        <v>3.183013026207905E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.944748016012429E-05</v>
+        <v>1.176593706080524E-05</v>
       </c>
       <c r="BG6">
-        <v>2.076033717093394E-05</v>
+        <v>1.308061402109892E-05</v>
       </c>
       <c r="BH6">
-        <v>3.874908131904747E-07</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.152425309488699E-05</v>
+        <v>3.831726413280987E-06</v>
       </c>
       <c r="BJ6">
-        <v>3.136925825828438E-05</v>
+        <v>2.370424173704644E-05</v>
       </c>
       <c r="BK6">
-        <v>3.230889826602108E-07</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>6.162956050743798E-05</v>
+        <v>5.40064923636787E-05</v>
       </c>
       <c r="BM6">
-        <v>1.096521309028404E-05</v>
+        <v>3.271911438853022E-06</v>
       </c>
       <c r="BN6">
-        <v>5.920174048744809E-05</v>
+        <v>5.157530677549949E-05</v>
       </c>
       <c r="BO6">
-        <v>3.387319527890099E-05</v>
+        <v>2.621164984312871E-05</v>
       </c>
       <c r="BP6">
-        <v>4.539585637377488E-05</v>
+        <v>3.775028423969624E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.0001949127816048491</v>
+        <v>0.0001874744774738261</v>
       </c>
       <c r="BR6">
-        <v>0.0002147449817681411</v>
+        <v>0.0002073341700465406</v>
       </c>
       <c r="BS6">
-        <v>4.191378034510458E-05</v>
+        <v>3.426338117927796E-05</v>
       </c>
       <c r="BT6">
-        <v>5.272468043411806E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>9.40857507746718E-06</v>
+        <v>1.713115534868336E-06</v>
       </c>
       <c r="BV6">
-        <v>1.948710516045055E-05</v>
+        <v>1.180561699133205E-05</v>
       </c>
       <c r="BW6">
-        <v>5.138841042311564E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.108916017364136E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.392124611462306E-05</v>
+        <v>6.232042267243156E-06</v>
       </c>
       <c r="BZ6">
-        <v>9.589084078953434E-06</v>
+        <v>1.89387476715765E-06</v>
       </c>
       <c r="CA6">
-        <v>4.494187737003696E-05</v>
+        <v>3.729567590706202E-05</v>
       </c>
       <c r="CB6">
-        <v>9.109656075005977E-05</v>
+        <v>8.351434126799474E-05</v>
       </c>
       <c r="CC6">
-        <v>1.148142709453438E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.086243108943776E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.29954274363473E-05</v>
+        <v>4.536039021606376E-05</v>
       </c>
       <c r="CF6">
-        <v>0.0001488294112254135</v>
+        <v>0.0001413272239712065</v>
       </c>
       <c r="CG6">
-        <v>9.221800475929339E-05</v>
+        <v>8.463733988022714E-05</v>
       </c>
       <c r="CH6">
-        <v>4.786733239412422E-05</v>
+        <v>4.022518634641369E-05</v>
       </c>
       <c r="CI6">
-        <v>0.0002083674217156303</v>
+        <v>0.0002009477690943496</v>
       </c>
       <c r="CJ6">
-        <v>0.00018271906150445</v>
+        <v>0.0001752638538154443</v>
       </c>
       <c r="CK6">
-        <v>4.300013035404924E-05</v>
+        <v>3.535123714212466E-05</v>
       </c>
       <c r="CL6">
-        <v>2.778764422879452E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01347024411090966</v>
+        <v>0.01348120874952424</v>
       </c>
       <c r="CN6">
-        <v>0.05636621646410129</v>
+        <v>0.05643664569185878</v>
       </c>
       <c r="CO6">
-        <v>0.06122913250414098</v>
+        <v>0.06130630295464023</v>
       </c>
       <c r="CP6">
-        <v>0.1023076308423681</v>
+        <v>0.1024417464066458</v>
       </c>
       <c r="CQ6">
-        <v>0.001163100409576594</v>
+        <v>0.001157004256616235</v>
       </c>
       <c r="CR6">
-        <v>0.002145156017662525</v>
+        <v>0.002140421240375608</v>
       </c>
       <c r="CS6">
-        <v>0.0002635925821703365</v>
+        <v>0.0002562494854888479</v>
       </c>
       <c r="CT6">
-        <v>0.005895369748540578</v>
+        <v>0.005895833709188043</v>
       </c>
       <c r="CU6">
-        <v>0.0009318546576725915</v>
+        <v>0.0009254379400327605</v>
       </c>
       <c r="CV6">
-        <v>0.02473659320367315</v>
+        <v>0.02476317583118482</v>
       </c>
       <c r="CW6">
-        <v>0.01917495615788042</v>
+        <v>0.0191938289598829</v>
       </c>
       <c r="CX6">
-        <v>0.0572456424713422</v>
+        <v>0.05731729080437539</v>
       </c>
       <c r="CY6">
-        <v>0.009835497080982318</v>
+        <v>0.009841423047504488</v>
       </c>
       <c r="CZ6">
-        <v>0.001695900013963495</v>
+        <v>0.001690542455044308</v>
       </c>
       <c r="DA6">
-        <v>0.0009519504478380538</v>
+        <v>0.0009455615880095774</v>
       </c>
       <c r="DB6">
-        <v>0.03229236226588492</v>
+        <v>0.03232941908662023</v>
       </c>
       <c r="DC6">
-        <v>0.09039922074431811</v>
+        <v>0.09051682826191965</v>
       </c>
       <c r="DD6">
-        <v>6.255257051503775E-05</v>
+        <v>5.49307818949229E-05</v>
       </c>
       <c r="DE6">
-        <v>0.03558788429301919</v>
+        <v>0.03562950953481141</v>
       </c>
       <c r="DF6">
-        <v>0.003067908625260173</v>
+        <v>0.003064453014796648</v>
       </c>
       <c r="DG6">
-        <v>0.03400909028001991</v>
+        <v>0.03404852691686452</v>
       </c>
       <c r="DH6">
-        <v>0.002084109717159889</v>
+        <v>0.002079290314371347</v>
       </c>
       <c r="DI6">
-        <v>0.01130590109308915</v>
+        <v>0.01131386540880024</v>
       </c>
       <c r="DJ6">
-        <v>0.00282839082328806</v>
+        <v>0.002824603181006503</v>
       </c>
       <c r="DK6">
-        <v>0.02337713219247978</v>
+        <v>0.02340183026566032</v>
       </c>
       <c r="DL6">
-        <v>0.005822832747943331</v>
+        <v>0.00582319615409345</v>
       </c>
       <c r="DM6">
-        <v>0.007433996061209132</v>
+        <v>0.007436592944285164</v>
       </c>
       <c r="DN6">
-        <v>0.01415857511657715</v>
+        <v>0.01417049395481004</v>
       </c>
       <c r="DO6">
-        <v>0.002225465118323764</v>
+        <v>0.002220841669616508</v>
       </c>
       <c r="DP6">
-        <v>0.0004326151435620139</v>
+        <v>0.0004255063545932933</v>
       </c>
       <c r="DQ6">
-        <v>0.001273462810485283</v>
+        <v>0.001267519647525309</v>
       </c>
       <c r="DR6">
-        <v>0.007814106064338836</v>
+        <v>0.007817229875327332</v>
       </c>
       <c r="DS6">
-        <v>0.002671300721994631</v>
+        <v>0.002667295313386321</v>
       </c>
       <c r="DT6">
-        <v>0.0007328251060338462</v>
+        <v>0.0007261324834578116</v>
       </c>
       <c r="DU6">
-        <v>0.0002598027021391319</v>
+        <v>0.0002524543517322561</v>
       </c>
       <c r="DV6">
-        <v>0.005389558044375888</v>
+        <v>0.005389320822988728</v>
       </c>
       <c r="DW6">
-        <v>0.02335785019232102</v>
+        <v>0.0233825215358075</v>
       </c>
       <c r="DX6">
-        <v>0.003368563527735668</v>
+        <v>0.003365524700463402</v>
       </c>
       <c r="DY6">
-        <v>0.004548706037452581</v>
+        <v>0.004547303184040345</v>
       </c>
       <c r="DZ6">
-        <v>0.004299411635399972</v>
+        <v>0.004297663197347023</v>
       </c>
       <c r="EA6">
-        <v>0.005377325044275164</v>
+        <v>0.005377070864878077</v>
       </c>
       <c r="EB6">
-        <v>0.01182118309733182</v>
+        <v>0.01182986172329149</v>
       </c>
       <c r="EC6">
-        <v>0.00211224301739153</v>
+        <v>0.002107462614421566</v>
       </c>
       <c r="ED6">
-        <v>0.003048475425100166</v>
+        <v>0.003044992875341414</v>
       </c>
       <c r="EE6">
-        <v>0.002093442717236734</v>
+        <v>0.002088636252329876</v>
       </c>
       <c r="EF6">
-        <v>0.0003141595225866884</v>
+        <v>0.0003068865243823089</v>
       </c>
       <c r="EG6">
-        <v>1.086243108943776E-06</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0005281123443483072</v>
+        <v>0.0005211359384798528</v>
       </c>
       <c r="EI6">
-        <v>0.001382620311384051</v>
+        <v>0.001376828468130491</v>
       </c>
       <c r="EJ6">
-        <v>2.365311419475213E-05</v>
+        <v>1.59774011602675E-05</v>
       </c>
       <c r="EK6">
-        <v>0.001998554016455451</v>
+        <v>0.001993616011982132</v>
       </c>
       <c r="EL6">
-        <v>0.008591893070742884</v>
+        <v>0.008596095089829699</v>
       </c>
       <c r="EM6">
-        <v>0.004616822038013427</v>
+        <v>0.004615513610482344</v>
       </c>
       <c r="EN6">
-        <v>0.0006599703354339835</v>
+        <v>0.0006531767178515845</v>
       </c>
       <c r="EO6">
-        <v>1.944748016012429E-05</v>
+        <v>1.176593706080524E-05</v>
       </c>
       <c r="EP6">
-        <v>2.624016521605308E-05</v>
+        <v>1.856803848390954E-05</v>
       </c>
       <c r="EQ6">
-        <v>0.0013322721109695</v>
+        <v>0.0013264104724674</v>
       </c>
       <c r="ER6">
-        <v>9.763082080386078E-05</v>
+        <v>9.005765944702607E-05</v>
       </c>
       <c r="ES6">
-        <v>0.004005749232982051</v>
+        <v>0.004003593705098786</v>
       </c>
       <c r="ET6">
-        <v>0.001800370514823672</v>
+        <v>0.001795157778251908</v>
       </c>
       <c r="EU6">
-        <v>0.004852507739953988</v>
+        <v>0.004851526031988028</v>
       </c>
       <c r="EV6">
-        <v>0.0113775510936791</v>
+        <v>0.01138561473428279</v>
       </c>
       <c r="EW6">
-        <v>0.0004525168037258778</v>
+        <v>0.0004454356034555823</v>
       </c>
       <c r="EX6">
-        <v>0.0001468023712087235</v>
+        <v>0.0001392973739680503</v>
       </c>
       <c r="EY6">
-        <v>0.01490088112268906</v>
+        <v>0.01491382898344435</v>
       </c>
       <c r="EZ6">
-        <v>0.02771359122818479</v>
+        <v>0.02774430072250226</v>
       </c>
       <c r="FA6">
-        <v>4.300013035404924E-05</v>
+        <v>3.535123714212466E-05</v>
       </c>
       <c r="FB6">
-        <v>0.01810095614903745</v>
+        <v>0.01811834011733919</v>
       </c>
       <c r="FC6">
-        <v>0.003107548225586552</v>
+        <v>0.003104147565562845</v>
       </c>
       <c r="FD6">
-        <v>1.157785709532835E-06</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.007681786063249356</v>
+        <v>0.007684726445489918</v>
       </c>
       <c r="FF6">
-        <v>0.02033276116741341</v>
+        <v>0.02035323897789158</v>
       </c>
       <c r="FG6">
-        <v>0.001409273111603501</v>
+        <v>0.001403518215823739</v>
       </c>
       <c r="FH6">
-        <v>0.001215246010005945</v>
+        <v>0.001209222143941884</v>
       </c>
       <c r="FI6">
-        <v>0.003365165327707688</v>
+        <v>0.003362121789676873</v>
       </c>
       <c r="FJ6">
-        <v>0.02565550621123919</v>
+        <v>0.02568336268292445</v>
       </c>
       <c r="FK6">
-        <v>0.02017994016615514</v>
+        <v>0.02020020612835119</v>
       </c>
       <c r="FL6">
-        <v>5.778924247581803E-05</v>
+        <v>5.016085068693775E-05</v>
       </c>
       <c r="FM6">
-        <v>0.01482709612208154</v>
+        <v>0.01483994169829809</v>
       </c>
       <c r="FN6">
-        <v>0.01933332315918436</v>
+        <v>0.01935241549761765</v>
       </c>
       <c r="FO6">
-        <v>0.009384740077270932</v>
+        <v>0.009390041181397904</v>
       </c>
       <c r="FP6">
-        <v>0.00571458934705209</v>
+        <v>0.005714802700667942</v>
       </c>
       <c r="FQ6">
-        <v>0.00288578432376062</v>
+        <v>0.002882076243282604</v>
       </c>
       <c r="FR6">
-        <v>2.564356021114082E-05</v>
+        <v>1.797060643464902E-05</v>
       </c>
       <c r="FS6">
-        <v>0.0004915308040471065</v>
+        <v>0.0004845036869779288</v>
       </c>
       <c r="FT6">
-        <v>0.01182118309733182</v>
+        <v>0.01182986172329149</v>
       </c>
       <c r="FU6">
-        <v>0.005181576642663435</v>
+        <v>0.005181051106828</v>
       </c>
       <c r="FV6">
-        <v>0.000579810244773971</v>
+        <v>0.0005729055051771901</v>
       </c>
       <c r="FW6">
-        <v>0.00156352111287353</v>
+        <v>0.001557980043556218</v>
       </c>
       <c r="FX6">
-        <v>0.0006206806051104844</v>
+        <v>0.0006138325220959468</v>
       </c>
       <c r="FY6">
-        <v>0.0001481157512195374</v>
+        <v>0.0001406125746533576</v>
       </c>
       <c r="FZ6">
-        <v>0.005490352445205795</v>
+        <v>0.005490254950168324</v>
       </c>
       <c r="GA6">
-        <v>0.008898600073268211</v>
+        <v>0.008903227265276675</v>
       </c>
       <c r="GB6">
-        <v>0.001393195611471124</v>
+        <v>0.001387418428239012</v>
       </c>
       <c r="GC6">
-        <v>0.0006788917055897759</v>
+        <v>0.0006721243177776936</v>
       </c>
       <c r="GD6">
-        <v>9.589084078953434E-06</v>
+        <v>1.89387476715765E-06</v>
       </c>
       <c r="GE6">
-        <v>0.002453924920204828</v>
+        <v>0.002449618174150742</v>
       </c>
       <c r="GF6">
-        <v>0.001958608016126549</v>
+        <v>0.00195361463646607</v>
       </c>
       <c r="GG6">
-        <v>0.0001843058915175154</v>
+        <v>0.0001768528835733713</v>
       </c>
       <c r="GH6">
-        <v>7.376264460733788E-06</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>5.242846043167908E-05</v>
+        <v>4.479263725275792E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.001077513908871903</v>
+        <v>0.001071299111530232</v>
       </c>
       <c r="GK6">
-        <v>0.0006417712452841379</v>
+        <v>0.0006349523991928797</v>
       </c>
       <c r="GL6">
-        <v>0.001982405316322488</v>
+        <v>0.00197744492569574</v>
       </c>
       <c r="GM6">
-        <v>6.730393055415891E-06</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001477851212168151</v>
+        <v>0.001472191382856185</v>
       </c>
       <c r="GO6">
-        <v>0.005575245245904775</v>
+        <v>0.005575265433606215</v>
       </c>
       <c r="GP6">
-        <v>0.0005530763345538526</v>
+        <v>0.0005461345350444456</v>
       </c>
       <c r="GQ6">
-        <v>0.001094886309014942</v>
+        <v>0.001088695594182193</v>
       </c>
       <c r="GR6">
-        <v>0.00282479942325849</v>
+        <v>0.002821006802394668</v>
       </c>
       <c r="GS6">
-        <v>0.0003808500831357971</v>
+        <v>0.0003736695347947779</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.489587027812007E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.304231331303275E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.305034496756718E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.013582399793296E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.976659008206327E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001587493483348419</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002619008327769116</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003626709432087756</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0005286071639199177</v>
+        <v>5.005105701806897E-05</v>
       </c>
       <c r="K2">
-        <v>0.0006477724044306166</v>
+        <v>5.264900211937055E-05</v>
       </c>
       <c r="L2">
-        <v>0.0007601711799123168</v>
+        <v>5.264900211937055E-05</v>
       </c>
       <c r="M2">
-        <v>0.0008742430304011872</v>
+        <v>5.264900211937055E-05</v>
       </c>
       <c r="N2">
-        <v>0.0009908476709009123</v>
+        <v>5.264900211937055E-05</v>
       </c>
       <c r="O2">
-        <v>0.001125352011477349</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="P2">
-        <v>0.001181747515719039</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="Q2">
-        <v>0.001228912585921172</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="R2">
-        <v>0.001251057230016076</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="S2">
-        <v>0.001252322176521497</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="T2">
-        <v>0.001257569940943987</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="U2">
-        <v>0.001261739120561854</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="V2">
-        <v>0.001277796746630671</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="W2">
-        <v>0.001304559763745368</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="X2">
-        <v>0.001356648493968601</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="Y2">
-        <v>0.001394705924131701</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="Z2">
-        <v>0.001440032051325953</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AA2">
-        <v>0.001477606057486981</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AB2">
-        <v>0.001531410810717569</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AC2">
-        <v>0.001597579446001144</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AD2">
-        <v>0.00163185597614804</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AE2">
-        <v>0.001661971405277104</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AF2">
-        <v>0.001726235525552516</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AG2">
-        <v>0.001750614014656994</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AH2">
-        <v>0.001751918163762583</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AI2">
-        <v>0.001757428459286198</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AJ2">
-        <v>0.001768343998332978</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AK2">
-        <v>0.001776144171366407</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AL2">
-        <v>0.001782615780994142</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AM2">
-        <v>0.0018152733931341</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AN2">
-        <v>0.001831469927203513</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AO2">
-        <v>0.001860069113326078</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AP2">
-        <v>0.001888668299448644</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AQ2">
-        <v>0.001903321561511443</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AR2">
-        <v>0.001927483170614991</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AS2">
-        <v>0.001956082356737556</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AT2">
-        <v>0.002006170801952217</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AU2">
-        <v>0.002011141389673519</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AV2">
-        <v>0.002011826210576454</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AW2">
-        <v>0.0020129569873813</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AX2">
-        <v>0.002023758543927592</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AY2">
-        <v>0.002041429897003325</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="AZ2">
-        <v>0.002056556368068152</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BA2">
-        <v>0.00207638267215312</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BB2">
-        <v>0.002106068235280342</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BC2">
-        <v>0.002134065232400327</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BD2">
-        <v>0.002153197634482321</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BE2">
-        <v>0.002154291927987011</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BF2">
-        <v>0.002170985774058555</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BG2">
-        <v>0.00219898277117854</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BH2">
-        <v>0.002199844260422232</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BI2">
-        <v>0.00220310595513621</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BJ2">
-        <v>0.002218539720202354</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BK2">
-        <v>0.002238017528285828</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BL2">
-        <v>0.002252839794349351</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BM2">
-        <v>0.002264699548900178</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BN2">
-        <v>0.002264805473290632</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BO2">
-        <v>0.002273278226326943</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BP2">
-        <v>0.002287931488389741</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BQ2">
-        <v>0.002304766963461892</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BR2">
-        <v>0.002324747585547522</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BS2">
-        <v>0.002345081153634664</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BT2">
-        <v>0.002395169598849325</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BU2">
-        <v>0.002465740489151766</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BV2">
-        <v>0.002577307353629901</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BW2">
-        <v>0.002633114039869068</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BX2">
-        <v>0.002645184081920796</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BY2">
-        <v>0.002647229677929563</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.002671391287033111</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CA2">
-        <v>0.002683461329084839</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CB2">
-        <v>0.002685737978294596</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CC2">
-        <v>0.002686599467538288</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CD2">
-        <v>0.002689861162252266</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CE2">
-        <v>0.002703789353311957</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CF2">
-        <v>0.002705432686519</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CG2">
-        <v>0.002710326455539973</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CH2">
-        <v>0.002749360010707256</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CI2">
-        <v>0.002754081416427491</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.002765405891476024</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CK2">
-        <v>0.002776467362523429</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CL2">
-        <v>0.002799948576624061</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="CM2">
-        <v>0.00335378667899761</v>
+        <v>0.0005144200571306616</v>
       </c>
       <c r="CN2">
-        <v>0.0926870870618476</v>
+        <v>0.09103229737683234</v>
       </c>
       <c r="CO2">
-        <v>0.1086374721302051</v>
+        <v>0.1070970056957214</v>
       </c>
       <c r="CP2">
-        <v>0.1852777824586576</v>
+        <v>0.1847367719510749</v>
       </c>
       <c r="CQ2">
-        <v>0.1855705161199122</v>
+        <v>0.184915469726872</v>
       </c>
       <c r="CR2">
-        <v>0.1866866560246955</v>
+        <v>0.1859295827208168</v>
       </c>
       <c r="CS2">
-        <v>0.187244200427085</v>
+        <v>0.1863769533720162</v>
       </c>
       <c r="CT2">
-        <v>0.2114312285307418</v>
+        <v>0.2107984321091744</v>
       </c>
       <c r="CU2">
-        <v>0.212829686436735</v>
+        <v>0.2120989805733642</v>
       </c>
       <c r="CV2">
-        <v>0.2576446266287956</v>
+        <v>0.2574492193396095</v>
       </c>
       <c r="CW2">
-        <v>0.2705067056839178</v>
+        <v>0.2703805802227333</v>
       </c>
       <c r="CX2">
-        <v>0.3302609729400028</v>
+        <v>0.3308880287821491</v>
       </c>
       <c r="CY2">
-        <v>0.3375225749711234</v>
+        <v>0.3381372324415355</v>
       </c>
       <c r="CZ2">
-        <v>0.3424267069921407</v>
+        <v>0.3429945835515329</v>
       </c>
       <c r="DA2">
-        <v>0.3501027010250372</v>
+        <v>0.3506642229159956</v>
       </c>
       <c r="DB2">
-        <v>0.3700379121104723</v>
+        <v>0.3707718739773041</v>
       </c>
       <c r="DC2">
-        <v>0.4658710725211783</v>
+        <v>0.4678844085828552</v>
       </c>
       <c r="DD2">
-        <v>0.4774878885709637</v>
+        <v>0.4795523449128735</v>
       </c>
       <c r="DE2">
-        <v>0.5140650887277203</v>
+        <v>0.51654470026164</v>
       </c>
       <c r="DF2">
-        <v>0.5155659772341525</v>
+        <v>0.5179491732261396</v>
       </c>
       <c r="DG2">
-        <v>0.5592728304214643</v>
+        <v>0.5621751640842907</v>
       </c>
       <c r="DH2">
-        <v>0.5615588427312612</v>
+        <v>0.5643762114962344</v>
       </c>
       <c r="DI2">
-        <v>0.5753556257903892</v>
+        <v>0.5782559085810168</v>
       </c>
       <c r="DJ2">
-        <v>0.5753776079594835</v>
+        <v>0.5782559085810168</v>
       </c>
       <c r="DK2">
-        <v>0.5920745480310404</v>
+        <v>0.5950780600402255</v>
       </c>
       <c r="DL2">
-        <v>0.6095558981059591</v>
+        <v>0.6126960617364535</v>
       </c>
       <c r="DM2">
-        <v>0.6102528036089458</v>
+        <v>0.6132848260012813</v>
       </c>
       <c r="DN2">
-        <v>0.629577400691764</v>
+        <v>0.6327729575554094</v>
       </c>
       <c r="DO2">
-        <v>0.636257165720391</v>
+        <v>0.6394318384061158</v>
       </c>
       <c r="DP2">
-        <v>0.6363265703606885</v>
+        <v>0.6394318384061158</v>
       </c>
       <c r="DQ2">
-        <v>0.6363761039809008</v>
+        <v>0.6394318384061158</v>
       </c>
       <c r="DR2">
-        <v>0.6461846150229366</v>
+        <v>0.6492650964902507</v>
       </c>
       <c r="DS2">
-        <v>0.6524636565498463</v>
+        <v>0.6555174094842823</v>
       </c>
       <c r="DT2">
-        <v>0.6538202942556604</v>
+        <v>0.6567755278212654</v>
       </c>
       <c r="DU2">
-        <v>0.6545139660586332</v>
+        <v>0.6573610112241569</v>
       </c>
       <c r="DV2">
-        <v>0.6573406848707475</v>
+        <v>0.6601106510765119</v>
       </c>
       <c r="DW2">
-        <v>0.6721623229342676</v>
+        <v>0.6750301501712899</v>
       </c>
       <c r="DX2">
-        <v>0.6795270069658299</v>
+        <v>0.6823839392313372</v>
       </c>
       <c r="DY2">
-        <v>0.68137970997377</v>
+        <v>0.6841453577386166</v>
       </c>
       <c r="DZ2">
-        <v>0.6862368305945858</v>
+        <v>0.6889550118102888</v>
       </c>
       <c r="EA2">
-        <v>0.6884966078042705</v>
+        <v>0.6911294414961031</v>
       </c>
       <c r="EB2">
-        <v>0.6976302368434139</v>
+        <v>0.7002779747556435</v>
       </c>
       <c r="EC2">
-        <v>0.7000924183539659</v>
+        <v>0.70265776070939</v>
       </c>
       <c r="ED2">
-        <v>0.7020364537622973</v>
+        <v>0.7045118436551487</v>
       </c>
       <c r="EE2">
-        <v>0.7046517775735056</v>
+        <v>0.7070470054145999</v>
       </c>
       <c r="EF2">
-        <v>0.7051218932955203</v>
+        <v>0.7074056722811709</v>
       </c>
       <c r="EG2">
-        <v>0.705430069156841</v>
+        <v>0.7076000374739184</v>
       </c>
       <c r="EH2">
-        <v>0.7059738885591716</v>
+        <v>0.7080334829526913</v>
       </c>
       <c r="EI2">
-        <v>0.7063459398807661</v>
+        <v>0.7082926551978486</v>
       </c>
       <c r="EJ2">
-        <v>0.7067338250824284</v>
+        <v>0.7085678922524179</v>
       </c>
       <c r="EK2">
-        <v>0.7071765126243257</v>
+        <v>0.70889873091237</v>
       </c>
       <c r="EL2">
-        <v>0.7128126002484799</v>
+        <v>0.7144987128375632</v>
       </c>
       <c r="EM2">
-        <v>0.7160354352622919</v>
+        <v>0.717650246051371</v>
       </c>
       <c r="EN2">
-        <v>0.7163214824035178</v>
+        <v>0.7178221597875372</v>
       </c>
       <c r="EO2">
-        <v>0.7167658255054221</v>
+        <v>0.7181546781530238</v>
       </c>
       <c r="EP2">
-        <v>0.7167726128556512</v>
+        <v>0.7181546781530238</v>
       </c>
       <c r="EQ2">
-        <v>0.7183436607623841</v>
+        <v>0.7196303337581312</v>
       </c>
       <c r="ER2">
-        <v>0.7188369642344982</v>
+        <v>0.7200125265567193</v>
       </c>
       <c r="ES2">
-        <v>0.7234750479543753</v>
+        <v>0.7245999491821058</v>
       </c>
       <c r="ET2">
-        <v>0.725612796963537</v>
+        <v>0.7266505709461788</v>
       </c>
       <c r="EU2">
-        <v>0.7294408167799424</v>
+        <v>0.7304161152849348</v>
       </c>
       <c r="EV2">
-        <v>0.7458679708503433</v>
+        <v>0.7469645460470021</v>
       </c>
       <c r="EW2">
-        <v>0.7475693705576348</v>
+        <v>0.7485724545694945</v>
       </c>
       <c r="EX2">
-        <v>0.7475773918336692</v>
+        <v>0.7485724545694945</v>
       </c>
       <c r="EY2">
-        <v>0.7590562258828634</v>
+        <v>0.7601003964993848</v>
       </c>
       <c r="EZ2">
-        <v>0.7975642960478949</v>
+        <v>0.799051782644742</v>
       </c>
       <c r="FA2">
-        <v>0.799494491556167</v>
+        <v>0.8008918238423137</v>
       </c>
       <c r="FB2">
-        <v>0.8155698216250601</v>
+        <v>0.8170832994230485</v>
       </c>
       <c r="FC2">
-        <v>0.8221897546534307</v>
+        <v>0.8236814756532358</v>
       </c>
       <c r="FD2">
-        <v>0.8222499511036887</v>
+        <v>0.8236814756532358</v>
       </c>
       <c r="FE2">
-        <v>0.8268666438234742</v>
+        <v>0.8282471953013272</v>
       </c>
       <c r="FF2">
-        <v>0.8547860779431267</v>
+        <v>0.8564555153583981</v>
       </c>
       <c r="FG2">
-        <v>0.8639765939825139</v>
+        <v>0.8656617652870698</v>
       </c>
       <c r="FH2">
-        <v>0.8646168140552577</v>
+        <v>0.8661930173925664</v>
       </c>
       <c r="FI2">
-        <v>0.865368003958477</v>
+        <v>0.8668368577688748</v>
       </c>
       <c r="FJ2">
-        <v>0.8839102020379421</v>
+        <v>0.8855311794154369</v>
       </c>
       <c r="FK2">
-        <v>0.9062510471336869</v>
+        <v>0.908079549474568</v>
       </c>
       <c r="FL2">
-        <v>0.9074857388389783</v>
+        <v>0.9092139432886568</v>
       </c>
       <c r="FM2">
-        <v>0.9152430368722233</v>
+        <v>0.9169660724322792</v>
       </c>
       <c r="FN2">
-        <v>0.9312132839406659</v>
+        <v>0.9330509324287446</v>
       </c>
       <c r="FO2">
-        <v>0.9382210619706988</v>
+        <v>0.9400426101889695</v>
       </c>
       <c r="FP2">
-        <v>0.9426410504896412</v>
+        <v>0.9444087568023052</v>
       </c>
       <c r="FQ2">
-        <v>0.9465850485065437</v>
+        <v>0.9482919708265051</v>
       </c>
       <c r="FR2">
-        <v>0.9465878981740559</v>
+        <v>0.9482919708265051</v>
       </c>
       <c r="FS2">
-        <v>0.9465963709270921</v>
+        <v>0.9482919708265051</v>
       </c>
       <c r="FT2">
-        <v>0.9567512909706124</v>
+        <v>0.9584766901168403</v>
       </c>
       <c r="FU2">
-        <v>0.9669802830144502</v>
+        <v>0.9687365617111449</v>
       </c>
       <c r="FV2">
-        <v>0.9670408215217096</v>
+        <v>0.9687365617111449</v>
       </c>
       <c r="FW2">
-        <v>0.9692383507311274</v>
+        <v>0.9708478355402592</v>
       </c>
       <c r="FX2">
-        <v>0.9697463118733043</v>
+        <v>0.9712448997838106</v>
       </c>
       <c r="FY2">
-        <v>0.9703100609757204</v>
+        <v>0.9716985656275312</v>
       </c>
       <c r="FZ2">
-        <v>0.9723013819842544</v>
+        <v>0.9736006238106882</v>
       </c>
       <c r="GA2">
-        <v>0.9790520104131851</v>
+        <v>0.9803314015694988</v>
       </c>
       <c r="GB2">
-        <v>0.9812939846227934</v>
+        <v>0.9824877686072468</v>
       </c>
       <c r="GC2">
-        <v>0.9817541087947653</v>
+        <v>0.9828362982019375</v>
       </c>
       <c r="GD2">
-        <v>0.982202504556687</v>
+        <v>0.9831729283334923</v>
       </c>
       <c r="GE2">
-        <v>0.9831568848607771</v>
+        <v>0.9840229225426178</v>
       </c>
       <c r="GF2">
-        <v>0.9848267406679335</v>
+        <v>0.9855988271127236</v>
       </c>
       <c r="GG2">
-        <v>0.985146055869302</v>
+        <v>0.9858044941073085</v>
       </c>
       <c r="GH2">
-        <v>0.9851465051873439</v>
+        <v>0.9858044941073085</v>
       </c>
       <c r="GI2">
-        <v>0.9851613274534075</v>
+        <v>0.9858044941073085</v>
       </c>
       <c r="GJ2">
-        <v>0.987419460863085</v>
+        <v>0.987977256019102</v>
       </c>
       <c r="GK2">
-        <v>0.9874326481011415</v>
+        <v>0.987977256019102</v>
       </c>
       <c r="GL2">
-        <v>0.9897995491112852</v>
+        <v>0.9902603718532577</v>
       </c>
       <c r="GM2">
-        <v>0.989851072008506</v>
+        <v>0.9902603718532577</v>
       </c>
       <c r="GN2">
-        <v>0.9899034106687302</v>
+        <v>0.9902603718532577</v>
       </c>
       <c r="GO2">
-        <v>0.993459207983969</v>
+        <v>0.993749723459709</v>
       </c>
       <c r="GP2">
-        <v>0.9942135036872016</v>
+        <v>0.9943967149325946</v>
       </c>
       <c r="GQ2">
-        <v>0.9954993575927124</v>
+        <v>0.9955830171224007</v>
       </c>
       <c r="GR2">
-        <v>0.9999694516118696</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001559135387318788</v>
+        <v>0.0001476557773301177</v>
       </c>
       <c r="C3">
-        <v>0.0002294926681334237</v>
+        <v>0.000212844210531333</v>
       </c>
       <c r="D3">
-        <v>0.0003332883932892021</v>
+        <v>0.0003082980263439743</v>
       </c>
       <c r="E3">
-        <v>0.0003460702741852408</v>
+        <v>0.0003125910495292127</v>
       </c>
       <c r="F3">
-        <v>0.0003507573628471184</v>
+        <v>0.0003125910495292127</v>
       </c>
       <c r="G3">
-        <v>0.0003592531407780181</v>
+        <v>0.0003125910495292127</v>
       </c>
       <c r="H3">
-        <v>0.0003646006439345243</v>
+        <v>0.0003125910495292127</v>
       </c>
       <c r="I3">
-        <v>0.0005032970728064382</v>
+        <v>0.0004430019187428434</v>
       </c>
       <c r="J3">
-        <v>0.0005862834021314697</v>
+        <v>0.0005176127404653272</v>
       </c>
       <c r="K3">
-        <v>0.0005983949330329606</v>
+        <v>0.0005212343313279581</v>
       </c>
       <c r="L3">
-        <v>0.0006689007524595022</v>
+        <v>0.000583344492475183</v>
       </c>
       <c r="M3">
-        <v>0.001090825449027782</v>
+        <v>0.0009974409217010083</v>
       </c>
       <c r="N3">
-        <v>0.001135887598661269</v>
+        <v>0.001034066332428667</v>
       </c>
       <c r="O3">
-        <v>0.001135968461850612</v>
+        <v>0.001034066332428667</v>
       </c>
       <c r="P3">
-        <v>0.001235616397040126</v>
+        <v>0.001125365661371184</v>
       </c>
       <c r="Q3">
-        <v>0.001407020495646013</v>
+        <v>0.001288537009193267</v>
       </c>
       <c r="R3">
-        <v>0.00164845469368231</v>
+        <v>0.001521851525055074</v>
       </c>
       <c r="S3">
-        <v>0.00187263771185892</v>
+        <v>0.001737887007792216</v>
       </c>
       <c r="T3">
-        <v>0.001955624041183951</v>
+        <v>0.0018124978295147</v>
       </c>
       <c r="U3">
-        <v>0.001962422907828653</v>
+        <v>0.0018124978295147</v>
       </c>
       <c r="V3">
-        <v>0.002045409237153684</v>
+        <v>0.001887108651237184</v>
       </c>
       <c r="W3">
-        <v>0.00213688830640964</v>
+        <v>0.001970225925027246</v>
       </c>
       <c r="X3">
-        <v>0.002140015265584207</v>
+        <v>0.001970225925027246</v>
       </c>
       <c r="Y3">
-        <v>0.002151018108494715</v>
+        <v>0.001972737037842757</v>
       </c>
       <c r="Z3">
-        <v>0.002151146353943672</v>
+        <v>0.001972737037842757</v>
       </c>
       <c r="AA3">
-        <v>0.002447632511532205</v>
+        <v>0.002261192398586922</v>
       </c>
       <c r="AB3">
-        <v>0.002948001277462461</v>
+        <v>0.002753859550740885</v>
       </c>
       <c r="AC3">
-        <v>0.003052549716612117</v>
+        <v>0.002850067295858038</v>
       </c>
       <c r="AD3">
-        <v>0.003207543755351474</v>
+        <v>0.002996802088597065</v>
       </c>
       <c r="AE3">
-        <v>0.003647703351771441</v>
+        <v>0.003429162859225909</v>
       </c>
       <c r="AF3">
-        <v>0.00391771777957528</v>
+        <v>0.00369110374968241</v>
       </c>
       <c r="AG3">
-        <v>0.004154109757652589</v>
+        <v>0.003919367904560107</v>
       </c>
       <c r="AH3">
-        <v>0.00488858280167876</v>
+        <v>0.004646517312927589</v>
       </c>
       <c r="AI3">
-        <v>0.005267590628596103</v>
+        <v>0.005017627580143808</v>
       </c>
       <c r="AJ3">
-        <v>0.005363285937817766</v>
+        <v>0.005104967901320862</v>
       </c>
       <c r="AK3">
-        <v>0.005617384035751061</v>
+        <v>0.005350966763852718</v>
       </c>
       <c r="AL3">
-        <v>0.005925409163245742</v>
+        <v>0.005650979724996073</v>
       </c>
       <c r="AM3">
-        <v>0.005963918175932529</v>
+        <v>0.005681041418268262</v>
       </c>
       <c r="AN3">
-        <v>0.005983080192776675</v>
+        <v>0.005691724878587879</v>
       </c>
       <c r="AO3">
-        <v>0.006021325747465605</v>
+        <v>0.005721522688490411</v>
       </c>
       <c r="AP3">
-        <v>0.006054822652193158</v>
+        <v>0.005746564181396225</v>
       </c>
       <c r="AQ3">
-        <v>0.006059670765153726</v>
+        <v>0.005746564181396225</v>
       </c>
       <c r="AR3">
-        <v>0.006416179882254063</v>
+        <v>0.00609513941301765</v>
       </c>
       <c r="AS3">
-        <v>0.006582790280898939</v>
+        <v>0.006253509321106933</v>
       </c>
       <c r="AT3">
-        <v>0.006595684025794068</v>
+        <v>0.006257914388903696</v>
       </c>
       <c r="AU3">
-        <v>0.006727519154721789</v>
+        <v>0.006381452880113141</v>
       </c>
       <c r="AV3">
-        <v>0.007428583149019691</v>
+        <v>0.00707513929744966</v>
       </c>
       <c r="AW3">
-        <v>0.007972344504597014</v>
+        <v>0.007611269099693353</v>
       </c>
       <c r="AX3">
-        <v>0.008713675638567404</v>
+        <v>0.008345287670882271</v>
       </c>
       <c r="AY3">
-        <v>0.009280608533956262</v>
+        <v>0.008904626425047484</v>
       </c>
       <c r="AZ3">
-        <v>0.009756682730084117</v>
+        <v>0.009372959782076739</v>
       </c>
       <c r="BA3">
-        <v>0.0100801129874535</v>
+        <v>0.009688402745779905</v>
       </c>
       <c r="BB3">
-        <v>0.01082546558139118</v>
+        <v>0.01042644926987115</v>
       </c>
       <c r="BC3">
-        <v>0.01120221307832691</v>
+        <v>0.01079529555764117</v>
       </c>
       <c r="BD3">
-        <v>0.0112386560380305</v>
+        <v>0.0108232878621397</v>
       </c>
       <c r="BE3">
-        <v>0.01125404327990535</v>
+        <v>0.01083019045284558</v>
       </c>
       <c r="BF3">
-        <v>0.01125948958156105</v>
+        <v>0.01083019045284558</v>
       </c>
       <c r="BG3">
-        <v>0.01136964104466514</v>
+        <v>0.01093201026840048</v>
       </c>
       <c r="BH3">
-        <v>0.01145733463995188</v>
+        <v>0.01101133595630259</v>
       </c>
       <c r="BI3">
-        <v>0.01145741550314122</v>
+        <v>0.01101133595630259</v>
       </c>
       <c r="BJ3">
-        <v>0.01160755141192009</v>
+        <v>0.01115320477528249</v>
       </c>
       <c r="BK3">
-        <v>0.01206017610823868</v>
+        <v>0.01159805077160617</v>
       </c>
       <c r="BL3">
-        <v>0.0123528648858581</v>
+        <v>0.01188270262123939</v>
       </c>
       <c r="BM3">
-        <v>0.01259039211392617</v>
+        <v>0.01211210385905024</v>
       </c>
       <c r="BN3">
-        <v>0.01289326161146278</v>
+        <v>0.01240695286610185</v>
       </c>
       <c r="BO3">
-        <v>0.01343115167708786</v>
+        <v>0.01293720189877532</v>
       </c>
       <c r="BP3">
-        <v>0.013725103534697</v>
+        <v>0.01322311886773133</v>
       </c>
       <c r="BQ3">
-        <v>0.01375860043942456</v>
+        <v>0.01324816036063715</v>
       </c>
       <c r="BR3">
-        <v>0.01406404231694025</v>
+        <v>0.01354558590095948</v>
       </c>
       <c r="BS3">
-        <v>0.0146087958125095</v>
+        <v>0.01408270944507615</v>
       </c>
       <c r="BT3">
-        <v>0.01470377104173702</v>
+        <v>0.01416932852363836</v>
       </c>
       <c r="BU3">
-        <v>0.01471142873367474</v>
+        <v>0.01416932852363836</v>
       </c>
       <c r="BV3">
-        <v>0.01471495916664602</v>
+        <v>0.01416932852363836</v>
       </c>
       <c r="BW3">
-        <v>0.01479109049602681</v>
+        <v>0.0142370732775284</v>
       </c>
       <c r="BX3">
-        <v>0.01488823413523669</v>
+        <v>0.01432586426712613</v>
       </c>
       <c r="BY3">
-        <v>0.01488856979473396</v>
+        <v>0.01432586426712613</v>
       </c>
       <c r="BZ3">
-        <v>0.01495723008417552</v>
+        <v>0.01438612591854808</v>
       </c>
       <c r="CA3">
-        <v>0.01502467361962696</v>
+        <v>0.01444516885144349</v>
       </c>
       <c r="CB3">
-        <v>0.01512579937880446</v>
+        <v>0.01453794839042662</v>
       </c>
       <c r="CC3">
-        <v>0.01519084203827543</v>
+        <v>0.0145945865709554</v>
       </c>
       <c r="CD3">
-        <v>0.01539313459663009</v>
+        <v>0.01478869625015596</v>
       </c>
       <c r="CE3">
-        <v>0.01561621475481567</v>
+        <v>0.01500362709225566</v>
       </c>
       <c r="CF3">
-        <v>0.01564946597154522</v>
+        <v>0.01502842250048261</v>
       </c>
       <c r="CG3">
-        <v>0.01571273652703061</v>
+        <v>0.01508328571583704</v>
       </c>
       <c r="CH3">
-        <v>0.01606785450414226</v>
+        <v>0.01543046756137467</v>
       </c>
       <c r="CI3">
-        <v>0.01632362862206193</v>
+        <v>0.01567814514994716</v>
       </c>
       <c r="CJ3">
-        <v>0.01635860265877747</v>
+        <v>0.01570466615977631</v>
       </c>
       <c r="CK3">
-        <v>0.01649556743766346</v>
+        <v>0.01583334258313114</v>
       </c>
       <c r="CL3">
-        <v>0.01684791129479768</v>
+        <v>0.01617774582967602</v>
       </c>
       <c r="CM3">
-        <v>0.01748584918960902</v>
+        <v>0.01680820422591886</v>
       </c>
       <c r="CN3">
-        <v>0.0986648635293403</v>
+        <v>0.09810977840131345</v>
       </c>
       <c r="CO3">
-        <v>0.1007745925121808</v>
+        <v>0.1002144041976695</v>
       </c>
       <c r="CP3">
-        <v>0.2014097416936659</v>
+        <v>0.2010035265374753</v>
       </c>
       <c r="CQ3">
-        <v>0.2083155806374973</v>
+        <v>0.2079120059577302</v>
       </c>
       <c r="CR3">
-        <v>0.2099007292246045</v>
+        <v>0.2094912043857468</v>
       </c>
       <c r="CS3">
-        <v>0.210599016668925</v>
+        <v>0.2101821097701672</v>
       </c>
       <c r="CT3">
-        <v>0.221548430579868</v>
+        <v>0.2211406927988165</v>
       </c>
       <c r="CU3">
-        <v>0.2217905260378989</v>
+        <v>0.2213746696423245</v>
       </c>
       <c r="CV3">
-        <v>0.262628219705746</v>
+        <v>0.2622697891953867</v>
       </c>
       <c r="CW3">
-        <v>0.2643892760914224</v>
+        <v>0.2640251794377074</v>
       </c>
       <c r="CX3">
-        <v>0.3196389886420494</v>
+        <v>0.3193555871098595</v>
       </c>
       <c r="CY3">
-        <v>0.3354196465136976</v>
+        <v>0.3351532144884798</v>
       </c>
       <c r="CZ3">
-        <v>0.341026909168091</v>
+        <v>0.3407610209749062</v>
       </c>
       <c r="DA3">
-        <v>0.3484048371080827</v>
+        <v>0.3481423516128047</v>
       </c>
       <c r="DB3">
-        <v>0.3544927334585669</v>
+        <v>0.3542315678128349</v>
       </c>
       <c r="DC3">
-        <v>0.4318769828291628</v>
+        <v>0.4317322500993666</v>
       </c>
       <c r="DD3">
-        <v>0.4640016065678775</v>
+        <v>0.4639002318480865</v>
       </c>
       <c r="DE3">
-        <v>0.4947846433175039</v>
+        <v>0.4947244605194739</v>
       </c>
       <c r="DF3">
-        <v>0.5083971982067863</v>
+        <v>0.5083504843582387</v>
       </c>
       <c r="DG3">
-        <v>0.5407778829434183</v>
+        <v>0.5407749405336897</v>
       </c>
       <c r="DH3">
-        <v>0.5491539898752913</v>
+        <v>0.5491560617949162</v>
       </c>
       <c r="DI3">
-        <v>0.5637562187565242</v>
+        <v>0.5637733575251469</v>
       </c>
       <c r="DJ3">
-        <v>0.5677401843241207</v>
+        <v>0.5677552459954103</v>
       </c>
       <c r="DK3">
-        <v>0.5794715222287039</v>
+        <v>0.5794970154899691</v>
       </c>
       <c r="DL3">
-        <v>0.6012630730514625</v>
+        <v>0.6013152408367173</v>
       </c>
       <c r="DM3">
-        <v>0.6012637338584171</v>
+        <v>0.6013152408367173</v>
       </c>
       <c r="DN3">
-        <v>0.6223222276871381</v>
+        <v>0.6223992256164279</v>
       </c>
       <c r="DO3">
-        <v>0.6312244216147321</v>
+        <v>0.6313072832784951</v>
       </c>
       <c r="DP3">
-        <v>0.631391032013377</v>
+        <v>0.6314656531865843</v>
       </c>
       <c r="DQ3">
-        <v>0.631567209651944</v>
+        <v>0.6316336057815896</v>
       </c>
       <c r="DR3">
-        <v>0.6372242846059323</v>
+        <v>0.6372913049931348</v>
       </c>
       <c r="DS3">
-        <v>0.6436589202535963</v>
+        <v>0.6437278203257649</v>
       </c>
       <c r="DT3">
-        <v>0.6448289479440799</v>
+        <v>0.6448912276147499</v>
       </c>
       <c r="DU3">
-        <v>0.6466679414291224</v>
+        <v>0.6467246807914636</v>
       </c>
       <c r="DV3">
-        <v>0.6470361490561276</v>
+        <v>0.6470849734210716</v>
       </c>
       <c r="DW3">
-        <v>0.6559522649836085</v>
+        <v>0.6560069755610911</v>
       </c>
       <c r="DX3">
-        <v>0.664741167912124</v>
+        <v>0.6648015593076507</v>
       </c>
       <c r="DY3">
-        <v>0.6657647323037988</v>
+        <v>0.665818266822345</v>
       </c>
       <c r="DZ3">
-        <v>0.6730809849442921</v>
+        <v>0.6731378225815585</v>
       </c>
       <c r="EA3">
-        <v>0.677202239910772</v>
+        <v>0.677257222114269</v>
       </c>
       <c r="EB3">
-        <v>0.6883006598205031</v>
+        <v>0.6883650517225594</v>
       </c>
       <c r="EC3">
-        <v>0.6938560037753189</v>
+        <v>0.6939208556829505</v>
       </c>
       <c r="ED3">
-        <v>0.6951529055647705</v>
+        <v>0.6952113419182199</v>
       </c>
       <c r="EE3">
-        <v>0.6984645955378349</v>
+        <v>0.6985198693568725</v>
       </c>
       <c r="EF3">
-        <v>0.6984755983807455</v>
+        <v>0.698522380469688</v>
       </c>
       <c r="EG3">
-        <v>0.6988466417777276</v>
+        <v>0.6988855134478266</v>
       </c>
       <c r="EH3">
-        <v>0.6995142675222975</v>
+        <v>0.6995457076269869</v>
       </c>
       <c r="EI3">
-        <v>0.6995224600952309</v>
+        <v>0.6995457076269869</v>
       </c>
       <c r="EJ3">
-        <v>0.6996636954840821</v>
+        <v>0.6996786615555125</v>
       </c>
       <c r="EK3">
-        <v>0.7008347913745571</v>
+        <v>0.7008431387691741</v>
       </c>
       <c r="EL3">
-        <v>0.7098650113011099</v>
+        <v>0.7098794291373414</v>
       </c>
       <c r="EM3">
-        <v>0.7164823452472879</v>
+        <v>0.7164989377479687</v>
       </c>
       <c r="EN3">
-        <v>0.7181377465338238</v>
+        <v>0.7181485023034269</v>
       </c>
       <c r="EO3">
-        <v>0.7200893906179501</v>
+        <v>0.7200947879616817</v>
       </c>
       <c r="EP3">
-        <v>0.7205921102138612</v>
+        <v>0.7205898097393999</v>
       </c>
       <c r="EQ3">
-        <v>0.7207517290125629</v>
+        <v>0.7207411767591074</v>
       </c>
       <c r="ER3">
-        <v>0.7217464000044728</v>
+        <v>0.7217289442235743</v>
       </c>
       <c r="ES3">
-        <v>0.7245922912813257</v>
+        <v>0.7245709209006718</v>
       </c>
       <c r="ET3">
-        <v>0.727910024254341</v>
+        <v>0.7278855010961313</v>
       </c>
       <c r="EU3">
-        <v>0.7285768435489175</v>
+        <v>0.7285448875232269</v>
       </c>
       <c r="EV3">
-        <v>0.7436061464266768</v>
+        <v>0.7435899467915277</v>
       </c>
       <c r="EW3">
-        <v>0.7490375939825001</v>
+        <v>0.74902165431332</v>
       </c>
       <c r="EX3">
-        <v>0.7490649943072772</v>
+        <v>0.7490405893829106</v>
       </c>
       <c r="EY3">
-        <v>0.7552820809567107</v>
+        <v>0.7552592044688772</v>
       </c>
       <c r="EZ3">
-        <v>0.795014562633547</v>
+        <v>0.7950473275870418</v>
       </c>
       <c r="FA3">
-        <v>0.8037453255625354</v>
+        <v>0.8037836774628825</v>
       </c>
       <c r="FB3">
-        <v>0.8151652854696513</v>
+        <v>0.815213566217904</v>
       </c>
       <c r="FC3">
-        <v>0.8255786583849543</v>
+        <v>0.825635242774348</v>
       </c>
       <c r="FD3">
-        <v>0.8259392311520215</v>
+        <v>0.8259878882169901</v>
       </c>
       <c r="FE3">
-        <v>0.8265910716167197</v>
+        <v>0.8266322716298143</v>
       </c>
       <c r="FF3">
-        <v>0.8477174014448889</v>
+        <v>0.847784201935051</v>
       </c>
       <c r="FG3">
-        <v>0.8600534833445536</v>
+        <v>0.8601316918271676</v>
       </c>
       <c r="FH3">
-        <v>0.8621530623274767</v>
+        <v>0.8622261512357047</v>
       </c>
       <c r="FI3">
-        <v>0.8623860648455816</v>
+        <v>0.8624510204580842</v>
       </c>
       <c r="FJ3">
-        <v>0.8753049857405056</v>
+        <v>0.8753822903807463</v>
       </c>
       <c r="FK3">
-        <v>0.8990633355472674</v>
+        <v>0.8991704902492695</v>
       </c>
       <c r="FL3">
-        <v>0.9020633855228665</v>
+        <v>0.9021668745253693</v>
       </c>
       <c r="FM3">
-        <v>0.9078501247758001</v>
+        <v>0.9079544473881538</v>
       </c>
       <c r="FN3">
-        <v>0.9257898186298877</v>
+        <v>0.9259145966673826</v>
       </c>
       <c r="FO3">
-        <v>0.9348451225562365</v>
+        <v>0.9349760115352593</v>
       </c>
       <c r="FP3">
-        <v>0.9381780671291281</v>
+        <v>0.9383058278908122</v>
       </c>
       <c r="FQ3">
-        <v>0.9412020384045326</v>
+        <v>0.9413261720893685</v>
       </c>
       <c r="FR3">
-        <v>0.9412056277425035</v>
+        <v>0.9413261720893685</v>
       </c>
       <c r="FS3">
-        <v>0.9416428370589475</v>
+        <v>0.9417555778165831</v>
       </c>
       <c r="FT3">
-        <v>0.9451920638300799</v>
+        <v>0.9453020255734707</v>
       </c>
       <c r="FU3">
-        <v>0.9560074347421132</v>
+        <v>0.9561263491811917</v>
       </c>
       <c r="FV3">
-        <v>0.9560092013674989</v>
+        <v>0.9561263491811917</v>
       </c>
       <c r="FW3">
-        <v>0.9615211493226675</v>
+        <v>0.9616386870759873</v>
       </c>
       <c r="FX3">
-        <v>0.9616858612813278</v>
+        <v>0.9617951554789248</v>
       </c>
       <c r="FY3">
-        <v>0.9621132215178519</v>
+        <v>0.9622146962241749</v>
       </c>
       <c r="FZ3">
-        <v>0.9649827671945125</v>
+        <v>0.965080365492802</v>
       </c>
       <c r="GA3">
-        <v>0.9746064461162384</v>
+        <v>0.9747110730381785</v>
       </c>
       <c r="GB3">
-        <v>0.9783565456857369</v>
+        <v>0.9784587179169466</v>
       </c>
       <c r="GC3">
-        <v>0.9783575093480291</v>
+        <v>0.9784587179169466</v>
       </c>
       <c r="GD3">
-        <v>0.9790538493423654</v>
+        <v>0.9791476727070854</v>
       </c>
       <c r="GE3">
-        <v>0.9792692855606131</v>
+        <v>0.9793549472675589</v>
       </c>
       <c r="GF3">
-        <v>0.980460658750923</v>
+        <v>0.9805397345202079</v>
       </c>
       <c r="GG3">
-        <v>0.9806577406493201</v>
+        <v>0.9807286251264673</v>
       </c>
       <c r="GH3">
-        <v>0.9809437389869939</v>
+        <v>0.9810065757339607</v>
       </c>
       <c r="GI3">
-        <v>0.9811835448850434</v>
+        <v>0.9812382593208288</v>
       </c>
       <c r="GJ3">
-        <v>0.9823262123757496</v>
+        <v>0.9823742622350349</v>
       </c>
       <c r="GK3">
-        <v>0.9823351435136769</v>
+        <v>0.9823746982979512</v>
       </c>
       <c r="GL3">
-        <v>0.9869634911760323</v>
+        <v>0.9870020092639998</v>
       </c>
       <c r="GM3">
-        <v>0.9874655110019491</v>
+        <v>0.987496330141895</v>
       </c>
       <c r="GN3">
-        <v>0.9879041247583816</v>
+        <v>0.987927142576667</v>
       </c>
       <c r="GO3">
-        <v>0.9933464483141166</v>
+        <v>0.9933697436584514</v>
       </c>
       <c r="GP3">
-        <v>0.9963623140895871</v>
+        <v>0.9963819692701636</v>
       </c>
       <c r="GQ3">
-        <v>0.9966180882075067</v>
+        <v>0.9966296468587361</v>
       </c>
       <c r="GR3">
-        <v>0.9996844786825663</v>
+        <v>0.9996924787457823</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.000215977470452599</v>
+        <v>0.0001403743282773297</v>
       </c>
       <c r="C4">
-        <v>0.001129140714646696</v>
+        <v>0.0009877391782912833</v>
       </c>
       <c r="D4">
-        <v>0.002054208159416917</v>
+        <v>0.001847175641486621</v>
       </c>
       <c r="E4">
-        <v>0.002437100477947645</v>
+        <v>0.002156812195088848</v>
       </c>
       <c r="F4">
-        <v>0.002626199537099418</v>
+        <v>0.002269930112313722</v>
       </c>
       <c r="G4">
-        <v>0.003279922168737442</v>
+        <v>0.002854205752910307</v>
       </c>
       <c r="H4">
-        <v>0.004184207812501893</v>
+        <v>0.003692568153941628</v>
       </c>
       <c r="I4">
-        <v>0.004697120587325183</v>
+        <v>0.004134053683373352</v>
       </c>
       <c r="J4">
-        <v>0.005022338473064659</v>
+        <v>0.004385204710067696</v>
       </c>
       <c r="K4">
-        <v>0.005099888366817819</v>
+        <v>0.004385204710067696</v>
       </c>
       <c r="L4">
-        <v>0.005147897009141279</v>
+        <v>0.004385204710067696</v>
       </c>
       <c r="M4">
-        <v>0.00515238597595853</v>
+        <v>0.004385204710067696</v>
       </c>
       <c r="N4">
-        <v>0.005287799262512088</v>
+        <v>0.004443881854390168</v>
       </c>
       <c r="O4">
-        <v>0.005557893995583784</v>
+        <v>0.004639134513773863</v>
       </c>
       <c r="P4">
-        <v>0.005576585715488402</v>
+        <v>0.004639134513773863</v>
       </c>
       <c r="Q4">
-        <v>0.0056301306480798</v>
+        <v>0.004639134513773863</v>
       </c>
       <c r="R4">
-        <v>0.006056280828704067</v>
+        <v>0.00499263727871112</v>
       </c>
       <c r="S4">
-        <v>0.006244931287834128</v>
+        <v>0.005105300287107751</v>
       </c>
       <c r="T4">
-        <v>0.006256098495374585</v>
+        <v>0.005105300287107751</v>
       </c>
       <c r="U4">
-        <v>0.006590080071538195</v>
+        <v>0.005365338250826133</v>
       </c>
       <c r="V4">
-        <v>0.007182961300231695</v>
+        <v>0.005887916856240693</v>
       </c>
       <c r="W4">
-        <v>0.007293375555575382</v>
+        <v>0.005921243399928951</v>
       </c>
       <c r="X4">
-        <v>0.0075810917694999</v>
+        <v>0.006134365356723938</v>
       </c>
       <c r="Y4">
-        <v>0.00818116539854149</v>
+        <v>0.006664237511528275</v>
       </c>
       <c r="Z4">
-        <v>0.008738155585497983</v>
+        <v>0.007150420327930756</v>
       </c>
       <c r="AA4">
-        <v>0.009179639786864365</v>
+        <v>0.007519472760880615</v>
       </c>
       <c r="AB4">
-        <v>0.009363267985751366</v>
+        <v>0.007627042879371469</v>
       </c>
       <c r="AC4">
-        <v>0.00963215409876457</v>
+        <v>0.007821069921483674</v>
       </c>
       <c r="AD4">
-        <v>0.009684095005278339</v>
+        <v>0.007821069921483674</v>
       </c>
       <c r="AE4">
-        <v>0.00968550194734643</v>
+        <v>0.007821069921483674</v>
       </c>
       <c r="AF4">
-        <v>0.009686506122895028</v>
+        <v>0.007821069921483674</v>
       </c>
       <c r="AG4">
-        <v>0.009718458867441436</v>
+        <v>0.007821069921483674</v>
       </c>
       <c r="AH4">
-        <v>0.009995588480853598</v>
+        <v>0.008023456394994943</v>
       </c>
       <c r="AI4">
-        <v>0.01026743247400995</v>
+        <v>0.008220482914871041</v>
       </c>
       <c r="AJ4">
-        <v>0.01052137300629984</v>
+        <v>0.008399354191746486</v>
       </c>
       <c r="AK4">
-        <v>0.01076793737823274</v>
+        <v>0.008570745574947093</v>
       </c>
       <c r="AL4">
-        <v>0.01098717301884303</v>
+        <v>0.008714423894078003</v>
       </c>
       <c r="AM4">
-        <v>0.01137295203751346</v>
+        <v>0.009026987744413375</v>
       </c>
       <c r="AN4">
-        <v>0.01175296848590501</v>
+        <v>0.009333707983588764</v>
       </c>
       <c r="AO4">
-        <v>0.01187348834173777</v>
+        <v>0.009377282246079276</v>
       </c>
       <c r="AP4">
-        <v>0.01187767075154019</v>
+        <v>0.009377282246079276</v>
       </c>
       <c r="AQ4">
-        <v>0.01204962817986236</v>
+        <v>0.009473017464201445</v>
       </c>
       <c r="AR4">
-        <v>0.01243830479867303</v>
+        <v>0.009788519664560706</v>
       </c>
       <c r="AS4">
-        <v>0.01258192944562399</v>
+        <v>0.009855523648285498</v>
       </c>
       <c r="AT4">
-        <v>0.01259702808735472</v>
+        <v>0.009855523648285498</v>
       </c>
       <c r="AU4">
-        <v>0.01263477072218134</v>
+        <v>0.009855523648285498</v>
       </c>
       <c r="AV4">
-        <v>0.01268059425439904</v>
+        <v>0.009855523648285498</v>
       </c>
       <c r="AW4">
-        <v>0.01274506133751904</v>
+        <v>0.009855523648285498</v>
       </c>
       <c r="AX4">
-        <v>0.0129804526689112</v>
+        <v>0.01001558486087908</v>
       </c>
       <c r="AY4">
-        <v>0.01311330793534096</v>
+        <v>0.0100716680108172</v>
       </c>
       <c r="AZ4">
-        <v>0.01322064935053593</v>
+        <v>0.01010187850001643</v>
       </c>
       <c r="BA4">
-        <v>0.01370057852376292</v>
+        <v>0.01050991656884353</v>
       </c>
       <c r="BB4">
-        <v>0.01428275245193823</v>
+        <v>0.01102163729352549</v>
       </c>
       <c r="BC4">
-        <v>0.01452765101379051</v>
+        <v>0.01119133943982201</v>
       </c>
       <c r="BD4">
-        <v>0.01465270393984266</v>
+        <v>0.01123951052255782</v>
       </c>
       <c r="BE4">
-        <v>0.014860349049892</v>
+        <v>0.01137143530976494</v>
       </c>
       <c r="BF4">
-        <v>0.015184978545603</v>
+        <v>0.0116219896717124</v>
       </c>
       <c r="BG4">
-        <v>0.01533175851270667</v>
+        <v>0.01169219334987306</v>
       </c>
       <c r="BH4">
-        <v>0.01535174513767396</v>
+        <v>0.01169219334987306</v>
       </c>
       <c r="BI4">
-        <v>0.01536008407607753</v>
+        <v>0.01169219334987306</v>
       </c>
       <c r="BJ4">
-        <v>0.0155116598034133</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BK4">
-        <v>0.01555337192543203</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BL4">
-        <v>0.01558532466997844</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BM4">
-        <v>0.01564019400263393</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BN4">
-        <v>0.01566220429569916</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BO4">
-        <v>0.01566638670550157</v>
+        <v>0.01176726023258596</v>
       </c>
       <c r="BP4">
-        <v>0.0159546568394529</v>
+        <v>0.01198094389936343</v>
       </c>
       <c r="BQ4">
-        <v>0.01623056218280581</v>
+        <v>0.01218208888551145</v>
       </c>
       <c r="BR4">
-        <v>0.01653061727732749</v>
+        <v>0.01240772324855394</v>
       </c>
       <c r="BS4">
-        <v>0.01742166782045141</v>
+        <v>0.01323266441946338</v>
       </c>
       <c r="BT4">
-        <v>0.0181442540954222</v>
+        <v>0.01388677215497958</v>
       </c>
       <c r="BU4">
-        <v>0.0183591509258225</v>
+        <v>0.01402605064581564</v>
       </c>
       <c r="BV4">
-        <v>0.01877790144608865</v>
+        <v>0.01437204968658884</v>
       </c>
       <c r="BW4">
-        <v>0.01948670048039219</v>
+        <v>0.01501217628703348</v>
       </c>
       <c r="BX4">
-        <v>0.01976875435404267</v>
+        <v>0.01521955627224016</v>
       </c>
       <c r="BY4">
-        <v>0.01977930139855312</v>
+        <v>0.01521955627224016</v>
       </c>
       <c r="BZ4">
-        <v>0.01977954636229497</v>
+        <v>0.01521955627224016</v>
       </c>
       <c r="CA4">
-        <v>0.01978049405464084</v>
+        <v>0.01521955627224016</v>
       </c>
       <c r="CB4">
-        <v>0.01983085532907816</v>
+        <v>0.01521955627224016</v>
       </c>
       <c r="CC4">
-        <v>0.01993667659419956</v>
+        <v>0.01524822523300593</v>
       </c>
       <c r="CD4">
-        <v>0.02004401800939453</v>
+        <v>0.01527843572220516</v>
       </c>
       <c r="CE4">
-        <v>0.02033801220362288</v>
+        <v>0.01549792394856219</v>
       </c>
       <c r="CF4">
-        <v>0.02054778456377517</v>
+        <v>0.01563200590207532</v>
       </c>
       <c r="CG4">
-        <v>0.02075437011377323</v>
+        <v>0.01576285622829703</v>
       </c>
       <c r="CH4">
-        <v>0.02105897822851526</v>
+        <v>0.01599310764214907</v>
       </c>
       <c r="CI4">
-        <v>0.02129701262003534</v>
+        <v>0.01615584908507608</v>
       </c>
       <c r="CJ4">
-        <v>0.0214549997476814</v>
+        <v>0.01623741753368599</v>
       </c>
       <c r="CK4">
-        <v>0.02164163315671384</v>
+        <v>0.01634803512556009</v>
       </c>
       <c r="CL4">
-        <v>0.02194069854118762</v>
+        <v>0.01657266585994364</v>
       </c>
       <c r="CM4">
-        <v>0.0226718862165747</v>
+        <v>0.0172354959601394</v>
       </c>
       <c r="CN4">
-        <v>0.09264010560280633</v>
+        <v>0.08810906043899559</v>
       </c>
       <c r="CO4">
-        <v>0.1180877028343863</v>
+        <v>0.1138358949204225</v>
       </c>
       <c r="CP4">
-        <v>0.2419060538267871</v>
+        <v>0.2393169027432783</v>
       </c>
       <c r="CQ4">
-        <v>0.2440990139329192</v>
+        <v>0.2414620626505303</v>
       </c>
       <c r="CR4">
-        <v>0.2462762918382923</v>
+        <v>0.2435913198131852</v>
       </c>
       <c r="CS4">
-        <v>0.2467138299094677</v>
+        <v>0.2439563706202448</v>
       </c>
       <c r="CT4">
-        <v>0.2534863602372359</v>
+        <v>0.2507455047195526</v>
       </c>
       <c r="CU4">
-        <v>0.2541645723700591</v>
+        <v>0.251354614265074</v>
       </c>
       <c r="CV4">
-        <v>0.2802265616313736</v>
+        <v>0.2777044811691531</v>
       </c>
       <c r="CW4">
-        <v>0.295162316354215</v>
+        <v>0.2927716417163527</v>
       </c>
       <c r="CX4">
-        <v>0.3578336453873011</v>
+        <v>0.3562456973237929</v>
       </c>
       <c r="CY4">
-        <v>0.3823285555727742</v>
+        <v>0.3810064468144658</v>
       </c>
       <c r="CZ4">
-        <v>0.3905953069728578</v>
+        <v>0.3893108156980936</v>
       </c>
       <c r="DA4">
-        <v>0.3959234609307229</v>
+        <v>0.3946352606975915</v>
       </c>
       <c r="DB4">
-        <v>0.407778731504479</v>
+        <v>0.4065786152553551</v>
       </c>
       <c r="DC4">
-        <v>0.4900861954878895</v>
+        <v>0.4899649551007808</v>
       </c>
       <c r="DD4">
-        <v>0.492686054313714</v>
+        <v>0.4925227360754214</v>
       </c>
       <c r="DE4">
-        <v>0.535739476397358</v>
+        <v>0.5361029917920032</v>
       </c>
       <c r="DF4">
-        <v>0.536153719317406</v>
+        <v>0.5364444198407251</v>
       </c>
       <c r="DG4">
-        <v>0.5647963747036162</v>
+        <v>0.5654112456082599</v>
       </c>
       <c r="DH4">
-        <v>0.5650145215841738</v>
+        <v>0.565553819855755</v>
       </c>
       <c r="DI4">
-        <v>0.576261428128487</v>
+        <v>0.576880254764867</v>
       </c>
       <c r="DJ4">
-        <v>0.5766247302760696</v>
+        <v>0.57717002564464</v>
       </c>
       <c r="DK4">
-        <v>0.6010071144560968</v>
+        <v>0.6018166666404247</v>
       </c>
       <c r="DL4">
-        <v>0.616994508229834</v>
+        <v>0.6179502557770681</v>
       </c>
       <c r="DM4">
-        <v>0.6179098976041358</v>
+        <v>0.6187998780639742</v>
       </c>
       <c r="DN4">
-        <v>0.6287391271282349</v>
+        <v>0.6297027620264656</v>
       </c>
       <c r="DO4">
-        <v>0.6310183427385414</v>
+        <v>0.6319353904768172</v>
       </c>
       <c r="DP4">
-        <v>0.6311234079936262</v>
+        <v>0.6319632927955339</v>
       </c>
       <c r="DQ4">
-        <v>0.6311966264671698</v>
+        <v>0.6319632927955339</v>
       </c>
       <c r="DR4">
-        <v>0.6357607489880583</v>
+        <v>0.636512961537977</v>
       </c>
       <c r="DS4">
-        <v>0.638308726411372</v>
+        <v>0.63901813148524</v>
       </c>
       <c r="DT4">
-        <v>0.6408786399357475</v>
+        <v>0.6415455460280163</v>
       </c>
       <c r="DU4">
-        <v>0.6424547124120241</v>
+        <v>0.6430651428160673</v>
       </c>
       <c r="DV4">
-        <v>0.6441200209926196</v>
+        <v>0.6446752306645016</v>
       </c>
       <c r="DW4">
-        <v>0.6604547417831663</v>
+        <v>0.6611610313896139</v>
       </c>
       <c r="DX4">
-        <v>0.6669712240985426</v>
+        <v>0.667690516590897</v>
       </c>
       <c r="DY4">
-        <v>0.6685590096753862</v>
+        <v>0.6692219912046191</v>
       </c>
       <c r="DZ4">
-        <v>0.6750906964914983</v>
+        <v>0.675766894732427</v>
       </c>
       <c r="EA4">
-        <v>0.6804325991500288</v>
+        <v>0.6811052817849941</v>
       </c>
       <c r="EB4">
-        <v>0.693127927764441</v>
+        <v>0.6939005083900962</v>
       </c>
       <c r="EC4">
-        <v>0.6963255401191949</v>
+        <v>0.6970644492939903</v>
       </c>
       <c r="ED4">
-        <v>0.6995999339776647</v>
+        <v>0.7003062515046069</v>
       </c>
       <c r="EE4">
-        <v>0.7020676238970928</v>
+        <v>0.7027300048389686</v>
       </c>
       <c r="EF4">
-        <v>0.7028542400351624</v>
+        <v>0.7034490429101629</v>
       </c>
       <c r="EG4">
-        <v>0.7033031444968879</v>
+        <v>0.7038256199569822</v>
       </c>
       <c r="EH4">
-        <v>0.7035474021287091</v>
+        <v>0.7039946721596424</v>
       </c>
       <c r="EI4">
-        <v>0.7035647399695483</v>
+        <v>0.7039946721596424</v>
       </c>
       <c r="EJ4">
-        <v>0.7036632034043135</v>
+        <v>0.704015879814515</v>
       </c>
       <c r="EK4">
-        <v>0.7071884445749236</v>
+        <v>0.7075120570837827</v>
       </c>
       <c r="EL4">
-        <v>0.7191624661544268</v>
+        <v>0.7195758326809193</v>
       </c>
       <c r="EM4">
-        <v>0.72799185058174</v>
+        <v>0.7284507470811784</v>
       </c>
       <c r="EN4">
-        <v>0.7304126226988974</v>
+        <v>0.7308269227931109</v>
       </c>
       <c r="EO4">
-        <v>0.7311930563366679</v>
+        <v>0.7315396914175137</v>
       </c>
       <c r="EP4">
-        <v>0.7314022355467914</v>
+        <v>0.7316731718793383</v>
       </c>
       <c r="EQ4">
-        <v>0.7322432205874924</v>
+        <v>0.7324473434605456</v>
       </c>
       <c r="ER4">
-        <v>0.7324205845160762</v>
+        <v>0.7325485612122833</v>
       </c>
       <c r="ES4">
-        <v>0.7354515781627663</v>
+        <v>0.7355435401955792</v>
       </c>
       <c r="ET4">
-        <v>0.7365982798182629</v>
+        <v>0.7366277277827615</v>
       </c>
       <c r="EU4">
-        <v>0.7399802714819401</v>
+        <v>0.7399786409811613</v>
       </c>
       <c r="EV4">
-        <v>0.7545040221848419</v>
+        <v>0.7546280033632441</v>
       </c>
       <c r="EW4">
-        <v>0.7571189188113943</v>
+        <v>0.7572010336200456</v>
       </c>
       <c r="EX4">
-        <v>0.7579087525496196</v>
+        <v>0.7579233345415425</v>
       </c>
       <c r="EY4">
-        <v>0.7732481062919939</v>
+        <v>0.7733997700512254</v>
       </c>
       <c r="EZ4">
-        <v>0.8136433482469907</v>
+        <v>0.8142844627962096</v>
       </c>
       <c r="FA4">
-        <v>0.8178654099513246</v>
+        <v>0.8184872602107083</v>
       </c>
       <c r="FB4">
-        <v>0.82734033890988</v>
+        <v>0.8280167976427856</v>
       </c>
       <c r="FC4">
-        <v>0.8320937351399288</v>
+        <v>0.8327584019114975</v>
       </c>
       <c r="FD4">
-        <v>0.8320946125146712</v>
+        <v>0.8327584019114975</v>
       </c>
       <c r="FE4">
-        <v>0.8361373577103268</v>
+        <v>0.8367793610315254</v>
       </c>
       <c r="FF4">
-        <v>0.8538715135686016</v>
+        <v>0.8546842775302714</v>
       </c>
       <c r="FG4">
-        <v>0.8579753437672135</v>
+        <v>0.8587671807113185</v>
       </c>
       <c r="FH4">
-        <v>0.8592462986287236</v>
+        <v>0.8599773689173538</v>
       </c>
       <c r="FI4">
-        <v>0.8604707307879821</v>
+        <v>0.8611403801573977</v>
       </c>
       <c r="FJ4">
-        <v>0.8816664748137863</v>
+        <v>0.8825555662525316</v>
       </c>
       <c r="FK4">
-        <v>0.9074334710608242</v>
+        <v>0.9086062915606012</v>
       </c>
       <c r="FL4">
-        <v>0.9092807604502269</v>
+        <v>0.9104009194725459</v>
       </c>
       <c r="FM4">
-        <v>0.9171936308331837</v>
+        <v>0.9183464305963711</v>
       </c>
       <c r="FN4">
-        <v>0.9328599355913814</v>
+        <v>0.9341544151392748</v>
       </c>
       <c r="FO4">
-        <v>0.9405948074657237</v>
+        <v>0.9419194245041522</v>
       </c>
       <c r="FP4">
-        <v>0.9456448503101291</v>
+        <v>0.946961847224064</v>
       </c>
       <c r="FQ4">
-        <v>0.9481235244300888</v>
+        <v>0.9493967392333057</v>
       </c>
       <c r="FR4">
-        <v>0.9484105458939798</v>
+        <v>0.9496091566695737</v>
       </c>
       <c r="FS4">
-        <v>0.9484364359192328</v>
+        <v>0.9496091566695737</v>
       </c>
       <c r="FT4">
-        <v>0.9554302184577088</v>
+        <v>0.9566226545206609</v>
       </c>
       <c r="FU4">
-        <v>0.9615674007547282</v>
+        <v>0.9627675054853133</v>
       </c>
       <c r="FV4">
-        <v>0.9621706829839252</v>
+        <v>0.9633006313638499</v>
       </c>
       <c r="FW4">
-        <v>0.965247788332847</v>
+        <v>0.9663423705330916</v>
       </c>
       <c r="FX4">
-        <v>0.9655405215170143</v>
+        <v>0.9665605800153971</v>
       </c>
       <c r="FY4">
-        <v>0.9656606833128297</v>
+        <v>0.9666037911823571</v>
       </c>
       <c r="FZ4">
-        <v>0.9691597452821729</v>
+        <v>0.970073421083822</v>
       </c>
       <c r="GA4">
-        <v>0.9770101516621067</v>
+        <v>0.9779555897532394</v>
       </c>
       <c r="GB4">
-        <v>0.9784105191298799</v>
+        <v>0.9792970105366841</v>
       </c>
       <c r="GC4">
-        <v>0.9792086512085069</v>
+        <v>0.9800277265008153</v>
       </c>
       <c r="GD4">
-        <v>0.9798811234710523</v>
+        <v>0.9806310154544152</v>
       </c>
       <c r="GE4">
-        <v>0.9804587644990082</v>
+        <v>0.9811381395312426</v>
       </c>
       <c r="GF4">
-        <v>0.9815158732501688</v>
+        <v>0.9821314742402308</v>
       </c>
       <c r="GG4">
-        <v>0.9815160339084366</v>
+        <v>0.9821314742402308</v>
       </c>
       <c r="GH4">
-        <v>0.9819943515315855</v>
+        <v>0.9825378780952324</v>
       </c>
       <c r="GI4">
-        <v>0.982047359074151</v>
+        <v>0.9825378780952324</v>
       </c>
       <c r="GJ4">
-        <v>0.9834039914398075</v>
+        <v>0.9838349487157388</v>
       </c>
       <c r="GK4">
-        <v>0.9837790819579606</v>
+        <v>0.984136673749733</v>
       </c>
       <c r="GL4">
-        <v>0.9869214251100397</v>
+        <v>0.9872445681823612</v>
       </c>
       <c r="GM4">
-        <v>0.9869561648187209</v>
+        <v>0.9872445681823612</v>
       </c>
       <c r="GN4">
-        <v>0.9875454660472411</v>
+        <v>0.9877635164409074</v>
       </c>
       <c r="GO4">
-        <v>0.9928981363062928</v>
+        <v>0.9931128225222284</v>
       </c>
       <c r="GP4">
-        <v>0.9941473125667488</v>
+        <v>0.9943009258477314</v>
       </c>
       <c r="GQ4">
-        <v>0.9950071409083617</v>
+        <v>0.995094205729258</v>
       </c>
       <c r="GR4">
-        <v>0.9998489284426884</v>
+        <v>0.9999254443776174</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.281186577133334E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.376356072694472E-05</v>
+        <v>1.886755987392484E-05</v>
       </c>
       <c r="D5">
-        <v>4.678406335036885E-05</v>
+        <v>2.325000751737867E-05</v>
       </c>
       <c r="E5">
-        <v>5.63534197061336E-05</v>
+        <v>2.41757627874004E-05</v>
       </c>
       <c r="F5">
-        <v>5.65133715353652E-05</v>
+        <v>2.41757627874004E-05</v>
       </c>
       <c r="G5">
-        <v>5.864341659196474E-05</v>
+        <v>2.41757627874004E-05</v>
       </c>
       <c r="H5">
-        <v>6.728850300995388E-05</v>
+        <v>2.41757627874004E-05</v>
       </c>
       <c r="I5">
-        <v>8.169458404009708E-05</v>
+        <v>2.994601550772983E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001296232808134061</v>
+        <v>6.929275591934598E-05</v>
       </c>
       <c r="K5">
-        <v>0.0002408925933224515</v>
+        <v>0.0001720819025233564</v>
       </c>
       <c r="L5">
-        <v>0.0002578230961826438</v>
+        <v>0.0001803806339027993</v>
       </c>
       <c r="M5">
-        <v>0.0002618229122133652</v>
+        <v>0.0001803806339027993</v>
       </c>
       <c r="N5">
-        <v>0.0003306016075829953</v>
+        <v>0.0002406108795455203</v>
       </c>
       <c r="O5">
-        <v>0.0005604597721083147</v>
+        <v>0.0004621794543586796</v>
       </c>
       <c r="P5">
-        <v>0.0005644595881390362</v>
+        <v>0.0004621794543586796</v>
       </c>
       <c r="Q5">
-        <v>0.0007010896689407253</v>
+        <v>0.0005903701248456563</v>
       </c>
       <c r="R5">
-        <v>0.0009691905508914404</v>
+        <v>0.0008502428743912701</v>
       </c>
       <c r="S5">
-        <v>0.001139617929417803</v>
+        <v>0.001012285155974037</v>
       </c>
       <c r="T5">
-        <v>0.001179815904711565</v>
+        <v>0.001043888751381949</v>
       </c>
       <c r="U5">
-        <v>0.001345937933527776</v>
+        <v>0.001201618764415712</v>
       </c>
       <c r="V5">
-        <v>0.001387112993755758</v>
+        <v>0.00123420101496553</v>
       </c>
       <c r="W5">
-        <v>0.001458382674957688</v>
+        <v>0.001296926249536865</v>
       </c>
       <c r="X5">
-        <v>0.001553830463531882</v>
+        <v>0.001383868446495717</v>
       </c>
       <c r="Y5">
-        <v>0.001554004390340173</v>
+        <v>0.001383868446495717</v>
       </c>
       <c r="Z5">
-        <v>0.00167971843187676</v>
+        <v>0.001501125535282792</v>
       </c>
       <c r="AA5">
-        <v>0.00225832355292348</v>
+        <v>0.00207200151446823</v>
       </c>
       <c r="AB5">
-        <v>0.002450629119976943</v>
+        <v>0.00225595714354798</v>
       </c>
       <c r="AC5">
-        <v>0.00245220469987087</v>
+        <v>0.00225595714354798</v>
       </c>
       <c r="AD5">
-        <v>0.002500665113608383</v>
+        <v>0.002295836455410482</v>
       </c>
       <c r="AE5">
-        <v>0.002607139651440226</v>
+        <v>0.002393823121976388</v>
       </c>
       <c r="AF5">
-        <v>0.002696453560427369</v>
+        <v>0.002474621582001572</v>
       </c>
       <c r="AG5">
-        <v>0.002735153892821956</v>
+        <v>0.002504725127748822</v>
       </c>
       <c r="AH5">
-        <v>0.002761444893051974</v>
+        <v>0.002522399399125806</v>
       </c>
       <c r="AI5">
-        <v>0.002781369282710609</v>
+        <v>0.002533696828578431</v>
       </c>
       <c r="AJ5">
-        <v>0.002781892611675377</v>
+        <v>0.002533696828578431</v>
       </c>
       <c r="AK5">
-        <v>0.002846707187311883</v>
+        <v>0.002589956584016992</v>
       </c>
       <c r="AL5">
-        <v>0.003175137465201058</v>
+        <v>0.002910255680828286</v>
       </c>
       <c r="AM5">
-        <v>0.003175218719409588</v>
+        <v>0.002910255680828286</v>
       </c>
       <c r="AN5">
-        <v>0.003205724481355856</v>
+        <v>0.002932151487182482</v>
       </c>
       <c r="AO5">
-        <v>0.003611841374014956</v>
+        <v>0.003330262043713528</v>
       </c>
       <c r="AP5">
-        <v>0.003913984083673882</v>
+        <v>0.003624231327306211</v>
       </c>
       <c r="AQ5">
-        <v>0.003972779059715643</v>
+        <v>0.003674461809455124</v>
       </c>
       <c r="AR5">
-        <v>0.00421202086360923</v>
+        <v>0.003905429103454221</v>
       </c>
       <c r="AS5">
-        <v>0.00439362459138317</v>
+        <v>0.004078665695046084</v>
       </c>
       <c r="AT5">
-        <v>0.004394204794944109</v>
+        <v>0.004078665695046084</v>
       </c>
       <c r="AU5">
-        <v>0.004448207501308499</v>
+        <v>0.004124096206182342</v>
       </c>
       <c r="AV5">
-        <v>0.004568077023238555</v>
+        <v>0.004235499383027292</v>
       </c>
       <c r="AW5">
-        <v>0.004569761457125154</v>
+        <v>0.004235499383027292</v>
       </c>
       <c r="AX5">
-        <v>0.004626742213289054</v>
+        <v>0.004283912729787219</v>
       </c>
       <c r="AY5">
-        <v>0.004639456838433071</v>
+        <v>0.004287988808396077</v>
       </c>
       <c r="AZ5">
-        <v>0.00465508351338104</v>
+        <v>0.004294981616568879</v>
       </c>
       <c r="BA5">
-        <v>0.004657442992822193</v>
+        <v>0.004294981616568879</v>
       </c>
       <c r="BB5">
-        <v>0.004906521996053513</v>
+        <v>0.004535801918609196</v>
       </c>
       <c r="BC5">
-        <v>0.00505400119612481</v>
+        <v>0.004674859143257941</v>
       </c>
       <c r="BD5">
-        <v>0.005055390361731287</v>
+        <v>0.004674859143257941</v>
       </c>
       <c r="BE5">
-        <v>0.00517684720855448</v>
+        <v>0.004787852195879436</v>
       </c>
       <c r="BF5">
-        <v>0.005600466980035238</v>
+        <v>0.005203493758935154</v>
       </c>
       <c r="BG5">
-        <v>0.005920466358492004</v>
+        <v>0.00551534840758084</v>
       </c>
       <c r="BH5">
-        <v>0.005953954984237459</v>
+        <v>0.005540231871294637</v>
       </c>
       <c r="BI5">
-        <v>0.006047912052912012</v>
+        <v>0.005625680952717847</v>
       </c>
       <c r="BJ5">
-        <v>0.006080520073716751</v>
+        <v>0.005649682396329772</v>
       </c>
       <c r="BK5">
-        <v>0.006144649959399352</v>
+        <v>0.005705256361495111</v>
       </c>
       <c r="BL5">
-        <v>0.006155693716655856</v>
+        <v>0.005707658887076704</v>
       </c>
       <c r="BM5">
-        <v>0.006157823761712455</v>
+        <v>0.005707658887076704</v>
       </c>
       <c r="BN5">
-        <v>0.00620904887826384</v>
+        <v>0.005750307344721602</v>
       </c>
       <c r="BO5">
-        <v>0.006277193843676135</v>
+        <v>0.005809902841982064</v>
       </c>
       <c r="BP5">
-        <v>0.00628293313188975</v>
+        <v>0.005809902841982064</v>
       </c>
       <c r="BQ5">
-        <v>0.006289826163125693</v>
+        <v>0.005809902841982064</v>
       </c>
       <c r="BR5">
-        <v>0.00628994207136789</v>
+        <v>0.005809902841982064</v>
       </c>
       <c r="BS5">
-        <v>0.006297734031843314</v>
+        <v>0.005809902841982064</v>
       </c>
       <c r="BT5">
-        <v>0.006417603553773369</v>
+        <v>0.005921306018827014</v>
       </c>
       <c r="BU5">
-        <v>0.007112259267007246</v>
+        <v>0.006608419087325298</v>
       </c>
       <c r="BV5">
-        <v>0.007338646971766206</v>
+        <v>0.006826511625228897</v>
       </c>
       <c r="BW5">
-        <v>0.007408062337092974</v>
+        <v>0.006887379563978356</v>
       </c>
       <c r="BX5">
-        <v>0.007590699684797328</v>
+        <v>0.007061651436561921</v>
       </c>
       <c r="BY5">
-        <v>0.008067570602693074</v>
+        <v>0.007530629722379621</v>
       </c>
       <c r="BZ5">
-        <v>0.0083240942454232</v>
+        <v>0.007778906627699731</v>
       </c>
       <c r="CA5">
-        <v>0.008345764719964285</v>
+        <v>0.007791952948050747</v>
       </c>
       <c r="CB5">
-        <v>0.008439805949633172</v>
+        <v>0.007877486325717784</v>
       </c>
       <c r="CC5">
-        <v>0.008909456588015006</v>
+        <v>0.008339232728794475</v>
       </c>
       <c r="CD5">
-        <v>0.008909491657424645</v>
+        <v>0.008339232728794475</v>
       </c>
       <c r="CE5">
-        <v>0.00909097840520646</v>
+        <v>0.008512352152403511</v>
       </c>
       <c r="CF5">
-        <v>0.009110186835913296</v>
+        <v>0.008522932472334708</v>
       </c>
       <c r="CG5">
-        <v>0.009130454576548817</v>
+        <v>0.008534573804540551</v>
       </c>
       <c r="CH5">
-        <v>0.009152802965044263</v>
+        <v>0.008548299128275991</v>
       </c>
       <c r="CI5">
-        <v>0.009555664417922528</v>
+        <v>0.008943149013427203</v>
       </c>
       <c r="CJ5">
-        <v>0.009949354761418217</v>
+        <v>0.00932881305092086</v>
       </c>
       <c r="CK5">
-        <v>0.0101733135263407</v>
+        <v>0.009544472745601627</v>
       </c>
       <c r="CL5">
-        <v>0.01037096644303417</v>
+        <v>0.009733784317688454</v>
       </c>
       <c r="CM5">
-        <v>0.02339106056648581</v>
+        <v>0.02276614318207184</v>
       </c>
       <c r="CN5">
-        <v>0.05067970072933989</v>
+        <v>0.05008997810951349</v>
       </c>
       <c r="CO5">
-        <v>0.1077752868855088</v>
+        <v>0.1072686597746659</v>
       </c>
       <c r="CP5">
-        <v>0.1867053615717202</v>
+        <v>0.1863169187124084</v>
       </c>
       <c r="CQ5">
-        <v>0.1873757794265858</v>
+        <v>0.1869797549715014</v>
       </c>
       <c r="CR5">
-        <v>0.1880336960322931</v>
+        <v>0.1876300698915166</v>
       </c>
       <c r="CS5">
-        <v>0.1893775045418242</v>
+        <v>0.1889673789662464</v>
       </c>
       <c r="CT5">
-        <v>0.1998136018392376</v>
+        <v>0.1994115884365454</v>
       </c>
       <c r="CU5">
-        <v>0.2073782237299666</v>
+        <v>0.2069797079445619</v>
       </c>
       <c r="CV5">
-        <v>0.2278753263500455</v>
+        <v>0.2275010911046056</v>
       </c>
       <c r="CW5">
-        <v>0.2702234834990517</v>
+        <v>0.2699086441582303</v>
       </c>
       <c r="CX5">
-        <v>0.326803769689912</v>
+        <v>0.32657119775405</v>
       </c>
       <c r="CY5">
-        <v>0.3403892077753032</v>
+        <v>0.3401698091067487</v>
       </c>
       <c r="CZ5">
-        <v>0.3526007374531896</v>
+        <v>0.3523923041358594</v>
       </c>
       <c r="DA5">
-        <v>0.3580913828835443</v>
+        <v>0.3578831142349891</v>
       </c>
       <c r="DB5">
-        <v>0.381040944338517</v>
+        <v>0.3808608974120866</v>
       </c>
       <c r="DC5">
-        <v>0.4570153592237116</v>
+        <v>0.4569487467061185</v>
       </c>
       <c r="DD5">
-        <v>0.457468557893201</v>
+        <v>0.4573940147014466</v>
       </c>
       <c r="DE5">
-        <v>0.49791048217054</v>
+        <v>0.4978922715043661</v>
       </c>
       <c r="DF5">
-        <v>0.4982387551084398</v>
+        <v>0.4982124130083375</v>
       </c>
       <c r="DG5">
-        <v>0.523575719402686</v>
+        <v>0.5235814356597397</v>
       </c>
       <c r="DH5">
-        <v>0.5259012196461269</v>
+        <v>0.5259020140793439</v>
       </c>
       <c r="DI5">
-        <v>0.5393057407436979</v>
+        <v>0.5393194177046615</v>
       </c>
       <c r="DJ5">
-        <v>0.5402097480328376</v>
+        <v>0.5402162187839467</v>
       </c>
       <c r="DK5">
-        <v>0.5687337001125271</v>
+        <v>0.5687773508151795</v>
       </c>
       <c r="DL5">
-        <v>0.5776651625112367</v>
+        <v>0.5777145073889125</v>
       </c>
       <c r="DM5">
-        <v>0.5830279191502012</v>
+        <v>0.5830772231751502</v>
       </c>
       <c r="DN5">
-        <v>0.5941693164001319</v>
+        <v>0.594227866038231</v>
       </c>
       <c r="DO5">
-        <v>0.5954040595170056</v>
+        <v>0.5954559344486234</v>
       </c>
       <c r="DP5">
-        <v>0.5960944556705262</v>
+        <v>0.5961387811121557</v>
       </c>
       <c r="DQ5">
-        <v>0.5961227469616216</v>
+        <v>0.5961584588889314</v>
       </c>
       <c r="DR5">
-        <v>0.6002124006862949</v>
+        <v>0.6002460258425439</v>
       </c>
       <c r="DS5">
-        <v>0.6002277260532631</v>
+        <v>0.6002527168585252</v>
       </c>
       <c r="DT5">
-        <v>0.6057234052832789</v>
+        <v>0.6057485688467981</v>
       </c>
       <c r="DU5">
-        <v>0.6072109316831346</v>
+        <v>0.6072298267712378</v>
       </c>
       <c r="DV5">
-        <v>0.6091198984546177</v>
+        <v>0.6091332023358694</v>
       </c>
       <c r="DW5">
-        <v>0.6214956116214508</v>
+        <v>0.6215201447022036</v>
       </c>
       <c r="DX5">
-        <v>0.6225458329507471</v>
+        <v>0.6225633947924257</v>
       </c>
       <c r="DY5">
-        <v>0.6275712869124197</v>
+        <v>0.6275882658448545</v>
       </c>
       <c r="DZ5">
-        <v>0.6341199864715433</v>
+        <v>0.6341388304006026</v>
       </c>
       <c r="EA5">
-        <v>0.6437272978247528</v>
+        <v>0.6437529220403756</v>
       </c>
       <c r="EB5">
-        <v>0.6558955870055503</v>
+        <v>0.6559321070834937</v>
       </c>
       <c r="EC5">
-        <v>0.6571661665200114</v>
+        <v>0.6571960694817454</v>
       </c>
       <c r="ED5">
-        <v>0.6594532415660392</v>
+        <v>0.6594781609533781</v>
       </c>
       <c r="EE5">
-        <v>0.6601625487782867</v>
+        <v>0.6601799490663317</v>
       </c>
       <c r="EF5">
-        <v>0.661481206589511</v>
+        <v>0.6614920670247537</v>
       </c>
       <c r="EG5">
-        <v>0.6629309085919132</v>
+        <v>0.6629354397666869</v>
       </c>
       <c r="EH5">
-        <v>0.6647321229706505</v>
+        <v>0.6647308897769268</v>
       </c>
       <c r="EI5">
-        <v>0.6648933457397966</v>
+        <v>0.6648837126570187</v>
       </c>
       <c r="EJ5">
-        <v>0.6655236225573646</v>
+        <v>0.6655063433708445</v>
       </c>
       <c r="EK5">
-        <v>0.6754166558913386</v>
+        <v>0.67540661615602</v>
       </c>
       <c r="EL5">
-        <v>0.6982709393527257</v>
+        <v>0.6982889682246566</v>
       </c>
       <c r="EM5">
-        <v>0.7091657906192544</v>
+        <v>0.7091926688968161</v>
       </c>
       <c r="EN5">
-        <v>0.7128698735698854</v>
+        <v>0.7128940454514473</v>
       </c>
       <c r="EO5">
-        <v>0.7149778683279694</v>
+        <v>0.7149967688472125</v>
       </c>
       <c r="EP5">
-        <v>0.7166650091143865</v>
+        <v>0.7166779619451105</v>
       </c>
       <c r="EQ5">
-        <v>0.7171797686797314</v>
+        <v>0.7171848897666824</v>
       </c>
       <c r="ER5">
-        <v>0.7171804641741846</v>
+        <v>0.7171848897666824</v>
       </c>
       <c r="ES5">
-        <v>0.7213604098927792</v>
+        <v>0.7213628938164257</v>
       </c>
       <c r="ET5">
-        <v>0.7220719898848736</v>
+        <v>0.7220669583616585</v>
       </c>
       <c r="EU5">
-        <v>0.7300415873483386</v>
+        <v>0.7300407042515009</v>
       </c>
       <c r="EV5">
-        <v>0.7460655632695606</v>
+        <v>0.7460817722506863</v>
       </c>
       <c r="EW5">
-        <v>0.7486654608945285</v>
+        <v>0.7486771890174513</v>
       </c>
       <c r="EX5">
-        <v>0.7521546886596241</v>
+        <v>0.7521633651071841</v>
       </c>
       <c r="EY5">
-        <v>0.7856375964054632</v>
+        <v>0.7856914220097272</v>
       </c>
       <c r="EZ5">
-        <v>0.8327002532370763</v>
+        <v>0.8328210511022989</v>
       </c>
       <c r="FA5">
-        <v>0.8341370168403495</v>
+        <v>0.8342514646526693</v>
       </c>
       <c r="FB5">
-        <v>0.8426026242704217</v>
+        <v>0.8427220176134796</v>
       </c>
       <c r="FC5">
-        <v>0.8427216566824081</v>
+        <v>0.8428325823351177</v>
       </c>
       <c r="FD5">
-        <v>0.8442279509810002</v>
+        <v>0.8443326383189257</v>
       </c>
       <c r="FE5">
-        <v>0.8475038886604551</v>
+        <v>0.8476051815588219</v>
       </c>
       <c r="FF5">
-        <v>0.8614668617204295</v>
+        <v>0.8615819345972484</v>
       </c>
       <c r="FG5">
-        <v>0.8621289367758568</v>
+        <v>0.8622364146497494</v>
       </c>
       <c r="FH5">
-        <v>0.864273024231511</v>
+        <v>0.8643752887452391</v>
       </c>
       <c r="FI5">
-        <v>0.8663529800914826</v>
+        <v>0.8664499281834587</v>
       </c>
       <c r="FJ5">
-        <v>0.893793660244101</v>
+        <v>0.8939260474339381</v>
       </c>
       <c r="FK5">
-        <v>0.9159927067496004</v>
+        <v>0.9161521095593078</v>
       </c>
       <c r="FL5">
-        <v>0.9165275500135933</v>
+        <v>0.9166791533546931</v>
       </c>
       <c r="FM5">
-        <v>0.924567959472291</v>
+        <v>0.9247238250369779</v>
       </c>
       <c r="FN5">
-        <v>0.9340157828362377</v>
+        <v>0.934178172385034</v>
       </c>
       <c r="FO5">
-        <v>0.9368757266436984</v>
+        <v>0.9370340532370761</v>
       </c>
       <c r="FP5">
-        <v>0.9380807409625735</v>
+        <v>0.9382323450743121</v>
       </c>
       <c r="FQ5">
-        <v>0.938106208558859</v>
+        <v>0.9382491946185072</v>
       </c>
       <c r="FR5">
-        <v>0.9423674262719821</v>
+        <v>0.9425086012695523</v>
       </c>
       <c r="FS5">
-        <v>0.9426821226507959</v>
+        <v>0.9428151443964597</v>
       </c>
       <c r="FT5">
-        <v>0.9502179047434665</v>
+        <v>0.9503543777599121</v>
       </c>
       <c r="FU5">
-        <v>0.9520252574217906</v>
+        <v>0.9521559759341885</v>
       </c>
       <c r="FV5">
-        <v>0.9555331191856317</v>
+        <v>0.9556608159681169</v>
       </c>
       <c r="FW5">
-        <v>0.9586460134760632</v>
+        <v>0.958770053802891</v>
       </c>
       <c r="FX5">
-        <v>0.9590504137388378</v>
+        <v>0.9591664449708569</v>
       </c>
       <c r="FY5">
-        <v>0.9592768014435967</v>
+        <v>0.9593845375087605</v>
       </c>
       <c r="FZ5">
-        <v>0.9647731236735693</v>
+        <v>0.9648810335303122</v>
       </c>
       <c r="GA5">
-        <v>0.971870744195738</v>
+        <v>0.9719814011831809</v>
       </c>
       <c r="GB5">
-        <v>0.9725433718504549</v>
+        <v>0.9726464507933462</v>
       </c>
       <c r="GC5">
-        <v>0.9739685460545083</v>
+        <v>0.9740652563199504</v>
       </c>
       <c r="GD5">
-        <v>0.9744655055210517</v>
+        <v>0.9745543554373753</v>
       </c>
       <c r="GE5">
-        <v>0.9750424782822084</v>
+        <v>0.9751235964334145</v>
       </c>
       <c r="GF5">
-        <v>0.9751931807920626</v>
+        <v>0.9752658821478113</v>
       </c>
       <c r="GG5">
-        <v>0.9760301599857149</v>
+        <v>0.9760955474152507</v>
       </c>
       <c r="GH5">
-        <v>0.9777200915719441</v>
+        <v>0.9777795357978681</v>
       </c>
       <c r="GI5">
-        <v>0.977828152634669</v>
+        <v>0.977879111538925</v>
       </c>
       <c r="GJ5">
-        <v>0.977837987594007</v>
+        <v>0.9778803033240099</v>
       </c>
       <c r="GK5">
-        <v>0.9804810220160707</v>
+        <v>0.9805189262101252</v>
       </c>
       <c r="GL5">
-        <v>0.9836492292027783</v>
+        <v>0.9836835658308224</v>
       </c>
       <c r="GM5">
-        <v>0.9839719747110502</v>
+        <v>0.9839981710224043</v>
       </c>
       <c r="GN5">
-        <v>0.9878198512520007</v>
+        <v>0.9878435722483927</v>
       </c>
       <c r="GO5">
-        <v>0.9950008697685548</v>
+        <v>0.9950274719189719</v>
       </c>
       <c r="GP5">
-        <v>0.9958541775111078</v>
+        <v>0.9958734919758282</v>
       </c>
       <c r="GQ5">
-        <v>0.9967077387536437</v>
+        <v>0.9967197659400503</v>
       </c>
       <c r="GR5">
-        <v>0.9999880615328034</v>
+        <v>0.9999967013266511</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.386946744354386E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.793951725939214E-05</v>
+        <v>5.49307818949229E-05</v>
       </c>
       <c r="D6">
-        <v>0.0002272997985715134</v>
+        <v>0.0002068034743831483</v>
       </c>
       <c r="E6">
-        <v>0.0002390545056682979</v>
+        <v>0.0002108659742654419</v>
       </c>
       <c r="F6">
-        <v>0.0002430109864008743</v>
+        <v>0.0002108659742654419</v>
       </c>
       <c r="G6">
-        <v>0.0002507088174642557</v>
+        <v>0.0002108659742654419</v>
       </c>
       <c r="H6">
-        <v>0.0002546652981968321</v>
+        <v>0.0002108659742654419</v>
       </c>
       <c r="I6">
-        <v>0.0002663892332933633</v>
+        <v>0.0002148976594897628</v>
       </c>
       <c r="J6">
-        <v>0.000284317882440982</v>
+        <v>0.0002251426600568906</v>
       </c>
       <c r="K6">
-        <v>0.0003022465315886008</v>
+        <v>0.0002353876606240185</v>
       </c>
       <c r="L6">
-        <v>0.0004015316964060829</v>
+        <v>0.0003271019574208855</v>
       </c>
       <c r="M6">
-        <v>0.0004677718109514827</v>
+        <v>0.0003857253952081631</v>
       </c>
       <c r="N6">
-        <v>0.000481226471062264</v>
+        <v>0.0003914902046662004</v>
       </c>
       <c r="O6">
-        <v>0.0004812345887423309</v>
+        <v>0.0003914902046662004</v>
       </c>
       <c r="P6">
-        <v>0.00048140451899373</v>
+        <v>0.0003914902046662004</v>
       </c>
       <c r="Q6">
-        <v>0.0004815955055253025</v>
+        <v>0.0003914902046662004</v>
       </c>
       <c r="R6">
-        <v>0.0005398308410047935</v>
+        <v>0.0004420977667537311</v>
       </c>
       <c r="S6">
-        <v>0.0006354543357921266</v>
+        <v>0.0005301453175263178</v>
       </c>
       <c r="T6">
-        <v>0.0006369486617044303</v>
+        <v>0.0005301453175263178</v>
       </c>
       <c r="U6">
-        <v>0.0006371185919558295</v>
+        <v>0.0005301453175263178</v>
       </c>
       <c r="V6">
-        <v>0.0006500766440625219</v>
+        <v>0.000535412830556871</v>
       </c>
       <c r="W6">
-        <v>0.0006600651781447643</v>
+        <v>0.0005377067090653266</v>
       </c>
       <c r="X6">
-        <v>0.000661559504057068</v>
+        <v>0.0005377067090653266</v>
       </c>
       <c r="Y6">
-        <v>0.0006653037752878972</v>
+        <v>0.0005377067090653266</v>
       </c>
       <c r="Z6">
-        <v>0.0006877886214730301</v>
+        <v>0.0005525142227031538</v>
       </c>
       <c r="AA6">
-        <v>0.0007580606220516272</v>
+        <v>0.0006151751357301038</v>
       </c>
       <c r="AB6">
-        <v>0.0008470195587840865</v>
+        <v>0.0006965488896968382</v>
       </c>
       <c r="AC6">
-        <v>0.001007120050102302</v>
+        <v>0.0008491628183080982</v>
       </c>
       <c r="AD6">
-        <v>0.001007140836994473</v>
+        <v>0.0008491628183080982</v>
       </c>
       <c r="AE6">
-        <v>0.001007925915700937</v>
+        <v>0.0008491628183080982</v>
       </c>
       <c r="AF6">
-        <v>0.001046861151021518</v>
+        <v>0.0008804435254515156</v>
       </c>
       <c r="AG6">
-        <v>0.001193663522230241</v>
+        <v>0.001019740899419566</v>
       </c>
       <c r="AH6">
-        <v>0.001291873913038874</v>
+        <v>0.001110378932300924</v>
       </c>
       <c r="AI6">
-        <v>0.001309022619180071</v>
+        <v>0.001119842908664775</v>
       </c>
       <c r="AJ6">
-        <v>0.00131922578126408</v>
+        <v>0.001122351712703303</v>
       </c>
       <c r="AK6">
-        <v>0.001335892839401311</v>
+        <v>0.001131333373378109</v>
       </c>
       <c r="AL6">
-        <v>0.001370451211685854</v>
+        <v>0.001158231150054261</v>
       </c>
       <c r="AM6">
-        <v>0.001415453308056387</v>
+        <v>0.001195587128440475</v>
       </c>
       <c r="AN6">
-        <v>0.001417327052571814</v>
+        <v>0.001195587128440475</v>
       </c>
       <c r="AO6">
-        <v>0.001431467682688244</v>
+        <v>0.00120203885883084</v>
       </c>
       <c r="AP6">
-        <v>0.001515345513378867</v>
+        <v>0.001278324463066865</v>
       </c>
       <c r="AQ6">
-        <v>0.001555384839708538</v>
+        <v>0.001310710791766756</v>
       </c>
       <c r="AR6">
-        <v>0.001573562337858206</v>
+        <v>0.001321204986303137</v>
       </c>
       <c r="AS6">
-        <v>0.001585286272954737</v>
+        <v>0.001325236671527458</v>
       </c>
       <c r="AT6">
-        <v>0.001588681700982694</v>
+        <v>0.001325236671527458</v>
       </c>
       <c r="AU6">
-        <v>0.001759463062388852</v>
+        <v>0.00148854627659464</v>
       </c>
       <c r="AV6">
-        <v>0.001927955963776169</v>
+        <v>0.001649564249262746</v>
       </c>
       <c r="AW6">
-        <v>0.001931682877806855</v>
+        <v>0.001649564249262746</v>
       </c>
       <c r="AX6">
-        <v>0.002001954878385452</v>
+        <v>0.001712225162289696</v>
       </c>
       <c r="AY6">
-        <v>0.002186260769902967</v>
+        <v>0.001889078045863067</v>
       </c>
       <c r="AZ6">
-        <v>0.002226987408238297</v>
+        <v>0.001922152639355646</v>
       </c>
       <c r="BA6">
-        <v>0.002234523599300348</v>
+        <v>0.001922152639355646</v>
       </c>
       <c r="BB6">
-        <v>0.002234536799530456</v>
+        <v>0.001922152639355646</v>
       </c>
       <c r="BC6">
-        <v>0.002250458393661549</v>
+        <v>0.001930387802624011</v>
       </c>
       <c r="BD6">
-        <v>0.002286705643959998</v>
+        <v>0.001958976798523084</v>
       </c>
       <c r="BE6">
-        <v>0.002289888656986206</v>
+        <v>0.001958976798523084</v>
       </c>
       <c r="BF6">
-        <v>0.00230933613714633</v>
+        <v>0.00197074273558389</v>
       </c>
       <c r="BG6">
-        <v>0.002330096474317264</v>
+        <v>0.001983823349604989</v>
       </c>
       <c r="BH6">
-        <v>0.002330483965130455</v>
+        <v>0.001983823349604989</v>
       </c>
       <c r="BI6">
-        <v>0.002342008218225341</v>
+        <v>0.001987655076018269</v>
       </c>
       <c r="BJ6">
-        <v>0.002373377476483626</v>
+        <v>0.002011359317755316</v>
       </c>
       <c r="BK6">
-        <v>0.002373700565466286</v>
+        <v>0.002011359317755316</v>
       </c>
       <c r="BL6">
-        <v>0.002435330125973724</v>
+        <v>0.002065365810118994</v>
       </c>
       <c r="BM6">
-        <v>0.002446295339064008</v>
+        <v>0.002068637721557848</v>
       </c>
       <c r="BN6">
-        <v>0.002505497079551456</v>
+        <v>0.002120213028333347</v>
       </c>
       <c r="BO6">
-        <v>0.002539370274830357</v>
+        <v>0.002146424678176476</v>
       </c>
       <c r="BP6">
-        <v>0.002584766131204132</v>
+        <v>0.002184174962416172</v>
       </c>
       <c r="BQ6">
-        <v>0.002779678912808981</v>
+        <v>0.002371649439889998</v>
       </c>
       <c r="BR6">
-        <v>0.002994423894577122</v>
+        <v>0.002578983609936539</v>
       </c>
       <c r="BS6">
-        <v>0.003036337674922227</v>
+        <v>0.002613246991115817</v>
       </c>
       <c r="BT6">
-        <v>0.003041610142965639</v>
+        <v>0.002613246991115817</v>
       </c>
       <c r="BU6">
-        <v>0.003051018718043106</v>
+        <v>0.002614960106650685</v>
       </c>
       <c r="BV6">
-        <v>0.003070505823203556</v>
+        <v>0.002626765723642017</v>
       </c>
       <c r="BW6">
-        <v>0.003075644664245868</v>
+        <v>0.002626765723642017</v>
       </c>
       <c r="BX6">
-        <v>0.003077753580263232</v>
+        <v>0.002626765723642017</v>
       </c>
       <c r="BY6">
-        <v>0.003091674826377855</v>
+        <v>0.00263299776590926</v>
       </c>
       <c r="BZ6">
-        <v>0.003101263910456809</v>
+        <v>0.002634891640676418</v>
       </c>
       <c r="CA6">
-        <v>0.003146205787826846</v>
+        <v>0.00267218731658348</v>
       </c>
       <c r="CB6">
-        <v>0.003237302348576906</v>
+        <v>0.002755701657851475</v>
       </c>
       <c r="CC6">
-        <v>0.003238450491286359</v>
+        <v>0.002755701657851475</v>
       </c>
       <c r="CD6">
-        <v>0.003239536734395303</v>
+        <v>0.002755701657851475</v>
       </c>
       <c r="CE6">
-        <v>0.00329253216183165</v>
+        <v>0.002801062048067539</v>
       </c>
       <c r="CF6">
-        <v>0.003441361573057064</v>
+        <v>0.002942389272038745</v>
       </c>
       <c r="CG6">
-        <v>0.003533579577816357</v>
+        <v>0.003027026611918972</v>
       </c>
       <c r="CH6">
-        <v>0.003581446910210482</v>
+        <v>0.003067251798265386</v>
       </c>
       <c r="CI6">
-        <v>0.003789814331926112</v>
+        <v>0.003268199567359736</v>
       </c>
       <c r="CJ6">
-        <v>0.003972533393430562</v>
+        <v>0.00344346342117518</v>
       </c>
       <c r="CK6">
-        <v>0.004015533523784611</v>
+        <v>0.003478814658317305</v>
       </c>
       <c r="CL6">
-        <v>0.00401831228820749</v>
+        <v>0.003478814658317305</v>
       </c>
       <c r="CM6">
-        <v>0.01748855639911714</v>
+        <v>0.01696002340784155</v>
       </c>
       <c r="CN6">
-        <v>0.07385477286321843</v>
+        <v>0.07339666909970033</v>
       </c>
       <c r="CO6">
-        <v>0.1350839053673594</v>
+        <v>0.1347029720543406</v>
       </c>
       <c r="CP6">
-        <v>0.2373915362097275</v>
+        <v>0.2371447184609864</v>
       </c>
       <c r="CQ6">
-        <v>0.2385546366193041</v>
+        <v>0.2383017227176026</v>
       </c>
       <c r="CR6">
-        <v>0.2406997926369666</v>
+        <v>0.2404421439579782</v>
       </c>
       <c r="CS6">
-        <v>0.240963385219137</v>
+        <v>0.2406983934434671</v>
       </c>
       <c r="CT6">
-        <v>0.2468587549676776</v>
+        <v>0.2465942271526551</v>
       </c>
       <c r="CU6">
-        <v>0.2477906096253502</v>
+        <v>0.2475196650926879</v>
       </c>
       <c r="CV6">
-        <v>0.2725272028290233</v>
+        <v>0.2722828409238727</v>
       </c>
       <c r="CW6">
-        <v>0.2917021589869037</v>
+        <v>0.2914766698837556</v>
       </c>
       <c r="CX6">
-        <v>0.3489478014582459</v>
+        <v>0.3487939606881311</v>
       </c>
       <c r="CY6">
-        <v>0.3587832985392282</v>
+        <v>0.3586353837356355</v>
       </c>
       <c r="CZ6">
-        <v>0.3604791985531917</v>
+        <v>0.3603259261906798</v>
       </c>
       <c r="DA6">
-        <v>0.3614311490010297</v>
+        <v>0.3612714877786894</v>
       </c>
       <c r="DB6">
-        <v>0.3937235112669147</v>
+        <v>0.3936009068653096</v>
       </c>
       <c r="DC6">
-        <v>0.4841227320112328</v>
+        <v>0.4841177351272293</v>
       </c>
       <c r="DD6">
-        <v>0.4841852845817478</v>
+        <v>0.4841726659091242</v>
       </c>
       <c r="DE6">
-        <v>0.519773168874767</v>
+        <v>0.5198021754439356</v>
       </c>
       <c r="DF6">
-        <v>0.5228410775000272</v>
+        <v>0.5228666284587322</v>
       </c>
       <c r="DG6">
-        <v>0.556850167780047</v>
+        <v>0.5569151553755968</v>
       </c>
       <c r="DH6">
-        <v>0.5589342774972069</v>
+        <v>0.5589944456899681</v>
       </c>
       <c r="DI6">
-        <v>0.5702401785902961</v>
+        <v>0.5703083110987683</v>
       </c>
       <c r="DJ6">
-        <v>0.5730685694135841</v>
+        <v>0.5731329142797749</v>
       </c>
       <c r="DK6">
-        <v>0.5964457016060639</v>
+        <v>0.5965347445454352</v>
       </c>
       <c r="DL6">
-        <v>0.6022685343540073</v>
+        <v>0.6023579406995286</v>
       </c>
       <c r="DM6">
-        <v>0.6097025304152164</v>
+        <v>0.6097945336438138</v>
       </c>
       <c r="DN6">
-        <v>0.6238611055317935</v>
+        <v>0.6239650275986238</v>
       </c>
       <c r="DO6">
-        <v>0.6260865706501173</v>
+        <v>0.6261858692682404</v>
       </c>
       <c r="DP6">
-        <v>0.6265191857936793</v>
+        <v>0.6266113756228336</v>
       </c>
       <c r="DQ6">
-        <v>0.6277926486041645</v>
+        <v>0.627878895270359</v>
       </c>
       <c r="DR6">
-        <v>0.6356067546685034</v>
+        <v>0.6356961251456863</v>
       </c>
       <c r="DS6">
-        <v>0.638278055390498</v>
+        <v>0.6383634204590726</v>
       </c>
       <c r="DT6">
-        <v>0.6390108804965319</v>
+        <v>0.6390895529425303</v>
       </c>
       <c r="DU6">
-        <v>0.639270683198671</v>
+        <v>0.6393420072942626</v>
       </c>
       <c r="DV6">
-        <v>0.6446602412430469</v>
+        <v>0.6447313281172513</v>
       </c>
       <c r="DW6">
-        <v>0.6680180914353679</v>
+        <v>0.6681138496530588</v>
       </c>
       <c r="DX6">
-        <v>0.6713866549631036</v>
+        <v>0.6714793743535221</v>
       </c>
       <c r="DY6">
-        <v>0.6759353610005562</v>
+        <v>0.6760266775375625</v>
       </c>
       <c r="DZ6">
-        <v>0.6802347726359561</v>
+        <v>0.6803243407349095</v>
       </c>
       <c r="EA6">
-        <v>0.6856120976802312</v>
+        <v>0.6857014115997876</v>
       </c>
       <c r="EB6">
-        <v>0.6974332807775631</v>
+        <v>0.6975312733230791</v>
       </c>
       <c r="EC6">
-        <v>0.6995455237949546</v>
+        <v>0.6996387359375006</v>
       </c>
       <c r="ED6">
-        <v>0.7025939992200547</v>
+        <v>0.702683728812842</v>
       </c>
       <c r="EE6">
-        <v>0.7046874419372915</v>
+        <v>0.7047723650651719</v>
       </c>
       <c r="EF6">
-        <v>0.7050016014598782</v>
+        <v>0.7050792515895542</v>
       </c>
       <c r="EG6">
-        <v>0.7050026877029871</v>
+        <v>0.7050792515895542</v>
       </c>
       <c r="EH6">
-        <v>0.7055308000473355</v>
+        <v>0.705600387528034</v>
       </c>
       <c r="EI6">
-        <v>0.7069134203587195</v>
+        <v>0.7069772159961645</v>
       </c>
       <c r="EJ6">
-        <v>0.7069370734729142</v>
+        <v>0.7069931933973247</v>
       </c>
       <c r="EK6">
-        <v>0.7089356274893697</v>
+        <v>0.7089868094093068</v>
       </c>
       <c r="EL6">
-        <v>0.7175275205601126</v>
+        <v>0.7175829044991365</v>
       </c>
       <c r="EM6">
-        <v>0.722144342598126</v>
+        <v>0.7221984181096188</v>
       </c>
       <c r="EN6">
-        <v>0.72280431293356</v>
+        <v>0.7228515948274704</v>
       </c>
       <c r="EO6">
-        <v>0.7228237604137201</v>
+        <v>0.7228633607645312</v>
       </c>
       <c r="EP6">
-        <v>0.7228500005789361</v>
+        <v>0.7228819288030151</v>
       </c>
       <c r="EQ6">
-        <v>0.7241822726899056</v>
+        <v>0.7242083392754824</v>
       </c>
       <c r="ER6">
-        <v>0.7242799035107095</v>
+        <v>0.7242983969349295</v>
       </c>
       <c r="ES6">
-        <v>0.7282856527436915</v>
+        <v>0.7283019906400283</v>
       </c>
       <c r="ET6">
-        <v>0.7300860232585151</v>
+        <v>0.7300971484182802</v>
       </c>
       <c r="EU6">
-        <v>0.7349385309984691</v>
+        <v>0.7349486744502682</v>
       </c>
       <c r="EV6">
-        <v>0.7463160820921482</v>
+        <v>0.746334289184551</v>
       </c>
       <c r="EW6">
-        <v>0.7467685988958741</v>
+        <v>0.7467797247880066</v>
       </c>
       <c r="EX6">
-        <v>0.7469154012670828</v>
+        <v>0.7469190221619746</v>
       </c>
       <c r="EY6">
-        <v>0.7618162823897718</v>
+        <v>0.761832851145419</v>
       </c>
       <c r="EZ6">
-        <v>0.7895298736179567</v>
+        <v>0.7895771518679212</v>
       </c>
       <c r="FA6">
-        <v>0.7895728737483108</v>
+        <v>0.7896125031050634</v>
       </c>
       <c r="FB6">
-        <v>0.8076738298973483</v>
+        <v>0.8077308432224025</v>
       </c>
       <c r="FC6">
-        <v>0.8107813781229348</v>
+        <v>0.8108349907879654</v>
       </c>
       <c r="FD6">
-        <v>0.8107825359086444</v>
+        <v>0.8108349907879654</v>
       </c>
       <c r="FE6">
-        <v>0.8184643219718937</v>
+        <v>0.8185197172334553</v>
       </c>
       <c r="FF6">
-        <v>0.8387970831393071</v>
+        <v>0.8388729562113468</v>
       </c>
       <c r="FG6">
-        <v>0.8402063562509107</v>
+        <v>0.8402764744271706</v>
       </c>
       <c r="FH6">
-        <v>0.8414216022609167</v>
+        <v>0.8414856965711125</v>
       </c>
       <c r="FI6">
-        <v>0.8447867675886244</v>
+        <v>0.8448478183607894</v>
       </c>
       <c r="FJ6">
-        <v>0.8704422737998636</v>
+        <v>0.8705311810437139</v>
       </c>
       <c r="FK6">
-        <v>0.8906222139660187</v>
+        <v>0.890731387172065</v>
       </c>
       <c r="FL6">
-        <v>0.8906800032084945</v>
+        <v>0.890781548022752</v>
       </c>
       <c r="FM6">
-        <v>0.905507099330576</v>
+        <v>0.9056214897210501</v>
       </c>
       <c r="FN6">
-        <v>0.9248404224897604</v>
+        <v>0.9249739052186677</v>
       </c>
       <c r="FO6">
-        <v>0.9342251625670314</v>
+        <v>0.9343639464000656</v>
       </c>
       <c r="FP6">
-        <v>0.9399397519140834</v>
+        <v>0.9400787491007335</v>
       </c>
       <c r="FQ6">
-        <v>0.942825536237844</v>
+        <v>0.9429608253440162</v>
       </c>
       <c r="FR6">
-        <v>0.9428511797980552</v>
+        <v>0.9429787959504508</v>
       </c>
       <c r="FS6">
-        <v>0.9433427106021023</v>
+        <v>0.9434632996374287</v>
       </c>
       <c r="FT6">
-        <v>0.9551638936994341</v>
+        <v>0.9552931613607202</v>
       </c>
       <c r="FU6">
-        <v>0.9603454703420975</v>
+        <v>0.9604742124675482</v>
       </c>
       <c r="FV6">
-        <v>0.9609252805868714</v>
+        <v>0.9610471179727254</v>
       </c>
       <c r="FW6">
-        <v>0.9624888016997449</v>
+        <v>0.9626050980162816</v>
       </c>
       <c r="FX6">
-        <v>0.9631094823048554</v>
+        <v>0.9632189305383775</v>
       </c>
       <c r="FY6">
-        <v>0.9632575980560749</v>
+        <v>0.9633595431130308</v>
       </c>
       <c r="FZ6">
-        <v>0.9687479505012807</v>
+        <v>0.9688497980631992</v>
       </c>
       <c r="GA6">
-        <v>0.977646550574549</v>
+        <v>0.9777530253284759</v>
       </c>
       <c r="GB6">
-        <v>0.9790397461860201</v>
+        <v>0.9791404437567148</v>
       </c>
       <c r="GC6">
-        <v>0.9797186378916098</v>
+        <v>0.9798125680744926</v>
       </c>
       <c r="GD6">
-        <v>0.9797282269756888</v>
+        <v>0.9798144619492597</v>
       </c>
       <c r="GE6">
-        <v>0.9821821518958936</v>
+        <v>0.9822640801234105</v>
       </c>
       <c r="GF6">
-        <v>0.9841407599120202</v>
+        <v>0.9842176947598765</v>
       </c>
       <c r="GG6">
-        <v>0.9843250658035377</v>
+        <v>0.9843945476434499</v>
       </c>
       <c r="GH6">
-        <v>0.9843324420679984</v>
+        <v>0.9843945476434499</v>
       </c>
       <c r="GI6">
-        <v>0.98438487052843</v>
+        <v>0.9844393402807027</v>
       </c>
       <c r="GJ6">
-        <v>0.9854623844373019</v>
+        <v>0.9855106393922329</v>
       </c>
       <c r="GK6">
-        <v>0.986104155682586</v>
+        <v>0.9861455917914258</v>
       </c>
       <c r="GL6">
-        <v>0.9880865609989085</v>
+        <v>0.9881230367171215</v>
       </c>
       <c r="GM6">
-        <v>0.9880932913919639</v>
+        <v>0.9881230367171215</v>
       </c>
       <c r="GN6">
-        <v>0.989571142604132</v>
+        <v>0.9895952280999777</v>
       </c>
       <c r="GO6">
-        <v>0.9951463878500368</v>
+        <v>0.9951704935335839</v>
       </c>
       <c r="GP6">
-        <v>0.9956994641845907</v>
+        <v>0.9957166280686284</v>
       </c>
       <c r="GQ6">
-        <v>0.9967943504936055</v>
+        <v>0.9968053236628106</v>
       </c>
       <c r="GR6">
-        <v>0.9996191499168641</v>
+        <v>0.9996263304652053</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.002765405891476024</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="F2">
-        <v>0.5140650887277203</v>
+        <v>0.51654470026164</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>109</v>
       </c>
       <c r="E3">
-        <v>0.01635860265877747</v>
+        <v>0.01617774582967602</v>
       </c>
       <c r="F3">
-        <v>0.5083971982067863</v>
+        <v>0.5083504843582387</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.0214549997476814</v>
+        <v>0.01657266585994364</v>
       </c>
       <c r="F4">
-        <v>0.535739476397358</v>
+        <v>0.5361029917920032</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.0101733135263407</v>
+        <v>0.02276614318207184</v>
       </c>
       <c r="F5">
-        <v>0.523575719402686</v>
+        <v>0.5235814356597397</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.004015533523784611</v>
+        <v>0.01696002340784155</v>
       </c>
       <c r="F6">
-        <v>0.519773168874767</v>
+        <v>0.5198021754439356</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.002765405891476024</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="F2">
-        <v>0.7000924183539659</v>
+        <v>0.7002779747556435</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>140</v>
       </c>
       <c r="E3">
-        <v>0.01635860265877747</v>
+        <v>0.01617774582967602</v>
       </c>
       <c r="F3">
-        <v>0.7008347913745571</v>
+        <v>0.7008431387691741</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>0.0214549997476814</v>
+        <v>0.01657266585994364</v>
       </c>
       <c r="F4">
-        <v>0.7020676238970928</v>
+        <v>0.7003062515046069</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>142</v>
       </c>
       <c r="E5">
-        <v>0.0101733135263407</v>
+        <v>0.02276614318207184</v>
       </c>
       <c r="F5">
-        <v>0.7091657906192544</v>
+        <v>0.7091926688968161</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.004015533523784611</v>
+        <v>0.01696002340784155</v>
       </c>
       <c r="F6">
-        <v>0.7025939992200547</v>
+        <v>0.702683728812842</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2">
-        <v>0.002765405891476024</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="F2">
-        <v>0.8155698216250601</v>
+        <v>0.8008918238423137</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01635860265877747</v>
+        <v>0.01617774582967602</v>
       </c>
       <c r="F3">
-        <v>0.8037453255625354</v>
+        <v>0.8037836774628825</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>0.0214549997476814</v>
+        <v>0.01657266585994364</v>
       </c>
       <c r="F4">
-        <v>0.8136433482469907</v>
+        <v>0.8142844627962096</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.0101733135263407</v>
+        <v>0.02276614318207184</v>
       </c>
       <c r="F5">
-        <v>0.8327002532370763</v>
+        <v>0.8328210511022989</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.004015533523784611</v>
+        <v>0.01696002340784155</v>
       </c>
       <c r="F6">
-        <v>0.8076738298973483</v>
+        <v>0.8077308432224025</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.002765405891476024</v>
+        <v>7.080976050793887E-05</v>
       </c>
       <c r="F2">
-        <v>0.9062510471336869</v>
+        <v>0.908079549474568</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01635860265877747</v>
+        <v>0.01617774582967602</v>
       </c>
       <c r="F3">
-        <v>0.9020633855228665</v>
+        <v>0.9021668745253693</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>166</v>
       </c>
       <c r="E4">
-        <v>0.0214549997476814</v>
+        <v>0.01657266585994364</v>
       </c>
       <c r="F4">
-        <v>0.9074334710608242</v>
+        <v>0.9086062915606012</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.0101733135263407</v>
+        <v>0.02276614318207184</v>
       </c>
       <c r="F5">
-        <v>0.9159927067496004</v>
+        <v>0.9161521095593078</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.004015533523784611</v>
+        <v>0.01696002340784155</v>
       </c>
       <c r="F6">
-        <v>0.905507099330576</v>
+        <v>0.9056214897210501</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>5</v>

--- a/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.005105701806897E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.597945101301586E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.816075838856832E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2261,91 +2261,91 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0004436102966227227</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09051787731970168</v>
+        <v>0.2420106852386112</v>
       </c>
       <c r="CO2">
-        <v>0.01606470831888905</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.07763976625535346</v>
+        <v>0.1902380853500076</v>
       </c>
       <c r="CQ2">
-        <v>0.0001786977757970981</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.00101411299394486</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0004473706511993665</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02442147873715821</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.001300548464189827</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.04535023876624523</v>
+        <v>0.06042768233883619</v>
       </c>
       <c r="CW2">
-        <v>0.01293136088312387</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0605074485594158</v>
+        <v>0.1213627180850247</v>
       </c>
       <c r="CY2">
-        <v>0.007249203659386386</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.004857351109997394</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.007669639364462762</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.02010765106130848</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.09711253460555114</v>
+        <v>0.2685225355679615</v>
       </c>
       <c r="DD2">
-        <v>0.0116679363300183</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.03699235534876646</v>
+        <v>0.02682730787967838</v>
       </c>
       <c r="DF2">
-        <v>0.00140447296449967</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.04422599085815106</v>
+        <v>0.05590797934586425</v>
       </c>
       <c r="DH2">
-        <v>0.002201047411943741</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.01387969708478247</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
         <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01682215145920858</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01761800169622802</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0005887642648278132</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.01948813155412807</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.006658880850706385</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
@@ -2354,160 +2354,160 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.009833258084134853</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.00625231299403161</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001258118336983136</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0005854834028915176</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002749639852354943</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01491949909477796</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.007353789060047314</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001761418507279435</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.004809654071672262</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.002174429685814256</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.009148533259540376</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002379785953746529</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001854082945758743</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.002535161759451073</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0003586668665710513</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001943651927475469</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0004334454787728398</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0002591722451572891</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0002752370545693789</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0003308386599520486</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.005599981925193154</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.003151533213807806</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0001719137361662479</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0003325183654866541</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00147565560510744</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0003821927985880417</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.004587422625386515</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002050621764073004</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003765544338755936</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01654843076206738</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.001607908522492368</v>
+        <v>0</v>
       </c>
       <c r="EX2">
         <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01152794192989029</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.03895138614535718</v>
+        <v>0.0347030061940163</v>
       </c>
       <c r="FA2">
-        <v>0.001840041197571793</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01619147558073476</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.006598176230187336</v>
+        <v>0</v>
       </c>
       <c r="FD2">
         <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004565719648091372</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.02820832005707099</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.009206249928671728</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0005312521054965338</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0006438403763083631</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01869432164656216</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.02254837005913108</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.001134393814088766</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.007752129143622421</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01608485999646542</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.006991677760224949</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.004366146613335672</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003883214024199885</v>
+        <v>0</v>
       </c>
       <c r="FR2">
         <v>0</v>
@@ -2516,46 +2516,46 @@
         <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.01018471929033527</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0102598715943045</v>
+        <v>0</v>
       </c>
       <c r="FV2">
         <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.002111273829114333</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0003970642435513297</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0004536658437206685</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001902058183157051</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.006730777758810569</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002156367037747993</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0003485295946906678</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0003366301315548572</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0008499942091254802</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001575904570105838</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0002056669945849026</v>
+        <v>0</v>
       </c>
       <c r="GH2">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002172761911793511</v>
+        <v>0</v>
       </c>
       <c r="GK2">
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002283115834155586</v>
+        <v>0</v>
       </c>
       <c r="GM2">
         <v>0</v>
@@ -2579,16 +2579,16 @@
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.00348935160645137</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0006469914728855804</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001186302189806103</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.004416982877599229</v>
+        <v>0</v>
       </c>
       <c r="GS2">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001476557773301177</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.518843320121538E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.54538158126413E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.293023185238352E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2788,196 +2788,196 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001304108692136307</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.461082172248382E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.621590862630956E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.211016114722488E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0004140964292258254</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.662541072765878E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>9.129932894251713E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001631713478220834</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002333145158618062</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002160354827371426</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7.461082172248382E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>7.461082172248382E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8.311727379006156E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.51111281551087E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002884553607441654</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004926671521539633</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>9.620774511715253E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001467347927390272</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004323607706288442</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.000261940890456501</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002282641548776973</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0007271494083674819</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0003711102672162189</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>8.734032117705374E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.000245998862531856</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0003000129611433555</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.006169327218856E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.06834603196175E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.979780990253166E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.504149290581411E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003485752316214248</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001583699080892825</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>4.405067796763903E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001235384912094446</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.000693686417336518</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0005361298022436932</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0007340185711889193</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005593387541652121</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0004683333570292553</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0003154429637031659</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0007380465240912431</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0003688462877700204</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.799230449853303E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>6.902590705877908E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001018198155549014</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.932568790210765E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001418688189799033</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0004448459963236804</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0002846518496332191</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0002294012378108516</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002948490070516058</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0005302490326734664</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.000285916968956019</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.504149290581411E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0002974255403223283</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0005371235441166724</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>8.661907856220606E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2986,385 +2986,385 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>6.774475389004747E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>8.879098959773245E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>6.026165142194461E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>5.904293289541093E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>9.277953898313017E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>5.663818052877805E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001941096792005658</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002149308420996983</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.479540822694968E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>5.486321535443352E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0003471818455376297</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0002476775885724861</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.652100982914925E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001286764233548359</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0003444032465448772</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0006304583962428404</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08130157417539459</v>
+        <v>0.2323080817857911</v>
       </c>
       <c r="CO3">
-        <v>0.002104625796356057</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1007891223398058</v>
+        <v>0.3206219624332479</v>
       </c>
       <c r="CQ3">
-        <v>0.006908479420254856</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.001579198428016657</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0006909053844203763</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01095858302864928</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0002339768435080319</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.04089511955306219</v>
+        <v>0.04919367556098143</v>
       </c>
       <c r="CW3">
-        <v>0.001755390242320762</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0553304076721521</v>
+        <v>0.1146116697234848</v>
       </c>
       <c r="CY3">
-        <v>0.01579762737862026</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.005607806486426379</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.007381330637898479</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.006089216200030298</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.07750068228653167</v>
+        <v>0.2150831589891954</v>
       </c>
       <c r="DD3">
-        <v>0.03216798174871994</v>
+        <v>0.009643938470190508</v>
       </c>
       <c r="DE3">
-        <v>0.03082422867138736</v>
+        <v>0.003554303802453078</v>
       </c>
       <c r="DF3">
-        <v>0.01362602383876487</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.03242445617545101</v>
+        <v>0.01080623203941524</v>
       </c>
       <c r="DH3">
-        <v>0.008381121261226485</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.01461729573023075</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.003981888470263404</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01174176949455883</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.02181822534674816</v>
+        <v>0</v>
       </c>
       <c r="DM3">
         <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.02108398477971063</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.008908057662067176</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0001583699080892825</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0001679525950052852</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.005657699211545223</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.006436515332630078</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.001163407288984997</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001833453176713669</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0003602926296080674</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0089220021400195</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.008794583746559583</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001016707514694337</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.007319555759213452</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004119399532710447</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.01110782960829042</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.005555803960391089</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.001290486235269361</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003308527438652631</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>2.51111281551087E-06</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0003631329781386565</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0006601941791603014</v>
+        <v>0</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001329539285256427</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001164477213661672</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.009036290368167174</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.006619508610627278</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001649564555458203</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.001946285658254829</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0004950217777181538</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0001513670197074792</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0009877674644668078</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.002841976677097465</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.003314580195459548</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0006593864270956087</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01504505926830076</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.005431707521792306</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>1.893506959058803E-05</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.00621861508596652</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.03978812311816465</v>
+        <v>0.04417697719524041</v>
       </c>
       <c r="FA3">
-        <v>0.008736349875840715</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0114298887550215</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.01042167655644403</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0003526454426421805</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0006443834128241963</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.02115193030523669</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01234748989211665</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002094459408537059</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0002248692223794727</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01293126992266215</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.02378819986852321</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.002996384276099683</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.005787572862784519</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01796014927922887</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.009061414867876707</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003329816355552894</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.003020344198556293</v>
+        <v>0</v>
       </c>
       <c r="FR3">
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0004294057272145947</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003546447756887477</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.01082432360772101</v>
+        <v>0</v>
       </c>
       <c r="FV3">
         <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.005512337894795698</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0001564684029374502</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0004195407452500298</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.00286566926862709</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.009630707545376488</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003747644878768063</v>
+        <v>0</v>
       </c>
       <c r="GC3">
         <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0006889547901387894</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002072745604735753</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001184787252649078</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001888906062593896</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0002779506074933437</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0002316835868681438</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001136002914206146</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>4.360629163427407E-07</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004627310966048638</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0004943208778950898</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0004308124347720837</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.005442601081784367</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003012225611712264</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0002476775885724861</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003062831887046108</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0003075212542177291</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,31 +3540,31 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001403743282773297</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0008473648500139536</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0008594364631953379</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0003096365536022267</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001131179172248734</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005842756405965855</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0008383624010313208</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004414855294317246</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002511510266943436</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.867714432247244E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001952526593836953</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3588,40 +3588,40 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0003535027649372575</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001126630083966306</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002600379637183826</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0005225786054145597</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3.332654368825763E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002131219567949869</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0005298721548043371</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0004861828164024809</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003690524329498589</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0001075701184908545</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0001940270421122042</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -3636,40 +3636,40 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002023864735112685</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001970265198760987</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001788712768754447</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001713913832006073</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.00014367831913091</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0003125638503353715</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0003067202391753902</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.357426249051201E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>9.573521812216926E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0003155022003592604</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>6.700398372479189E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -3684,34 +3684,34 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001600612125935834</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>5.608314993811696E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>3.021048919922985E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0004080380688271057</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0005117207246819582</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001697021462965162</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>4.817108273581512E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001319247872071159</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0002505543619474648</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>7.020367816066202E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>7.506688271290035E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3738,31 +3738,31 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002136836667774665</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0002011449861480207</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002256343630424894</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0008249411709094362</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000654107735516202</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001392784908360626</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.000345999040773201</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0006401266004446382</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0002073799852066838</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3777,367 +3777,367 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>2.866896076576257E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.021048919922985E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0002194882263570295</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0001340819535131339</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001308503262217101</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0002302514138520445</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001627414429270111</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>8.156844860990533E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001106175918740997</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0002246307343835499</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.000662830100195757</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07087356447885619</v>
+        <v>0.1650119929456208</v>
       </c>
       <c r="CO4">
-        <v>0.02572683448142686</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1254810078228559</v>
+        <v>0.387336571652747</v>
       </c>
       <c r="CQ4">
-        <v>0.002145159907252017</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.002129257162654891</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0003650508070595466</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.00678913409930791</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0006091095455213608</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02634986690407912</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01506716054719959</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.06347405560744016</v>
+        <v>0.1348861970515711</v>
       </c>
       <c r="CY4">
-        <v>0.02476074949067289</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.008304368883627823</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.005324444999497846</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01194335455776365</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.08338633984542566</v>
+        <v>0.215955551945534</v>
       </c>
       <c r="DD4">
-        <v>0.002557780974640678</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.04358025571658176</v>
+        <v>0.05389209791828951</v>
       </c>
       <c r="DF4">
-        <v>0.000341428048721958</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.02896682576753488</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0001425742474950702</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01132643490911195</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0002897708797730271</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.02464664099578466</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01613358913664345</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0008496222869060988</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01090288396249134</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.00223262845035167</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>2.790231871663214E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.00454966874244307</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.002505169947263059</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002527414542776253</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001519596788051022</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001610087848434359</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01648580072511228</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.006529485201283091</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001531474613722203</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.006544903527807876</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.00533838705256709</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01279522660510218</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.003163940903894098</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003241802210616638</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.002423753334361697</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0007190380711942136</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0003765770468193586</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0001690522026601236</v>
+        <v>0</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>2.120765487251611E-05</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003496177269267757</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01206377559713653</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.008874914400259077</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002376175711932508</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0007127686244028367</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.000133480461824609</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0007741715812072646</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0001012177517376288</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.002994978983295898</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001084187587182296</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.003350913198399768</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01464936238208282</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.002573030256801515</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0007223009214968314</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01547643550968287</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.04088469274498416</v>
+        <v>0.04291758848623764</v>
       </c>
       <c r="FA4">
-        <v>0.004202797414498746</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.009529537432077267</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.004741604268711898</v>
+        <v>0</v>
       </c>
       <c r="FD4">
         <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004020959120027914</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.017904916498746</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004082903181047121</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.001210188206035236</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.00116301124004394</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.02141518609513395</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.02605072530806964</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.00179462791194462</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.007945511123825282</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.01580798454290364</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.007765009364877463</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.00504242271991171</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002434892009241736</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0002124174362679657</v>
+        <v>0</v>
       </c>
       <c r="FS4">
         <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.007013497851087136</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.006144850964652402</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0005331258785366156</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003041739169241701</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0002182094823055303</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>4.321116695988194E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003469629901464956</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.007882168669417428</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001341420783444655</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0007307159641311628</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0006032889535999017</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0005071240768274282</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0009933347089881763</v>
+        <v>0</v>
       </c>
       <c r="GG4">
         <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0004064038550015265</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001297070620506435</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0003017250339941453</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.003107894432628112</v>
+        <v>0</v>
       </c>
       <c r="GM4">
         <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0005189482585462818</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.005349306081320965</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001188103325502979</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0007932798815265449</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.00483123864835939</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>7.455562238312943E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.886755987392484E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.382447643453826E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9.257552700217371E-07</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4334,181 +4334,181 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.77025272032943E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.934674041161615E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001027891466040105</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.29873137944291E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.023024564272095E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002215685748131594</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001281906704869767</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002598727495456139</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001620422815827665</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3.160359540791269E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001577300130337624</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.25822505498184E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>6.272523457133526E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>8.694219695885193E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000117257088787075</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0005708759791854376</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00018395562907975</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.987931186250187E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>9.798666656590635E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>8.079846002518435E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>3.01035457472495E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.767427137698469E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.129742945262452E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.625975543856138E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0003202990968112932</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.189580635419628E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0003981105565310462</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002939692835926825</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>5.023048214891348E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0002309672939990972</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001732365915918628</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.5430511136258E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001114031768449505</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.841334675992667E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.076078608857793E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>6.992808172802096E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0002408203020403166</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001390572246487457</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001129930526214955</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0004156415630557177</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0003118546486456855</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.488346371379696E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>8.544908142321102E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.400144361192468E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>5.557396516533906E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.402525581592296E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>4.264845764489761E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>5.959549726046157E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -4523,394 +4523,394 @@
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001114031768449505</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0006871130684982841</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002180925379035987</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>6.086793874945896E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001742718725835643</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0004689782858177007</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00024827690532011</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.304632035101559E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>8.55333776670362E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0004617464030766915</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001731194236090362</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1.058031993119735E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.164133220584299E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.372532373543953E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0003948498851512118</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0003856640374936561</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002156596946807671</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001893115720868266</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01303235886438339</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02732383492744165</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.05717868166515237</v>
+        <v>0.1411846070034371</v>
       </c>
       <c r="CP5">
-        <v>0.07904825893774257</v>
+        <v>0.2549556715771133</v>
       </c>
       <c r="CQ5">
-        <v>0.0006628362590929707</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0006503149200152562</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.001337309074729773</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01044420947029902</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.007568119508016532</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02052138316004371</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.04240755305362471</v>
+        <v>0.06434146522060767</v>
       </c>
       <c r="CX5">
-        <v>0.05666255359581961</v>
+        <v>0.1384995784282418</v>
       </c>
       <c r="CY5">
-        <v>0.01359861135269867</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01222249502911069</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.005490810099129773</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.02297778317709743</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.07608784929403191</v>
+        <v>0.2395548728995243</v>
       </c>
       <c r="DD5">
-        <v>0.0004452679953281553</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.04049825680291946</v>
+        <v>0.05440882389326399</v>
       </c>
       <c r="DF5">
-        <v>0.0003201415039713382</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.02536902265140224</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.002320578419604242</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01341740362531758</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0008968010792850999</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.02856113203123285</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.008937156573732908</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0053627157862377</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01115064286308071</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.001228068410392481</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0006828466635322312</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>1.967777677565288E-05</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004087566953612509</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>6.691015981235012E-06</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.00549585198827281</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001481257924439768</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001903375564631562</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01238694236633425</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001043250090222079</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00502487105242879</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.006550564555748113</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00961409163977305</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0121791850431181</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001263962398251664</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.00228209147163272</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0007017881129536094</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001312117958422054</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.00144337274193313</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001795450010239998</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0001528228800918658</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0006226307138257291</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.00990027278517553</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.02288235206863655</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01090370067215946</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.003701376554631154</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.002102723395765199</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.001681193097897986</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0005069278215718734</v>
+        <v>0</v>
       </c>
       <c r="ER5">
         <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.004178004049743297</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0007040645452327054</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.007973745889842423</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01604106799918538</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.002595416766764989</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003486176089732829</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.03352805690254308</v>
+        <v>0.01814808354731079</v>
       </c>
       <c r="EZ5">
-        <v>0.04712962909257164</v>
+        <v>0.08890689743050113</v>
       </c>
       <c r="FA5">
-        <v>0.001430413550370438</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.008470552960810302</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0001105647216380435</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001500055983807962</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003272543239896241</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0139767530384265</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0006544800525010253</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002138874095489644</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.002074639438219663</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0274761192504794</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.02222606212536972</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0005270437953852997</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.008044671682284867</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.009454347348056098</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002855880852042155</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001198291837235912</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>1.684954419514715E-05</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.004259406651045088</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0003065431269075297</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.007539233363452311</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001801598174276453</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.003504840033928341</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.003109237834774077</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0003963911679658246</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0002180925379035987</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.00549649602155164</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.007100367652868655</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0006650496101653782</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001418805526604234</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0004890991174249099</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0005692409960392004</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001422857143967779</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0008296652674394877</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001683988382617361</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>9.957574105687893E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>1.19178508488491E-06</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.002638622886115258</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003164639620697222</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0003146051915819105</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.003845401225988438</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.007183899670579143</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0008460200568563394</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0008462739642220987</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.003276935386600745</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>3.298673349713244E-06</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.49307818949229E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001518726924882254</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4.06249988229362E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5107,22 +5107,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.031685224320851E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.024500056712787E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.024500056712787E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.171429679686697E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.862343778727763E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.764809458037293E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>5.060756208753073E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>8.804755077258668E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>5.26751303055317E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.29387850845568E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.480751363782723E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>6.266091302695005E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>8.137375396673436E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001526139286112601</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -5176,67 +5176,67 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.128070714341731E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001392973739680503</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>9.063803288135852E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>9.46397636385034E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.508804038527813E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>8.981660674806121E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.689777667615252E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3.735597838621392E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>6.451730390364766E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>7.628560423602496E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3.238632869989116E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.049419453638128E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>4.031685224320851E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001633096050671817</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001610179726681058</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>6.266091302695005E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0001768528835733713</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.307459349257869E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -5245,64 +5245,64 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>8.235163268364777E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.858899589907387E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.176593706080524E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1.308061402109892E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>3.831726413280987E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.370424173704644E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>5.40064923636787E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.271911438853022E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>5.157530677549949E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>2.621164984312871E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.775028423969624E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0001874744774738261</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0002073341700465406</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>3.426338117927796E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>1.713115534868336E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1.180561699133205E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>6.232042267243156E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.89387476715765E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>3.729567590706202E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>8.351434126799474E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5329,361 +5329,361 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>4.536039021606376E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0001413272239712065</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>8.463733988022714E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>4.022518634641369E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0002009477690943496</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001752638538154443</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>3.535123714212466E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01348120874952424</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05643664569185878</v>
+        <v>0.1149169305497596</v>
       </c>
       <c r="CO6">
-        <v>0.06130630295464023</v>
+        <v>0.1361119088130772</v>
       </c>
       <c r="CP6">
-        <v>0.1024417464066458</v>
+        <v>0.3151521949705462</v>
       </c>
       <c r="CQ6">
-        <v>0.001157004256616235</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.002140421240375608</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0002562494854888479</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.005895833709188043</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0009254379400327605</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02476317583118482</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0191938289598829</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.05731729080437539</v>
+        <v>0.1187499013339962</v>
       </c>
       <c r="CY6">
-        <v>0.009841423047504488</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.001690542455044308</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0009455615880095774</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.03232941908662023</v>
+        <v>0.009991241468500426</v>
       </c>
       <c r="DC6">
-        <v>0.09051682826191965</v>
+        <v>0.2632494906876276</v>
       </c>
       <c r="DD6">
-        <v>5.49307818949229E-05</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.03562950953481141</v>
+        <v>0.0243547462373027</v>
       </c>
       <c r="DF6">
-        <v>0.003064453014796648</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.03404852691686452</v>
+        <v>0.01747358593919016</v>
       </c>
       <c r="DH6">
-        <v>0.002079290314371347</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.01131386540880024</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.002824603181006503</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.02340183026566032</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.00582319615409345</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.007436592944285164</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01417049395481004</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002220841669616508</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0004255063545932933</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001267519647525309</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.007817229875327332</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.002667295313386321</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0007261324834578116</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0002524543517322561</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.005389320822988728</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0233825215358075</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003365524700463402</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.004547303184040345</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.004297663197347023</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.005377070864878077</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01182986172329149</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.002107462614421566</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003044992875341414</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002088636252329876</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003068865243823089</v>
+        <v>0</v>
       </c>
       <c r="EG6">
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0005211359384798528</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001376828468130491</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>1.59774011602675E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.001993616011982132</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.008596095089829699</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.004615513610482344</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0006531767178515845</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>1.176593706080524E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>1.856803848390954E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0013264104724674</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>9.005765944702607E-05</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.004003593705098786</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.001795157778251908</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.004851526031988028</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01138561473428279</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0004454356034555823</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0001392973739680503</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01491382898344435</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.02774430072250226</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>3.535123714212466E-05</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01811834011733919</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.003104147565562845</v>
+        <v>0</v>
       </c>
       <c r="FD6">
         <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.007684726445489918</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.02035323897789158</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001403518215823739</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.001209222143941884</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003362121789676873</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.02568336268292445</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.02020020612835119</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>5.016085068693775E-05</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01483994169829809</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.01935241549761765</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.009390041181397904</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.005714802700667942</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002882076243282604</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>1.797060643464902E-05</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0004845036869779288</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.01182986172329149</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.005181051106828</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0005729055051771901</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001557980043556218</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0006138325220959468</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0001406125746533576</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005490254950168324</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.008903227265276675</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001387418428239012</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0006721243177776936</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>1.89387476715765E-06</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.002449618174150742</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.00195361463646607</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0001768528835733713</v>
+        <v>0</v>
       </c>
       <c r="GH6">
         <v>0</v>
       </c>
       <c r="GI6">
-        <v>4.479263725275792E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001071299111530232</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0006349523991928797</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.00197744492569574</v>
+        <v>0</v>
       </c>
       <c r="GM6">
         <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001472191382856185</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.005575265433606215</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0005461345350444456</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001088695594182193</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.002821006802394668</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0003736695347947779</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6669,574 +6669,574 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.005105701806897E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.264900211937055E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.264900211937055E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.264900211937055E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.264900211937055E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0005144200571306616</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09103229737683234</v>
+        <v>0.2420106852386112</v>
       </c>
       <c r="CO2">
-        <v>0.1070970056957214</v>
+        <v>0.2420106852386112</v>
       </c>
       <c r="CP2">
-        <v>0.1847367719510749</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CQ2">
-        <v>0.184915469726872</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CR2">
-        <v>0.1859295827208168</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CS2">
-        <v>0.1863769533720162</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CT2">
-        <v>0.2107984321091744</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CU2">
-        <v>0.2120989805733642</v>
+        <v>0.4322487705886189</v>
       </c>
       <c r="CV2">
-        <v>0.2574492193396095</v>
+        <v>0.4926764529274551</v>
       </c>
       <c r="CW2">
-        <v>0.2703805802227333</v>
+        <v>0.4926764529274551</v>
       </c>
       <c r="CX2">
-        <v>0.3308880287821491</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="CY2">
-        <v>0.3381372324415355</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="CZ2">
-        <v>0.3429945835515329</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="DA2">
-        <v>0.3506642229159956</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="DB2">
-        <v>0.3707718739773041</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="DC2">
-        <v>0.4678844085828552</v>
+        <v>0.8825617065804412</v>
       </c>
       <c r="DD2">
-        <v>0.4795523449128735</v>
+        <v>0.8825617065804412</v>
       </c>
       <c r="DE2">
-        <v>0.51654470026164</v>
+        <v>0.9093890144601195</v>
       </c>
       <c r="DF2">
-        <v>0.5179491732261396</v>
+        <v>0.9093890144601195</v>
       </c>
       <c r="DG2">
-        <v>0.5621751640842907</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DH2">
-        <v>0.5643762114962344</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DI2">
-        <v>0.5782559085810168</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DJ2">
-        <v>0.5782559085810168</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DK2">
-        <v>0.5950780600402255</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DL2">
-        <v>0.6126960617364535</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DM2">
-        <v>0.6132848260012813</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DN2">
-        <v>0.6327729575554094</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DO2">
-        <v>0.6394318384061158</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DP2">
-        <v>0.6394318384061158</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DQ2">
-        <v>0.6394318384061158</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DR2">
-        <v>0.6492650964902507</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DS2">
-        <v>0.6555174094842823</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DT2">
-        <v>0.6567755278212654</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DU2">
-        <v>0.6573610112241569</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DV2">
-        <v>0.6601106510765119</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DW2">
-        <v>0.6750301501712899</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DX2">
-        <v>0.6823839392313372</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DY2">
-        <v>0.6841453577386166</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="DZ2">
-        <v>0.6889550118102888</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EA2">
-        <v>0.6911294414961031</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EB2">
-        <v>0.7002779747556435</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EC2">
-        <v>0.70265776070939</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="ED2">
-        <v>0.7045118436551487</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EE2">
-        <v>0.7070470054145999</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EF2">
-        <v>0.7074056722811709</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EG2">
-        <v>0.7076000374739184</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EH2">
-        <v>0.7080334829526913</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EI2">
-        <v>0.7082926551978486</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EJ2">
-        <v>0.7085678922524179</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EK2">
-        <v>0.70889873091237</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EL2">
-        <v>0.7144987128375632</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EM2">
-        <v>0.717650246051371</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EN2">
-        <v>0.7178221597875372</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EO2">
-        <v>0.7181546781530238</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EP2">
-        <v>0.7181546781530238</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EQ2">
-        <v>0.7196303337581312</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="ER2">
-        <v>0.7200125265567193</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="ES2">
-        <v>0.7245999491821058</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="ET2">
-        <v>0.7266505709461788</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EU2">
-        <v>0.7304161152849348</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EV2">
-        <v>0.7469645460470021</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EW2">
-        <v>0.7485724545694945</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EX2">
-        <v>0.7485724545694945</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EY2">
-        <v>0.7601003964993848</v>
+        <v>0.9652969938059838</v>
       </c>
       <c r="EZ2">
-        <v>0.799051782644742</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8008918238423137</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8170832994230485</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8236814756532358</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8236814756532358</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8282471953013272</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8564555153583981</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8656617652870698</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8661930173925664</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8668368577688748</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8855311794154369</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.908079549474568</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9092139432886568</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9169660724322792</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9330509324287446</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9400426101889695</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9444087568023052</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9482919708265051</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9482919708265051</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9482919708265051</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9584766901168403</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9687365617111449</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9687365617111449</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9708478355402592</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9712448997838106</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9716985656275312</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9736006238106882</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9803314015694988</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9824877686072468</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9828362982019375</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9831729283334923</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9840229225426178</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9855988271127236</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9858044941073085</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9858044941073085</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9858044941073085</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.987977256019102</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.987977256019102</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9902603718532577</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9902603718532577</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9902603718532577</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.993749723459709</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9943967149325946</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9955830171224007</v>
+        <v>1</v>
       </c>
       <c r="GR2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001476557773301177</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.000212844210531333</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003082980263439743</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0003125910495292127</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003125910495292127</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003125910495292127</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003125910495292127</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004430019187428434</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0005176127404653272</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005212343313279581</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000583344492475183</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009974409217010083</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001034066332428667</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001034066332428667</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001125365661371184</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001288537009193267</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001521851525055074</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001737887007792216</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0018124978295147</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0018124978295147</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001887108651237184</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001970225925027246</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001970225925027246</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001972737037842757</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001972737037842757</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002261192398586922</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002753859550740885</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002850067295858038</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002996802088597065</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003429162859225909</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.00369110374968241</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.003919367904560107</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004646517312927589</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.005017627580143808</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005104967901320862</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005350966763852718</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005650979724996073</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005681041418268262</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.005691724878587879</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.005721522688490411</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.005746564181396225</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005746564181396225</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00609513941301765</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.006253509321106933</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.006257914388903696</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.006381452880113141</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.00707513929744966</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007611269099693353</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.008345287670882271</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.008904626425047484</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.009372959782076739</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.009688402745779905</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.01042644926987115</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01079529555764117</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0108232878621397</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01083019045284558</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01083019045284558</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01093201026840048</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.01101133595630259</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01101133595630259</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01115320477528249</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01159805077160617</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01188270262123939</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01211210385905024</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01240695286610185</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01293720189877532</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01322311886773133</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01324816036063715</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01354558590095948</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01408270944507615</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01416932852363836</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01416932852363836</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01416932852363836</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0142370732775284</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01432586426712613</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01432586426712613</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01438612591854808</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01444516885144349</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01453794839042662</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0145945865709554</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01478869625015596</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01500362709225566</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01502842250048261</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01508328571583704</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01543046756137467</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01567814514994716</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01570466615977631</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01583334258313114</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01617774582967602</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01680820422591886</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09810977840131345</v>
+        <v>0.2323080817857911</v>
       </c>
       <c r="CO3">
-        <v>0.1002144041976695</v>
+        <v>0.2323080817857911</v>
       </c>
       <c r="CP3">
-        <v>0.2010035265374753</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CQ3">
-        <v>0.2079120059577302</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CR3">
-        <v>0.2094912043857468</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CS3">
-        <v>0.2101821097701672</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CT3">
-        <v>0.2211406927988165</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CU3">
-        <v>0.2213746696423245</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="CV3">
-        <v>0.2622697891953867</v>
+        <v>0.6021237197800204</v>
       </c>
       <c r="CW3">
-        <v>0.2640251794377074</v>
+        <v>0.6021237197800204</v>
       </c>
       <c r="CX3">
-        <v>0.3193555871098595</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="CY3">
-        <v>0.3351532144884798</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="CZ3">
-        <v>0.3407610209749062</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="DA3">
-        <v>0.3481423516128047</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="DB3">
-        <v>0.3542315678128349</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="DC3">
-        <v>0.4317322500993666</v>
+        <v>0.9318185484927006</v>
       </c>
       <c r="DD3">
-        <v>0.4639002318480865</v>
+        <v>0.9414624869628911</v>
       </c>
       <c r="DE3">
-        <v>0.4947244605194739</v>
+        <v>0.9450167907653442</v>
       </c>
       <c r="DF3">
-        <v>0.5083504843582387</v>
+        <v>0.9450167907653442</v>
       </c>
       <c r="DG3">
-        <v>0.5407749405336897</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DH3">
-        <v>0.5491560617949162</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DI3">
-        <v>0.5637733575251469</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DJ3">
-        <v>0.5677552459954103</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DK3">
-        <v>0.5794970154899691</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DL3">
-        <v>0.6013152408367173</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DM3">
-        <v>0.6013152408367173</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DN3">
-        <v>0.6223992256164279</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DO3">
-        <v>0.6313072832784951</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DP3">
-        <v>0.6314656531865843</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DQ3">
-        <v>0.6316336057815896</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DR3">
-        <v>0.6372913049931348</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DS3">
-        <v>0.6437278203257649</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DT3">
-        <v>0.6448912276147499</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DU3">
-        <v>0.6467246807914636</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DV3">
-        <v>0.6470849734210716</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DW3">
-        <v>0.6560069755610911</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DX3">
-        <v>0.6648015593076507</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DY3">
-        <v>0.665818266822345</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="DZ3">
-        <v>0.6731378225815585</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EA3">
-        <v>0.677257222114269</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EB3">
-        <v>0.6883650517225594</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EC3">
-        <v>0.6939208556829505</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="ED3">
-        <v>0.6952113419182199</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EE3">
-        <v>0.6985198693568725</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EF3">
-        <v>0.698522380469688</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EG3">
-        <v>0.6988855134478266</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EH3">
-        <v>0.6995457076269869</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EI3">
-        <v>0.6995457076269869</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EJ3">
-        <v>0.6996786615555125</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EK3">
-        <v>0.7008431387691741</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EL3">
-        <v>0.7098794291373414</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EM3">
-        <v>0.7164989377479687</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EN3">
-        <v>0.7181485023034269</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EO3">
-        <v>0.7200947879616817</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EP3">
-        <v>0.7205898097393999</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EQ3">
-        <v>0.7207411767591074</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="ER3">
-        <v>0.7217289442235743</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="ES3">
-        <v>0.7245709209006718</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="ET3">
-        <v>0.7278855010961313</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EU3">
-        <v>0.7285448875232269</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EV3">
-        <v>0.7435899467915277</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EW3">
-        <v>0.74902165431332</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EX3">
-        <v>0.7490405893829106</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EY3">
-        <v>0.7552592044688772</v>
+        <v>0.9558230228047594</v>
       </c>
       <c r="EZ3">
-        <v>0.7950473275870418</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.8037836774628825</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.815213566217904</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.825635242774348</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.8259878882169901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.8266322716298143</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.847784201935051</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.8601316918271676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.8622261512357047</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.8624510204580842</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.8753822903807463</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.8991704902492695</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.9021668745253693</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.9079544473881538</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.9259145966673826</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.9349760115352593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.9383058278908122</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.9413261720893685</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.9413261720893685</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.9417555778165831</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9453020255734707</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9561263491811917</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9561263491811917</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.9616386870759873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9617951554789248</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9622146962241749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.965080365492802</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9747110730381785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.9784587179169466</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9784587179169466</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9791476727070854</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9793549472675589</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9805397345202079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9807286251264673</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9810065757339607</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.9812382593208288</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9823742622350349</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9823746982979512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9870020092639998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.987496330141895</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.987927142576667</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9933697436584514</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9963819692701636</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9966296468587361</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9996924787457823</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001403743282773297</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0009877391782912833</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001847175641486621</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002156812195088848</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.002269930112313722</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002854205752910307</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003692568153941628</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004134053683373352</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004385204710067696</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.004385204710067696</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.004385204710067696</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.004385204710067696</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.004443881854390168</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.004639134513773863</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.004639134513773863</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.004639134513773863</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00499263727871112</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005105300287107751</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.005105300287107751</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005365338250826133</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005887916856240693</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.005921243399928951</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.006134365356723938</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.006664237511528275</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.007150420327930756</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.007519472760880615</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.007627042879371469</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.007821069921483674</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.007821069921483674</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.007821069921483674</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.007821069921483674</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.007821069921483674</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.008023456394994943</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.008220482914871041</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.008399354191746486</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.008570745574947093</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.008714423894078003</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.009026987744413375</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.009333707983588764</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.009377282246079276</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.009377282246079276</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.009473017464201445</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.009788519664560706</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.009855523648285498</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.009855523648285498</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.009855523648285498</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.009855523648285498</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.009855523648285498</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01001558486087908</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0100716680108172</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.01010187850001643</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01050991656884353</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01102163729352549</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01119133943982201</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01123951052255782</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01137143530976494</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0116219896717124</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01169219334987306</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01169219334987306</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01169219334987306</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01176726023258596</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01198094389936343</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01218208888551145</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01240772324855394</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01323266441946338</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01388677215497958</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01402605064581564</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01437204968658884</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01501217628703348</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01521955627224016</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01521955627224016</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01521955627224016</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01521955627224016</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01521955627224016</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01524822523300593</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01527843572220516</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01549792394856219</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01563200590207532</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01576285622829703</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01599310764214907</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01615584908507608</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01623741753368599</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01634803512556009</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01657266585994364</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0172354959601394</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.08810906043899559</v>
+        <v>0.1650119929456208</v>
       </c>
       <c r="CO4">
-        <v>0.1138358949204225</v>
+        <v>0.1650119929456208</v>
       </c>
       <c r="CP4">
-        <v>0.2393169027432783</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CQ4">
-        <v>0.2414620626505303</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CR4">
-        <v>0.2435913198131852</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CS4">
-        <v>0.2439563706202448</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CT4">
-        <v>0.2507455047195526</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CU4">
-        <v>0.251354614265074</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CV4">
-        <v>0.2777044811691531</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CW4">
-        <v>0.2927716417163527</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="CX4">
-        <v>0.3562456973237929</v>
+        <v>0.6872347616499389</v>
       </c>
       <c r="CY4">
-        <v>0.3810064468144658</v>
+        <v>0.6872347616499389</v>
       </c>
       <c r="CZ4">
-        <v>0.3893108156980936</v>
+        <v>0.6872347616499389</v>
       </c>
       <c r="DA4">
-        <v>0.3946352606975915</v>
+        <v>0.6872347616499389</v>
       </c>
       <c r="DB4">
-        <v>0.4065786152553551</v>
+        <v>0.6872347616499389</v>
       </c>
       <c r="DC4">
-        <v>0.4899649551007808</v>
+        <v>0.9031903135954729</v>
       </c>
       <c r="DD4">
-        <v>0.4925227360754214</v>
+        <v>0.9031903135954729</v>
       </c>
       <c r="DE4">
-        <v>0.5361029917920032</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DF4">
-        <v>0.5364444198407251</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DG4">
-        <v>0.5654112456082599</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DH4">
-        <v>0.565553819855755</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DI4">
-        <v>0.576880254764867</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DJ4">
-        <v>0.57717002564464</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DK4">
-        <v>0.6018166666404247</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DL4">
-        <v>0.6179502557770681</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DM4">
-        <v>0.6187998780639742</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DN4">
-        <v>0.6297027620264656</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DO4">
-        <v>0.6319353904768172</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DP4">
-        <v>0.6319632927955339</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DQ4">
-        <v>0.6319632927955339</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DR4">
-        <v>0.636512961537977</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DS4">
-        <v>0.63901813148524</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DT4">
-        <v>0.6415455460280163</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DU4">
-        <v>0.6430651428160673</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DV4">
-        <v>0.6446752306645016</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DW4">
-        <v>0.6611610313896139</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DX4">
-        <v>0.667690516590897</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DY4">
-        <v>0.6692219912046191</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="DZ4">
-        <v>0.675766894732427</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EA4">
-        <v>0.6811052817849941</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EB4">
-        <v>0.6939005083900962</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EC4">
-        <v>0.6970644492939903</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="ED4">
-        <v>0.7003062515046069</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EE4">
-        <v>0.7027300048389686</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EF4">
-        <v>0.7034490429101629</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EG4">
-        <v>0.7038256199569822</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EH4">
-        <v>0.7039946721596424</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EI4">
-        <v>0.7039946721596424</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EJ4">
-        <v>0.704015879814515</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EK4">
-        <v>0.7075120570837827</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EL4">
-        <v>0.7195758326809193</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EM4">
-        <v>0.7284507470811784</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EN4">
-        <v>0.7308269227931109</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EO4">
-        <v>0.7315396914175137</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EP4">
-        <v>0.7316731718793383</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EQ4">
-        <v>0.7324473434605456</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="ER4">
-        <v>0.7325485612122833</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="ES4">
-        <v>0.7355435401955792</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="ET4">
-        <v>0.7366277277827615</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EU4">
-        <v>0.7399786409811613</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EV4">
-        <v>0.7546280033632441</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EW4">
-        <v>0.7572010336200456</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EX4">
-        <v>0.7579233345415425</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EY4">
-        <v>0.7733997700512254</v>
+        <v>0.9570824115137624</v>
       </c>
       <c r="EZ4">
-        <v>0.8142844627962096</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8184872602107083</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8280167976427856</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8327584019114975</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8327584019114975</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8367793610315254</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8546842775302714</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8587671807113185</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8599773689173538</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8611403801573977</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8825555662525316</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9086062915606012</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9104009194725459</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9183464305963711</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9341544151392748</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9419194245041522</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.946961847224064</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9493967392333057</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9496091566695737</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9496091566695737</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9566226545206609</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9627675054853133</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9633006313638499</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9663423705330916</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9665605800153971</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9666037911823571</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.970073421083822</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9779555897532394</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9792970105366841</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9800277265008153</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9806310154544152</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9811381395312426</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9821314742402308</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9821314742402308</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9825378780952324</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9825378780952324</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9838349487157388</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.984136673749733</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9872445681823612</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9872445681823612</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9877635164409074</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9931128225222284</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9943009258477314</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.995094205729258</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999254443776174</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.886755987392484E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.325000751737867E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.41757627874004E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.41757627874004E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.41757627874004E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.41757627874004E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.994601550772983E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.929275591934598E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001720819025233564</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001803806339027993</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001803806339027993</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002406108795455203</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004621794543586796</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0004621794543586796</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0005903701248456563</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0008502428743912701</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001012285155974037</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001043888751381949</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001201618764415712</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.00123420101496553</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001296926249536865</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001383868446495717</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001383868446495717</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001501125535282792</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00207200151446823</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00225595714354798</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00225595714354798</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002295836455410482</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002393823121976388</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002474621582001572</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002504725127748822</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002522399399125806</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002533696828578431</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002533696828578431</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002589956584016992</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002910255680828286</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002910255680828286</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002932151487182482</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003330262043713528</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003624231327306211</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003674461809455124</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003905429103454221</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004078665695046084</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004078665695046084</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004124096206182342</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004235499383027292</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004235499383027292</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004283912729787219</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004287988808396077</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004294981616568879</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004294981616568879</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.004535801918609196</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.004674859143257941</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004674859143257941</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.004787852195879436</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005203493758935154</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00551534840758084</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005540231871294637</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005625680952717847</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005649682396329772</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005705256361495111</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005707658887076704</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.005707658887076704</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005750307344721602</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.005809902841982064</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.005809902841982064</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.005809902841982064</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.005809902841982064</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.005809902841982064</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.005921306018827014</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.006608419087325298</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.006826511625228897</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.006887379563978356</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007061651436561921</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007530629722379621</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007778906627699731</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007791952948050747</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007877486325717784</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008339232728794475</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008339232728794475</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008512352152403511</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008522932472334708</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.008534573804540551</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.008548299128275991</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.008943149013427203</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00932881305092086</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.009544472745601627</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.009733784317688454</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.02276614318207184</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.05008997810951349</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1072686597746659</v>
+        <v>0.1411846070034371</v>
       </c>
       <c r="CP5">
-        <v>0.1863169187124084</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CQ5">
-        <v>0.1869797549715014</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CR5">
-        <v>0.1876300698915166</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CS5">
-        <v>0.1889673789662464</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CT5">
-        <v>0.1994115884365454</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CU5">
-        <v>0.2069797079445619</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CV5">
-        <v>0.2275010911046056</v>
+        <v>0.3961402785805503</v>
       </c>
       <c r="CW5">
-        <v>0.2699086441582303</v>
+        <v>0.460481743801158</v>
       </c>
       <c r="CX5">
-        <v>0.32657119775405</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="CY5">
-        <v>0.3401698091067487</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="CZ5">
-        <v>0.3523923041358594</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="DA5">
-        <v>0.3578831142349891</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="DB5">
-        <v>0.3808608974120866</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="DC5">
-        <v>0.4569487467061185</v>
+        <v>0.8385361951289241</v>
       </c>
       <c r="DD5">
-        <v>0.4573940147014466</v>
+        <v>0.8385361951289241</v>
       </c>
       <c r="DE5">
-        <v>0.4978922715043661</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DF5">
-        <v>0.4982124130083375</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DG5">
-        <v>0.5235814356597397</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DH5">
-        <v>0.5259020140793439</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DI5">
-        <v>0.5393194177046615</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DJ5">
-        <v>0.5402162187839467</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DK5">
-        <v>0.5687773508151795</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DL5">
-        <v>0.5777145073889125</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DM5">
-        <v>0.5830772231751502</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DN5">
-        <v>0.594227866038231</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DO5">
-        <v>0.5954559344486234</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DP5">
-        <v>0.5961387811121557</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DQ5">
-        <v>0.5961584588889314</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DR5">
-        <v>0.6002460258425439</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DS5">
-        <v>0.6002527168585252</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DT5">
-        <v>0.6057485688467981</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DU5">
-        <v>0.6072298267712378</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DV5">
-        <v>0.6091332023358694</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DW5">
-        <v>0.6215201447022036</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DX5">
-        <v>0.6225633947924257</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DY5">
-        <v>0.6275882658448545</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="DZ5">
-        <v>0.6341388304006026</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EA5">
-        <v>0.6437529220403756</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EB5">
-        <v>0.6559321070834937</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EC5">
-        <v>0.6571960694817454</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="ED5">
-        <v>0.6594781609533781</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EE5">
-        <v>0.6601799490663317</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EF5">
-        <v>0.6614920670247537</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EG5">
-        <v>0.6629354397666869</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EH5">
-        <v>0.6647308897769268</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EI5">
-        <v>0.6648837126570187</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EJ5">
-        <v>0.6655063433708445</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EK5">
-        <v>0.67540661615602</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EL5">
-        <v>0.6982889682246566</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EM5">
-        <v>0.7091926688968161</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EN5">
-        <v>0.7128940454514473</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EO5">
-        <v>0.7149967688472125</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EP5">
-        <v>0.7166779619451105</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EQ5">
-        <v>0.7171848897666824</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="ER5">
-        <v>0.7171848897666824</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="ES5">
-        <v>0.7213628938164257</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="ET5">
-        <v>0.7220669583616585</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EU5">
-        <v>0.7300407042515009</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EV5">
-        <v>0.7460817722506863</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EW5">
-        <v>0.7486771890174513</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EX5">
-        <v>0.7521633651071841</v>
+        <v>0.892945019022188</v>
       </c>
       <c r="EY5">
-        <v>0.7856914220097272</v>
+        <v>0.9110931025694988</v>
       </c>
       <c r="EZ5">
-        <v>0.8328210511022989</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8342514646526693</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8427220176134796</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8428325823351177</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8443326383189257</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8476051815588219</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8615819345972484</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8622364146497494</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8643752887452391</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8664499281834587</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8939260474339381</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9161521095593078</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9166791533546931</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9247238250369779</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.934178172385034</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9370340532370761</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9382323450743121</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9382491946185072</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9425086012695523</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9428151443964597</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9503543777599121</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9521559759341885</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9556608159681169</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.958770053802891</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9591664449708569</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9593845375087605</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9648810335303122</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9719814011831809</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9726464507933462</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9740652563199504</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9745543554373753</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9751235964334145</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9752658821478113</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9760955474152507</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9777795357978681</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.977879111538925</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9778803033240099</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9805189262101252</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9836835658308224</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9839981710224043</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9878435722483927</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9950274719189719</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9958734919758282</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9967197659400503</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999967013266511</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9740,598 +9740,598 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.49307818949229E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002068034743831483</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002108659742654419</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002108659742654419</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002108659742654419</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002108659742654419</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002148976594897628</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002251426600568906</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002353876606240185</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003271019574208855</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003857253952081631</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0003914902046662004</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003914902046662004</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0003914902046662004</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003914902046662004</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0004420977667537311</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0005301453175263178</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0005301453175263178</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0005301453175263178</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000535412830556871</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0005377067090653266</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005377067090653266</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0005377067090653266</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0005525142227031538</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0006151751357301038</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0006965488896968382</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0008491628183080982</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0008491628183080982</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0008491628183080982</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0008804435254515156</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001019740899419566</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001110378932300924</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001119842908664775</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001122351712703303</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001131333373378109</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001158231150054261</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001195587128440475</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001195587128440475</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.00120203885883084</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001278324463066865</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001310710791766756</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001321204986303137</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001325236671527458</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001325236671527458</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.00148854627659464</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001649564249262746</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001649564249262746</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001712225162289696</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001889078045863067</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001922152639355646</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001922152639355646</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001922152639355646</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001930387802624011</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001958976798523084</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001958976798523084</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.00197074273558389</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001983823349604989</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001983823349604989</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001987655076018269</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002011359317755316</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.002011359317755316</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002065365810118994</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002068637721557848</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002120213028333347</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002146424678176476</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002184174962416172</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002371649439889998</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002578983609936539</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002613246991115817</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002613246991115817</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002614960106650685</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002626765723642017</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002626765723642017</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002626765723642017</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00263299776590926</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002634891640676418</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.00267218731658348</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002755701657851475</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002755701657851475</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002755701657851475</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002801062048067539</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002942389272038745</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.003027026611918972</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003067251798265386</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.003268199567359736</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.00344346342117518</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003478814658317305</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003478814658317305</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01696002340784155</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07339666909970033</v>
+        <v>0.1149169305497596</v>
       </c>
       <c r="CO6">
-        <v>0.1347029720543406</v>
+        <v>0.2510288393628368</v>
       </c>
       <c r="CP6">
-        <v>0.2371447184609864</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CQ6">
-        <v>0.2383017227176026</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CR6">
-        <v>0.2404421439579782</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CS6">
-        <v>0.2406983934434671</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CT6">
-        <v>0.2465942271526551</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CU6">
-        <v>0.2475196650926879</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CV6">
-        <v>0.2722828409238727</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CW6">
-        <v>0.2914766698837556</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="CX6">
-        <v>0.3487939606881311</v>
+        <v>0.6849309356673792</v>
       </c>
       <c r="CY6">
-        <v>0.3586353837356355</v>
+        <v>0.6849309356673792</v>
       </c>
       <c r="CZ6">
-        <v>0.3603259261906798</v>
+        <v>0.6849309356673792</v>
       </c>
       <c r="DA6">
-        <v>0.3612714877786894</v>
+        <v>0.6849309356673792</v>
       </c>
       <c r="DB6">
-        <v>0.3936009068653096</v>
+        <v>0.6949221771358796</v>
       </c>
       <c r="DC6">
-        <v>0.4841177351272293</v>
+        <v>0.9581716678235072</v>
       </c>
       <c r="DD6">
-        <v>0.4841726659091242</v>
+        <v>0.9581716678235072</v>
       </c>
       <c r="DE6">
-        <v>0.5198021754439356</v>
+        <v>0.9825264140608099</v>
       </c>
       <c r="DF6">
-        <v>0.5228666284587322</v>
+        <v>0.9825264140608099</v>
       </c>
       <c r="DG6">
-        <v>0.5569151553755968</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.5589944456899681</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.5703083110987683</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.5731329142797749</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.5965347445454352</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6023579406995286</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6097945336438138</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6239650275986238</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6261858692682404</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6266113756228336</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.627878895270359</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.6356961251456863</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6383634204590726</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6390895529425303</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6393420072942626</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6447313281172513</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.6681138496530588</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.6714793743535221</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.6760266775375625</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.6803243407349095</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.6857014115997876</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.6975312733230791</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.6996387359375006</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.702683728812842</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7047723650651719</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7050792515895542</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7050792515895542</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.705600387528034</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7069772159961645</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.7069931933973247</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7089868094093068</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7175829044991365</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7221984181096188</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7228515948274704</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7228633607645312</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7228819288030151</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7242083392754824</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7242983969349295</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7283019906400283</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7300971484182802</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7349486744502682</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.746334289184551</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7467797247880066</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7469190221619746</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.761832851145419</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7895771518679212</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7896125031050634</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8077308432224025</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8108349907879654</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8108349907879654</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8185197172334553</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8388729562113468</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8402764744271706</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8414856965711125</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8448478183607894</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8705311810437139</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.890731387172065</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.890781548022752</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9056214897210501</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9249739052186677</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9343639464000656</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9400787491007335</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9429608253440162</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9429787959504508</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9434632996374287</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9552931613607202</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9604742124675482</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9610471179727254</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9626050980162816</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9632189305383775</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9633595431130308</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9688497980631992</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9777530253284759</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9791404437567148</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9798125680744926</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9798144619492597</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9822640801234105</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9842176947598765</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9843945476434499</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9843945476434499</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9844393402807027</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9855106393922329</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9861455917914258</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9881230367171215</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9881230367171215</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9895952280999777</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9951704935335839</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9957166280686284</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9968053236628106</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9996263304652053</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.51654470026164</v>
+        <v>0.6140391710124797</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01617774582967602</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5083504843582387</v>
+        <v>0.552930044219039</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01657266585994364</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5361029917920032</v>
+        <v>0.5523485645983678</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.02276614318207184</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5235814356597397</v>
+        <v>0.5989813222293998</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01696002340784155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5198021754439356</v>
+        <v>0.5661810343333831</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7002779747556435</v>
+        <v>0.8825617065804412</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.01617774582967602</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7008431387691741</v>
+        <v>0.7167353895035052</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.01657266585994364</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7003062515046069</v>
+        <v>0.9031903135954729</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.02276614318207184</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7091926688968161</v>
+        <v>0.8385361951289241</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01696002340784155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.702683728812842</v>
+        <v>0.9581716678235072</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8008918238423137</v>
+        <v>0.8825617065804412</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01617774582967602</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8037836774628825</v>
+        <v>0.9318185484927006</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.01657266585994364</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8142844627962096</v>
+        <v>0.9031903135954729</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.02276614318207184</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8328210511022989</v>
+        <v>0.8385361951289241</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01696002340784155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8077308432224025</v>
+        <v>0.9581716678235072</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>7.080976050793887E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.908079549474568</v>
+        <v>0.9093890144601195</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01617774582967602</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9021668745253693</v>
+        <v>0.9318185484927006</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.01657266585994364</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9086062915606012</v>
+        <v>0.9031903135954729</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5">
-        <v>0.02276614318207184</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9161521095593078</v>
+        <v>0.9110931025694988</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01696002340784155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9056214897210501</v>
+        <v>0.9581716678235072</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>5</v>

--- a/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2214104565109604</v>
+        <v>0.1656462650631509</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01891421794014306</v>
       </c>
       <c r="G2">
-        <v>0.1811819917244604</v>
+        <v>0.1402661284630736</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -695,70 +695,70 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01493944305205501</v>
+        <v>0.03538371208345138</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.08031641345154487</v>
+        <v>0.07663003972842514</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0127390276860864</v>
       </c>
       <c r="O2">
-        <v>0.127664295247206</v>
+        <v>0.1065018161950594</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.001540651945965938</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.002369245174667706</v>
       </c>
       <c r="S2">
-        <v>0.001463967969892171</v>
+        <v>0.02688203546836454</v>
       </c>
       <c r="T2">
-        <v>0.2420107555049074</v>
+        <v>0.1786429927594131</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01024907496076146</v>
       </c>
       <c r="V2">
-        <v>0.05420817311492265</v>
+        <v>0.06015835209013649</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0768045034240511</v>
+        <v>0.07441437585216196</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01460800538169939</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.02040698425284564</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.02197544313845625</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.02566108857327365</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0003772458029705327</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.006633297439893414</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2041867823946621</v>
+        <v>0.1584335508871076</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2678579189046641</v>
+        <v>0.1995789899660071</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001362147018642461</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -805,70 +805,70 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.009913417290125516</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.07216787132189198</v>
+        <v>0.07312054470330856</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1193318958896565</v>
+        <v>0.1035987897282553</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.02013043396261976</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.002360511246137724</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.191768231621943</v>
+        <v>0.1504084589494623</v>
       </c>
       <c r="U3">
-        <v>0.04365393114871765</v>
+        <v>0.05469432125886871</v>
       </c>
       <c r="V3">
-        <v>0.03926352323794585</v>
+        <v>0.05185716032338263</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01554537377963485</v>
       </c>
       <c r="X3">
-        <v>0.0444919030730432</v>
+        <v>0.05523583386021436</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.004471439918987542</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.01763831625124962</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01156701428183684</v>
       </c>
       <c r="AC3">
-        <v>0.009838453328954591</v>
+        <v>0.03284214837770186</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00743948907852086</v>
+        <v>0.03129189432493851</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.005583998020003029</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.0003656558515156698</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1578965700604887</v>
+        <v>0.1312774431354588</v>
       </c>
       <c r="F4">
-        <v>0.02139609530367071</v>
+        <v>0.03968703550565983</v>
       </c>
       <c r="G4">
-        <v>0.3230013726040267</v>
+        <v>0.2420610590425881</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,67 +915,67 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.001267604072463273</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.02327982467866124</v>
+        <v>0.0409509984451806</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.01806146304687464</v>
       </c>
       <c r="O4">
-        <v>0.1355242637168601</v>
+        <v>0.1162658568293875</v>
       </c>
       <c r="P4">
-        <v>0.01847515152987221</v>
+        <v>0.03772711242566655</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.004341602378843682</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.01172411228093576</v>
       </c>
       <c r="T4">
-        <v>0.1957287625173821</v>
+        <v>0.1566624532229992</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0753756520682661</v>
+        <v>0.07590676013704407</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.03119216134847353</v>
+        <v>0.04626009456505411</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01047255049344729</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0181301461722989</v>
+        <v>0.03749561739686977</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.02022495593375254</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.009613281087774329</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0156798898124956</v>
       </c>
       <c r="E5">
-        <v>0.03410149138234103</v>
+        <v>0.04709512281393469</v>
       </c>
       <c r="F5">
-        <v>0.1400557532107807</v>
+        <v>0.1127214417714137</v>
       </c>
       <c r="G5">
-        <v>0.2176704513123927</v>
+        <v>0.1607947032476938</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1025,67 +1025,67 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.009990672274786977</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.003668509616462544</v>
       </c>
       <c r="M5">
-        <v>0.009959724319514016</v>
+        <v>0.03214211122080417</v>
       </c>
       <c r="N5">
-        <v>0.08763330930553466</v>
+        <v>0.08025184626022298</v>
       </c>
       <c r="O5">
-        <v>0.1382240248795139</v>
+        <v>0.111586899511039</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01692461455468312</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01389966354529459</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0186774394981869</v>
+        <v>0.03754171994841157</v>
       </c>
       <c r="T5">
-        <v>0.2071640159163285</v>
+        <v>0.1542871907747676</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.08085725459547134</v>
+        <v>0.07605486994230971</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02716390119671445</v>
+        <v>0.04279809409171675</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01652628740133518</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0384926343832217</v>
+        <v>0.04981492422815535</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.006677899144690388</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01154353983978256</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01450088082007545</v>
       </c>
       <c r="E6">
-        <v>0.1139761566652302</v>
+        <v>0.1014449834315055</v>
       </c>
       <c r="F6">
-        <v>0.1287884966681106</v>
+        <v>0.1113014302721265</v>
       </c>
       <c r="G6">
-        <v>0.2539127388272678</v>
+        <v>0.1945617686842138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01763298930660746</v>
+        <v>0.03733618581123366</v>
       </c>
       <c r="N6">
-        <v>0.0006923598125755903</v>
+        <v>0.02606352976754904</v>
       </c>
       <c r="O6">
-        <v>0.1166548697911351</v>
+        <v>0.1032274562563003</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.007133759820122649</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1159,43 +1159,43 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0406477029909942</v>
+        <v>0.05265066697613795</v>
       </c>
       <c r="T6">
-        <v>0.2176399720729787</v>
+        <v>0.1704250963416689</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.05068579378897883</v>
+        <v>0.05933022660766292</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04587682042351098</v>
+        <v>0.05613023320179465</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0101140619393113</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0134920996526106</v>
+        <v>0.03458074955068598</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.00226625502583912</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01589603095432648</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.003036684539445448</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2214104565109604</v>
+        <v>0.1656462650631509</v>
       </c>
       <c r="F2">
-        <v>0.2214104565109604</v>
+        <v>0.184560483003294</v>
       </c>
       <c r="G2">
-        <v>0.4025924482354208</v>
+        <v>0.3248266114663676</v>
       </c>
       <c r="H2">
-        <v>0.4025924482354208</v>
+        <v>0.3248266114663676</v>
       </c>
       <c r="I2">
-        <v>0.4025924482354208</v>
+        <v>0.3248266114663676</v>
       </c>
       <c r="J2">
-        <v>0.4025924482354208</v>
+        <v>0.3248266114663676</v>
       </c>
       <c r="K2">
-        <v>0.4175318912874759</v>
+        <v>0.360210323549819</v>
       </c>
       <c r="L2">
-        <v>0.4175318912874759</v>
+        <v>0.360210323549819</v>
       </c>
       <c r="M2">
-        <v>0.4978483047390208</v>
+        <v>0.4368403632782441</v>
       </c>
       <c r="N2">
-        <v>0.4978483047390208</v>
+        <v>0.4495793909643305</v>
       </c>
       <c r="O2">
-        <v>0.6255125999862268</v>
+        <v>0.5560812071593899</v>
       </c>
       <c r="P2">
-        <v>0.6255125999862268</v>
+        <v>0.5576218591053559</v>
       </c>
       <c r="Q2">
-        <v>0.6255125999862268</v>
+        <v>0.5576218591053559</v>
       </c>
       <c r="R2">
-        <v>0.6255125999862268</v>
+        <v>0.5599911042800236</v>
       </c>
       <c r="S2">
-        <v>0.6269765679561189</v>
+        <v>0.5868731397483882</v>
       </c>
       <c r="T2">
-        <v>0.8689873234610264</v>
+        <v>0.7655161325078013</v>
       </c>
       <c r="U2">
-        <v>0.8689873234610264</v>
+        <v>0.7757652074685627</v>
       </c>
       <c r="V2">
-        <v>0.923195496575949</v>
+        <v>0.8359235595586992</v>
       </c>
       <c r="W2">
-        <v>0.923195496575949</v>
+        <v>0.8359235595586992</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9103379354108612</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9103379354108612</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9249459407925605</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9249459407925605</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9453529250454061</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9673283681838624</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9673283681838624</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.992989456757136</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9933667025601065</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9933667025601065</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9933667025601065</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,97 +1460,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2041867823946621</v>
+        <v>0.1584335508871076</v>
       </c>
       <c r="F3">
-        <v>0.2041867823946621</v>
+        <v>0.1584335508871076</v>
       </c>
       <c r="G3">
-        <v>0.4720447012993262</v>
+        <v>0.3580125408531147</v>
       </c>
       <c r="H3">
-        <v>0.4720447012993262</v>
+        <v>0.3593746878717572</v>
       </c>
       <c r="I3">
-        <v>0.4720447012993262</v>
+        <v>0.3593746878717572</v>
       </c>
       <c r="J3">
-        <v>0.4720447012993262</v>
+        <v>0.3593746878717572</v>
       </c>
       <c r="K3">
-        <v>0.4720447012993262</v>
+        <v>0.3692881051618827</v>
       </c>
       <c r="L3">
-        <v>0.4720447012993262</v>
+        <v>0.3692881051618827</v>
       </c>
       <c r="M3">
-        <v>0.5442125726212182</v>
+        <v>0.4424086498651912</v>
       </c>
       <c r="N3">
-        <v>0.5442125726212182</v>
+        <v>0.4424086498651912</v>
       </c>
       <c r="O3">
-        <v>0.6635444685108747</v>
+        <v>0.5460074395934466</v>
       </c>
       <c r="P3">
-        <v>0.6635444685108747</v>
+        <v>0.5661378735560663</v>
       </c>
       <c r="Q3">
-        <v>0.6635444685108747</v>
+        <v>0.5661378735560663</v>
       </c>
       <c r="R3">
-        <v>0.6635444685108747</v>
+        <v>0.5684983848022039</v>
       </c>
       <c r="S3">
-        <v>0.6635444685108747</v>
+        <v>0.5684983848022039</v>
       </c>
       <c r="T3">
-        <v>0.8553127001328177</v>
+        <v>0.7189068437516661</v>
       </c>
       <c r="U3">
-        <v>0.8989666312815353</v>
+        <v>0.7736011650105349</v>
       </c>
       <c r="V3">
-        <v>0.9382301545194811</v>
+        <v>0.8254583253339175</v>
       </c>
       <c r="W3">
-        <v>0.9382301545194811</v>
+        <v>0.8410036991135523</v>
       </c>
       <c r="X3">
-        <v>0.9827220575925243</v>
+        <v>0.8962395329737667</v>
       </c>
       <c r="Y3">
-        <v>0.9827220575925243</v>
+        <v>0.9007109728927543</v>
       </c>
       <c r="Z3">
-        <v>0.9827220575925243</v>
+        <v>0.9183492891440039</v>
       </c>
       <c r="AA3">
-        <v>0.9827220575925243</v>
+        <v>0.9183492891440039</v>
       </c>
       <c r="AB3">
-        <v>0.9827220575925243</v>
+        <v>0.9299163034258408</v>
       </c>
       <c r="AC3">
-        <v>0.9925605109214789</v>
+        <v>0.9627584518035426</v>
       </c>
       <c r="AD3">
-        <v>0.9925605109214789</v>
+        <v>0.9627584518035426</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999998</v>
+        <v>0.9940503461284811</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>0.9996343441484841</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>0.9996343441484841</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>0.9996343441484841</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9996343441484841</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999998</v>
@@ -1570,82 +1570,82 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1578965700604887</v>
+        <v>0.1312774431354588</v>
       </c>
       <c r="F4">
-        <v>0.1792926653641594</v>
+        <v>0.1709644786411186</v>
       </c>
       <c r="G4">
-        <v>0.5022940379681862</v>
+        <v>0.4130255376837068</v>
       </c>
       <c r="H4">
-        <v>0.5022940379681862</v>
+        <v>0.4130255376837068</v>
       </c>
       <c r="I4">
-        <v>0.5022940379681862</v>
+        <v>0.4130255376837068</v>
       </c>
       <c r="J4">
-        <v>0.5022940379681862</v>
+        <v>0.4130255376837068</v>
       </c>
       <c r="K4">
-        <v>0.5022940379681862</v>
+        <v>0.41429314175617</v>
       </c>
       <c r="L4">
-        <v>0.5022940379681862</v>
+        <v>0.41429314175617</v>
       </c>
       <c r="M4">
-        <v>0.5255738626468474</v>
+        <v>0.4552441402013506</v>
       </c>
       <c r="N4">
-        <v>0.5255738626468474</v>
+        <v>0.4733056032482252</v>
       </c>
       <c r="O4">
-        <v>0.6610981263637075</v>
+        <v>0.5895714600776127</v>
       </c>
       <c r="P4">
-        <v>0.6795732778935797</v>
+        <v>0.6272985725032793</v>
       </c>
       <c r="Q4">
-        <v>0.6795732778935797</v>
+        <v>0.631640174882123</v>
       </c>
       <c r="R4">
-        <v>0.6795732778935797</v>
+        <v>0.631640174882123</v>
       </c>
       <c r="S4">
-        <v>0.6795732778935797</v>
+        <v>0.6433642871630587</v>
       </c>
       <c r="T4">
-        <v>0.8753020404109618</v>
+        <v>0.8000267403860579</v>
       </c>
       <c r="U4">
-        <v>0.8753020404109618</v>
+        <v>0.8000267403860579</v>
       </c>
       <c r="V4">
-        <v>0.950677692479228</v>
+        <v>0.875933500523102</v>
       </c>
       <c r="W4">
-        <v>0.950677692479228</v>
+        <v>0.875933500523102</v>
       </c>
       <c r="X4">
-        <v>0.9818698538277015</v>
+        <v>0.9221935950881561</v>
       </c>
       <c r="Y4">
-        <v>0.9818698538277015</v>
+        <v>0.9221935950881561</v>
       </c>
       <c r="Z4">
-        <v>0.9818698538277015</v>
+        <v>0.9326661455816034</v>
       </c>
       <c r="AA4">
-        <v>0.9818698538277015</v>
+        <v>0.9326661455816034</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9701617629784732</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9903867189122257</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9903867189122257</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0156798898124956</v>
       </c>
       <c r="E5">
-        <v>0.03410149138234103</v>
+        <v>0.06277501262643029</v>
       </c>
       <c r="F5">
-        <v>0.1741572445931217</v>
+        <v>0.1754964543978439</v>
       </c>
       <c r="G5">
-        <v>0.3918276959055144</v>
+        <v>0.3362911576455377</v>
       </c>
       <c r="H5">
-        <v>0.3918276959055144</v>
+        <v>0.3362911576455377</v>
       </c>
       <c r="I5">
-        <v>0.3918276959055144</v>
+        <v>0.3362911576455377</v>
       </c>
       <c r="J5">
-        <v>0.3918276959055144</v>
+        <v>0.3362911576455377</v>
       </c>
       <c r="K5">
-        <v>0.3918276959055144</v>
+        <v>0.3462818299203247</v>
       </c>
       <c r="L5">
-        <v>0.3918276959055144</v>
+        <v>0.3499503395367873</v>
       </c>
       <c r="M5">
-        <v>0.4017874202250284</v>
+        <v>0.3820924507575915</v>
       </c>
       <c r="N5">
-        <v>0.4894207295305631</v>
+        <v>0.4623442970178144</v>
       </c>
       <c r="O5">
-        <v>0.6276447544100771</v>
+        <v>0.5739311965288535</v>
       </c>
       <c r="P5">
-        <v>0.6276447544100771</v>
+        <v>0.5908558110835366</v>
       </c>
       <c r="Q5">
-        <v>0.6276447544100771</v>
+        <v>0.6047554746288312</v>
       </c>
       <c r="R5">
-        <v>0.6276447544100771</v>
+        <v>0.6047554746288312</v>
       </c>
       <c r="S5">
-        <v>0.646322193908264</v>
+        <v>0.6422971945772428</v>
       </c>
       <c r="T5">
-        <v>0.8534862098245924</v>
+        <v>0.7965843853520104</v>
       </c>
       <c r="U5">
-        <v>0.8534862098245924</v>
+        <v>0.7965843853520104</v>
       </c>
       <c r="V5">
-        <v>0.9343434644200638</v>
+        <v>0.8726392552943201</v>
       </c>
       <c r="W5">
-        <v>0.9343434644200638</v>
+        <v>0.8726392552943201</v>
       </c>
       <c r="X5">
-        <v>0.9615073656167782</v>
+        <v>0.9154373493860368</v>
       </c>
       <c r="Y5">
-        <v>0.9615073656167782</v>
+        <v>0.9154373493860368</v>
       </c>
       <c r="Z5">
-        <v>0.9615073656167782</v>
+        <v>0.931963636787372</v>
       </c>
       <c r="AA5">
-        <v>0.9615073656167782</v>
+        <v>0.931963636787372</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>0.9817785610155274</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>0.9884564601602178</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>0.9884564601602178</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01450088082007545</v>
       </c>
       <c r="E6">
-        <v>0.1139761566652302</v>
+        <v>0.115945864251581</v>
       </c>
       <c r="F6">
-        <v>0.2427646533333408</v>
+        <v>0.2272472945237075</v>
       </c>
       <c r="G6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="H6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="I6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="J6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="K6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="L6">
-        <v>0.4966773921606086</v>
+        <v>0.4218090632079213</v>
       </c>
       <c r="M6">
-        <v>0.5143103814672161</v>
+        <v>0.4591452490191549</v>
       </c>
       <c r="N6">
-        <v>0.5150027412797916</v>
+        <v>0.485208778786704</v>
       </c>
       <c r="O6">
-        <v>0.6316576110709268</v>
+        <v>0.5884362350430044</v>
       </c>
       <c r="P6">
-        <v>0.6316576110709268</v>
+        <v>0.595569994863127</v>
       </c>
       <c r="Q6">
-        <v>0.6316576110709268</v>
+        <v>0.595569994863127</v>
       </c>
       <c r="R6">
-        <v>0.6316576110709268</v>
+        <v>0.595569994863127</v>
       </c>
       <c r="S6">
-        <v>0.672305314061921</v>
+        <v>0.648220661839265</v>
       </c>
       <c r="T6">
-        <v>0.8899452861348998</v>
+        <v>0.8186457581809339</v>
       </c>
       <c r="U6">
-        <v>0.8899452861348998</v>
+        <v>0.8186457581809339</v>
       </c>
       <c r="V6">
-        <v>0.9406310799238786</v>
+        <v>0.8779759847885968</v>
       </c>
       <c r="W6">
-        <v>0.9406310799238786</v>
+        <v>0.8779759847885968</v>
       </c>
       <c r="X6">
-        <v>0.9865079003473896</v>
+        <v>0.9341062179903915</v>
       </c>
       <c r="Y6">
-        <v>0.9865079003473896</v>
+        <v>0.9341062179903915</v>
       </c>
       <c r="Z6">
-        <v>0.9865079003473896</v>
+        <v>0.9442202799297028</v>
       </c>
       <c r="AA6">
-        <v>0.9865079003473896</v>
+        <v>0.9442202799297028</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9788010294803888</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9788010294803888</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9810672845062279</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9969633154605544</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9969633154605544</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9969633154605544</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9969633154605544</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6255125999862268</v>
+        <v>0.5560812071593899</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5460074395934466</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5442125726212182</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5022940379681862</v>
+        <v>0.5895714600776127</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2071,7 +2071,7 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6276447544100771</v>
+        <v>0.5739311965288535</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5884362350430044</v>
+      </c>
+      <c r="G6">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5143103814672161</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8689873234610264</v>
+        <v>0.7655161325078013</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8553127001328177</v>
+        <v>0.7189068437516661</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8753020404109618</v>
+        <v>0.8000267403860579</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2330,7 +2330,7 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8534862098245924</v>
+        <v>0.7965843853520104</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8899452861348998</v>
+        <v>0.8186457581809339</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8359235595586992</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8689873234610264</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8254583253339175</v>
+      </c>
+      <c r="G3">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8553127001328177</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8753020404109618</v>
+        <v>0.8000267403860579</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2589,19 +2589,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8726392552943201</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8534862098245924</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8899452861348998</v>
+        <v>0.8186457581809339</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9103379354108612</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.923195496575949</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9382301545194811</v>
+        <v>0.9007109728927543</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9221935950881561</v>
+      </c>
+      <c r="G4">
         <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.950677692479228</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2848,19 +2848,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9154373493860368</v>
+      </c>
+      <c r="G5">
         <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9343434644200638</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9341062179903915</v>
+      </c>
+      <c r="G6">
         <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9406310799238786</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
       </c>
       <c r="H6">
         <v>5</v>
